--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62349900</v>
+        <v>62895100</v>
       </c>
       <c r="E8" s="3">
-        <v>59648900</v>
+        <v>60170400</v>
       </c>
       <c r="F8" s="3">
-        <v>61533000</v>
+        <v>62071000</v>
       </c>
       <c r="G8" s="3">
-        <v>60561300</v>
+        <v>61090800</v>
       </c>
       <c r="H8" s="3">
-        <v>62803400</v>
+        <v>63352500</v>
       </c>
       <c r="I8" s="3">
-        <v>60012300</v>
+        <v>60537000</v>
       </c>
       <c r="J8" s="3">
+        <v>56982700</v>
+      </c>
+      <c r="K8" s="3">
         <v>56488800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71154000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3295100</v>
+        <v>-3323900</v>
       </c>
       <c r="E15" s="3">
-        <v>-2662700</v>
+        <v>-2685900</v>
       </c>
       <c r="F15" s="3">
-        <v>-2847100</v>
+        <v>-2872000</v>
       </c>
       <c r="G15" s="3">
-        <v>-2595700</v>
+        <v>-2618400</v>
       </c>
       <c r="H15" s="3">
-        <v>-2655000</v>
+        <v>-2678200</v>
       </c>
       <c r="I15" s="3">
-        <v>-2511100</v>
+        <v>-2533100</v>
       </c>
       <c r="J15" s="3">
+        <v>-2648300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2625300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2462700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33864500</v>
+        <v>34160600</v>
       </c>
       <c r="E17" s="3">
-        <v>31808000</v>
+        <v>32086100</v>
       </c>
       <c r="F17" s="3">
-        <v>34022600</v>
+        <v>34320100</v>
       </c>
       <c r="G17" s="3">
-        <v>36919200</v>
+        <v>37241900</v>
       </c>
       <c r="H17" s="3">
-        <v>37968800</v>
+        <v>38300800</v>
       </c>
       <c r="I17" s="3">
-        <v>39121700</v>
+        <v>39463800</v>
       </c>
       <c r="J17" s="3">
+        <v>40425200</v>
+      </c>
+      <c r="K17" s="3">
         <v>40074800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48114500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28485400</v>
+        <v>28734500</v>
       </c>
       <c r="E18" s="3">
-        <v>27840900</v>
+        <v>28084300</v>
       </c>
       <c r="F18" s="3">
-        <v>27510400</v>
+        <v>27750900</v>
       </c>
       <c r="G18" s="3">
-        <v>23642100</v>
+        <v>23848800</v>
       </c>
       <c r="H18" s="3">
-        <v>24834600</v>
+        <v>25051700</v>
       </c>
       <c r="I18" s="3">
-        <v>20890500</v>
+        <v>21073200</v>
       </c>
       <c r="J18" s="3">
+        <v>16557500</v>
+      </c>
+      <c r="K18" s="3">
         <v>16414000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23039500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14713200</v>
+        <v>-14841800</v>
       </c>
       <c r="E20" s="3">
-        <v>-12248200</v>
+        <v>-12355300</v>
       </c>
       <c r="F20" s="3">
-        <v>-14234500</v>
+        <v>-14358900</v>
       </c>
       <c r="G20" s="3">
-        <v>-11818900</v>
+        <v>-11922200</v>
       </c>
       <c r="H20" s="3">
-        <v>-14352000</v>
+        <v>-14477400</v>
       </c>
       <c r="I20" s="3">
-        <v>-9165000</v>
+        <v>-9245100</v>
       </c>
       <c r="J20" s="3">
+        <v>-8385600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8313000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13815700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16439000</v>
+        <v>17194600</v>
       </c>
       <c r="E21" s="3">
-        <v>18444200</v>
+        <v>18397300</v>
       </c>
       <c r="F21" s="3">
-        <v>15875600</v>
+        <v>16245100</v>
       </c>
       <c r="G21" s="3">
-        <v>14482300</v>
+        <v>14527700</v>
       </c>
       <c r="H21" s="3">
-        <v>12997600</v>
+        <v>13234800</v>
       </c>
       <c r="I21" s="3">
-        <v>14354900</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>14344400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10802700</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11688100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13772200</v>
+        <v>13892600</v>
       </c>
       <c r="E23" s="3">
-        <v>15592700</v>
+        <v>15729000</v>
       </c>
       <c r="F23" s="3">
-        <v>13275900</v>
+        <v>13392000</v>
       </c>
       <c r="G23" s="3">
-        <v>11823300</v>
+        <v>11926600</v>
       </c>
       <c r="H23" s="3">
-        <v>10482600</v>
+        <v>10574300</v>
       </c>
       <c r="I23" s="3">
-        <v>11725500</v>
+        <v>11828100</v>
       </c>
       <c r="J23" s="3">
+        <v>8171900</v>
+      </c>
+      <c r="K23" s="3">
         <v>8101000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9223800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4860800</v>
+        <v>4903300</v>
       </c>
       <c r="E24" s="3">
-        <v>5364800</v>
+        <v>5411700</v>
       </c>
       <c r="F24" s="3">
-        <v>4264600</v>
+        <v>4301900</v>
       </c>
       <c r="G24" s="3">
-        <v>3603600</v>
+        <v>3635100</v>
       </c>
       <c r="H24" s="3">
-        <v>2429900</v>
+        <v>2451100</v>
       </c>
       <c r="I24" s="3">
-        <v>4082400</v>
+        <v>4118100</v>
       </c>
       <c r="J24" s="3">
+        <v>2252900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2233300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2060000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8911400</v>
+        <v>8989300</v>
       </c>
       <c r="E26" s="3">
-        <v>10227900</v>
+        <v>10317300</v>
       </c>
       <c r="F26" s="3">
-        <v>9011300</v>
+        <v>9090100</v>
       </c>
       <c r="G26" s="3">
-        <v>8219600</v>
+        <v>8291500</v>
       </c>
       <c r="H26" s="3">
-        <v>8052700</v>
+        <v>8123100</v>
       </c>
       <c r="I26" s="3">
-        <v>7643200</v>
+        <v>7710000</v>
       </c>
       <c r="J26" s="3">
+        <v>5919000</v>
+      </c>
+      <c r="K26" s="3">
         <v>5867700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7163800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7153500</v>
+        <v>7216000</v>
       </c>
       <c r="E27" s="3">
-        <v>8575400</v>
+        <v>8650400</v>
       </c>
       <c r="F27" s="3">
-        <v>7267700</v>
+        <v>7331200</v>
       </c>
       <c r="G27" s="3">
-        <v>6812000</v>
+        <v>6871600</v>
       </c>
       <c r="H27" s="3">
-        <v>6247600</v>
+        <v>6302200</v>
       </c>
       <c r="I27" s="3">
-        <v>6414500</v>
+        <v>6470600</v>
       </c>
       <c r="J27" s="3">
+        <v>4640800</v>
+      </c>
+      <c r="K27" s="3">
         <v>4600600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6238800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1308,17 +1368,20 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-28500</v>
+        <v>-28800</v>
       </c>
       <c r="J29" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-16500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>17600</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14713200</v>
+        <v>14841800</v>
       </c>
       <c r="E32" s="3">
-        <v>12248200</v>
+        <v>12355300</v>
       </c>
       <c r="F32" s="3">
-        <v>14234500</v>
+        <v>14358900</v>
       </c>
       <c r="G32" s="3">
-        <v>11818900</v>
+        <v>11922200</v>
       </c>
       <c r="H32" s="3">
-        <v>14352000</v>
+        <v>14477400</v>
       </c>
       <c r="I32" s="3">
-        <v>9165000</v>
+        <v>9245100</v>
       </c>
       <c r="J32" s="3">
+        <v>8385600</v>
+      </c>
+      <c r="K32" s="3">
         <v>8313000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13815700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7153500</v>
+        <v>7216000</v>
       </c>
       <c r="E33" s="3">
-        <v>8575400</v>
+        <v>8650400</v>
       </c>
       <c r="F33" s="3">
-        <v>7267700</v>
+        <v>7331200</v>
       </c>
       <c r="G33" s="3">
-        <v>6812000</v>
+        <v>6871600</v>
       </c>
       <c r="H33" s="3">
-        <v>6247600</v>
+        <v>6302200</v>
       </c>
       <c r="I33" s="3">
-        <v>6386000</v>
+        <v>6441800</v>
       </c>
       <c r="J33" s="3">
+        <v>4624200</v>
+      </c>
+      <c r="K33" s="3">
         <v>4584200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6256400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7153500</v>
+        <v>7216000</v>
       </c>
       <c r="E35" s="3">
-        <v>8575400</v>
+        <v>8650400</v>
       </c>
       <c r="F35" s="3">
-        <v>7267700</v>
+        <v>7331200</v>
       </c>
       <c r="G35" s="3">
-        <v>6812000</v>
+        <v>6871600</v>
       </c>
       <c r="H35" s="3">
-        <v>6247600</v>
+        <v>6302200</v>
       </c>
       <c r="I35" s="3">
-        <v>6386000</v>
+        <v>6441800</v>
       </c>
       <c r="J35" s="3">
+        <v>4624200</v>
+      </c>
+      <c r="K35" s="3">
         <v>4584200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6256400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141932000</v>
+        <v>132667000</v>
       </c>
       <c r="E41" s="3">
-        <v>150726000</v>
+        <v>143457000</v>
       </c>
       <c r="F41" s="3">
-        <v>114661000</v>
+        <v>152346000</v>
       </c>
       <c r="G41" s="3">
-        <v>144480000</v>
+        <v>115893000</v>
       </c>
       <c r="H41" s="3">
-        <v>132566000</v>
+        <v>146033000</v>
       </c>
       <c r="I41" s="3">
-        <v>146166000</v>
+        <v>133991000</v>
       </c>
       <c r="J41" s="3">
+        <v>147737000</v>
+      </c>
+      <c r="K41" s="3">
         <v>189156000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163058000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>178881000</v>
+        <v>175636000</v>
       </c>
       <c r="E42" s="3">
-        <v>153011000</v>
+        <v>180803000</v>
       </c>
       <c r="F42" s="3">
-        <v>153381000</v>
+        <v>154655000</v>
       </c>
       <c r="G42" s="3">
-        <v>125025000</v>
+        <v>155029000</v>
       </c>
       <c r="H42" s="3">
-        <v>134010000</v>
+        <v>126369000</v>
       </c>
       <c r="I42" s="3">
-        <v>105487000</v>
+        <v>135450000</v>
       </c>
       <c r="J42" s="3">
+        <v>106621000</v>
+      </c>
+      <c r="K42" s="3">
         <v>219900000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>223436000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8331600</v>
+        <v>9735200</v>
       </c>
       <c r="E47" s="3">
-        <v>6790000</v>
+        <v>8421200</v>
       </c>
       <c r="F47" s="3">
-        <v>5309900</v>
+        <v>6863000</v>
       </c>
       <c r="G47" s="3">
-        <v>3569600</v>
+        <v>5367000</v>
       </c>
       <c r="H47" s="3">
-        <v>3811200</v>
+        <v>3608000</v>
       </c>
       <c r="I47" s="3">
-        <v>9786500</v>
+        <v>3852100</v>
       </c>
       <c r="J47" s="3">
+        <v>9891600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4890500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4877200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28720400</v>
+        <v>39103800</v>
       </c>
       <c r="E48" s="3">
-        <v>25225500</v>
+        <v>29029000</v>
       </c>
       <c r="F48" s="3">
-        <v>25568000</v>
+        <v>25496500</v>
       </c>
       <c r="G48" s="3">
-        <v>27801400</v>
+        <v>25842800</v>
       </c>
       <c r="H48" s="3">
-        <v>25535100</v>
+        <v>28100100</v>
       </c>
       <c r="I48" s="3">
-        <v>34906500</v>
+        <v>25809500</v>
       </c>
       <c r="J48" s="3">
+        <v>35281700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15218300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16252600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31358900</v>
+        <v>30727000</v>
       </c>
       <c r="E49" s="3">
-        <v>31493900</v>
+        <v>31695900</v>
       </c>
       <c r="F49" s="3">
-        <v>32304300</v>
+        <v>31832400</v>
       </c>
       <c r="G49" s="3">
-        <v>32314100</v>
+        <v>32651400</v>
       </c>
       <c r="H49" s="3">
-        <v>33380300</v>
+        <v>32661400</v>
       </c>
       <c r="I49" s="3">
-        <v>55453400</v>
+        <v>33739000</v>
       </c>
       <c r="J49" s="3">
+        <v>56049300</v>
+      </c>
+      <c r="K49" s="3">
         <v>30812100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32964100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32609500</v>
+        <v>31365200</v>
       </c>
       <c r="E52" s="3">
-        <v>42925200</v>
+        <v>32960000</v>
       </c>
       <c r="F52" s="3">
-        <v>30257600</v>
+        <v>43386500</v>
       </c>
       <c r="G52" s="3">
-        <v>31268800</v>
+        <v>30582800</v>
       </c>
       <c r="H52" s="3">
-        <v>30692400</v>
+        <v>31604900</v>
       </c>
       <c r="I52" s="3">
-        <v>28804900</v>
+        <v>31022200</v>
       </c>
       <c r="J52" s="3">
+        <v>29114500</v>
+      </c>
+      <c r="K52" s="3">
         <v>29252900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29758400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1602280000</v>
+        <v>1689890000</v>
       </c>
       <c r="E54" s="3">
-        <v>1585850000</v>
+        <v>1619500000</v>
       </c>
       <c r="F54" s="3">
-        <v>1470360000</v>
+        <v>1602890000</v>
       </c>
       <c r="G54" s="3">
-        <v>1471610000</v>
+        <v>1486160000</v>
       </c>
       <c r="H54" s="3">
-        <v>1390390000</v>
+        <v>1487420000</v>
       </c>
       <c r="I54" s="3">
-        <v>1225110000</v>
+        <v>1405340000</v>
       </c>
       <c r="J54" s="3">
+        <v>1238270000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1394020000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1468450000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,9 +2167,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2818600</v>
+        <v>3107400</v>
       </c>
       <c r="E59" s="3">
-        <v>3025000</v>
+        <v>2848900</v>
       </c>
       <c r="F59" s="3">
-        <v>2941500</v>
+        <v>3057500</v>
       </c>
       <c r="G59" s="3">
-        <v>2371700</v>
+        <v>2973200</v>
       </c>
       <c r="H59" s="3">
-        <v>5327500</v>
+        <v>2397200</v>
       </c>
       <c r="I59" s="3">
-        <v>4670900</v>
+        <v>5384700</v>
       </c>
       <c r="J59" s="3">
+        <v>4721100</v>
+      </c>
+      <c r="K59" s="3">
         <v>5667900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5987600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>270788000</v>
+        <v>290742000</v>
       </c>
       <c r="E61" s="3">
-        <v>239327000</v>
+        <v>273698000</v>
       </c>
       <c r="F61" s="3">
-        <v>251298000</v>
+        <v>241899000</v>
       </c>
       <c r="G61" s="3">
-        <v>248348000</v>
+        <v>253999000</v>
       </c>
       <c r="H61" s="3">
-        <v>234995000</v>
+        <v>251017000</v>
       </c>
       <c r="I61" s="3">
-        <v>210393000</v>
+        <v>237521000</v>
       </c>
       <c r="J61" s="3">
+        <v>212654000</v>
+      </c>
+      <c r="K61" s="3">
         <v>246179000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>258666000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20634700</v>
+        <v>22760900</v>
       </c>
       <c r="E62" s="3">
-        <v>21219900</v>
+        <v>20856500</v>
       </c>
       <c r="F62" s="3">
-        <v>22128000</v>
+        <v>21448000</v>
       </c>
       <c r="G62" s="3">
-        <v>22024800</v>
+        <v>22365800</v>
       </c>
       <c r="H62" s="3">
-        <v>21853500</v>
+        <v>22261500</v>
       </c>
       <c r="I62" s="3">
-        <v>33927100</v>
+        <v>22088300</v>
       </c>
       <c r="J62" s="3">
+        <v>34291700</v>
+      </c>
+      <c r="K62" s="3">
         <v>20588600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23680400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1496350000</v>
+        <v>1578830000</v>
       </c>
       <c r="E66" s="3">
-        <v>1482100000</v>
+        <v>1512430000</v>
       </c>
       <c r="F66" s="3">
-        <v>1370510000</v>
+        <v>1498030000</v>
       </c>
       <c r="G66" s="3">
-        <v>1374940000</v>
+        <v>1385240000</v>
       </c>
       <c r="H66" s="3">
-        <v>1301670000</v>
+        <v>1389710000</v>
       </c>
       <c r="I66" s="3">
-        <v>1147890000</v>
+        <v>1315660000</v>
       </c>
       <c r="J66" s="3">
+        <v>1160220000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1315120000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1381050000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>70893500</v>
+        <v>74959200</v>
       </c>
       <c r="E72" s="3">
-        <v>65941500</v>
+        <v>71655300</v>
       </c>
       <c r="F72" s="3">
-        <v>61660400</v>
+        <v>66650100</v>
       </c>
       <c r="G72" s="3">
-        <v>56795100</v>
+        <v>62323000</v>
       </c>
       <c r="H72" s="3">
-        <v>51579600</v>
+        <v>57405500</v>
       </c>
       <c r="I72" s="3">
-        <v>128839000</v>
+        <v>52134000</v>
       </c>
       <c r="J72" s="3">
+        <v>130224000</v>
+      </c>
+      <c r="K72" s="3">
         <v>42600200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43125800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>105926000</v>
+        <v>111059000</v>
       </c>
       <c r="E76" s="3">
-        <v>103749000</v>
+        <v>107065000</v>
       </c>
       <c r="F76" s="3">
-        <v>99849900</v>
+        <v>104864000</v>
       </c>
       <c r="G76" s="3">
-        <v>96667900</v>
+        <v>100923000</v>
       </c>
       <c r="H76" s="3">
-        <v>88723900</v>
+        <v>97706800</v>
       </c>
       <c r="I76" s="3">
-        <v>77220100</v>
+        <v>89677400</v>
       </c>
       <c r="J76" s="3">
+        <v>78050000</v>
+      </c>
+      <c r="K76" s="3">
         <v>78902300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87401900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7153500</v>
+        <v>7216000</v>
       </c>
       <c r="E81" s="3">
-        <v>8575400</v>
+        <v>8650400</v>
       </c>
       <c r="F81" s="3">
-        <v>7267700</v>
+        <v>7331200</v>
       </c>
       <c r="G81" s="3">
-        <v>6812000</v>
+        <v>6871600</v>
       </c>
       <c r="H81" s="3">
-        <v>6247600</v>
+        <v>6302200</v>
       </c>
       <c r="I81" s="3">
-        <v>6386000</v>
+        <v>6441800</v>
       </c>
       <c r="J81" s="3">
+        <v>4624200</v>
+      </c>
+      <c r="K81" s="3">
         <v>4584200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6256400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2662700</v>
+        <v>3323900</v>
       </c>
       <c r="E83" s="3">
-        <v>2847100</v>
+        <v>2685900</v>
       </c>
       <c r="F83" s="3">
-        <v>2595700</v>
+        <v>2872000</v>
       </c>
       <c r="G83" s="3">
-        <v>2655000</v>
+        <v>2618400</v>
       </c>
       <c r="H83" s="3">
-        <v>2511100</v>
+        <v>2678200</v>
       </c>
       <c r="I83" s="3">
-        <v>2625300</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>2533100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2648300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2462700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3750800</v>
+        <v>3753700</v>
       </c>
       <c r="E89" s="3">
-        <v>44126400</v>
+        <v>3783600</v>
       </c>
       <c r="F89" s="3">
-        <v>23961700</v>
+        <v>44512200</v>
       </c>
       <c r="G89" s="3">
-        <v>6234400</v>
+        <v>24171200</v>
       </c>
       <c r="H89" s="3">
-        <v>-4325000</v>
+        <v>6289000</v>
       </c>
       <c r="I89" s="3">
-        <v>-38267500</v>
+        <v>-4362800</v>
       </c>
       <c r="J89" s="3">
+        <v>-38602100</v>
+      </c>
+      <c r="K89" s="3">
         <v>26498000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42143300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11777100</v>
+        <v>-14139600</v>
       </c>
       <c r="E91" s="3">
-        <v>-8180100</v>
+        <v>-11880100</v>
       </c>
       <c r="F91" s="3">
-        <v>-7216100</v>
+        <v>-8251600</v>
       </c>
       <c r="G91" s="3">
-        <v>-8415100</v>
+        <v>-7279100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7351100</v>
+        <v>-8488600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2060900</v>
+        <v>-7415400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2079000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2372800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3988600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3456500</v>
+        <v>-8006800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4400800</v>
+        <v>3486700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15112900</v>
+        <v>-4439300</v>
       </c>
       <c r="G94" s="3">
-        <v>-6827400</v>
+        <v>-15245000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6593500</v>
+        <v>-6887100</v>
       </c>
       <c r="I94" s="3">
-        <v>743300</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-6651100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>749800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8226100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3423600</v>
+        <v>-4179000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2926200</v>
+        <v>-3453500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2535300</v>
+        <v>-2951800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1644800</v>
+        <v>-2557400</v>
       </c>
       <c r="H96" s="3">
-        <v>-998100</v>
+        <v>-1659200</v>
       </c>
       <c r="I96" s="3">
-        <v>-898200</v>
+        <v>-1006800</v>
       </c>
       <c r="J96" s="3">
+        <v>-906000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1413100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4095400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3624500</v>
+        <v>-11211100</v>
       </c>
       <c r="E100" s="3">
-        <v>4618200</v>
+        <v>-3656200</v>
       </c>
       <c r="F100" s="3">
-        <v>-6308000</v>
+        <v>4658600</v>
       </c>
       <c r="G100" s="3">
-        <v>9838100</v>
+        <v>-6363200</v>
       </c>
       <c r="H100" s="3">
-        <v>-68100</v>
+        <v>9924100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1840200</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-68700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1856300</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9520800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-653300</v>
+        <v>1513000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6417800</v>
+        <v>-659000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3964900</v>
+        <v>-6473900</v>
       </c>
       <c r="G101" s="3">
-        <v>-573200</v>
+        <v>-3999500</v>
       </c>
       <c r="H101" s="3">
-        <v>2559400</v>
+        <v>-578200</v>
       </c>
       <c r="I101" s="3">
-        <v>-6076300</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>2581800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-6129500</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2401600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2929500</v>
+        <v>-13951300</v>
       </c>
       <c r="E102" s="3">
-        <v>37926000</v>
+        <v>2955100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1424100</v>
+        <v>38257600</v>
       </c>
       <c r="G102" s="3">
-        <v>8672000</v>
+        <v>-1436600</v>
       </c>
       <c r="H102" s="3">
-        <v>-8427200</v>
+        <v>8747800</v>
       </c>
       <c r="I102" s="3">
-        <v>-45440700</v>
+        <v>-8500800</v>
       </c>
       <c r="J102" s="3">
+        <v>-45838000</v>
+      </c>
+      <c r="K102" s="3">
         <v>24116500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21994900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62895100</v>
+        <v>67171000</v>
       </c>
       <c r="E8" s="3">
-        <v>60170400</v>
+        <v>64261000</v>
       </c>
       <c r="F8" s="3">
-        <v>62071000</v>
+        <v>66290900</v>
       </c>
       <c r="G8" s="3">
-        <v>61090800</v>
+        <v>65244000</v>
       </c>
       <c r="H8" s="3">
-        <v>63352500</v>
+        <v>67659500</v>
       </c>
       <c r="I8" s="3">
-        <v>60537000</v>
+        <v>64652600</v>
       </c>
       <c r="J8" s="3">
-        <v>56982700</v>
+        <v>60856700</v>
       </c>
       <c r="K8" s="3">
         <v>56488800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3323900</v>
+        <v>-3549900</v>
       </c>
       <c r="E15" s="3">
-        <v>-2685900</v>
+        <v>-2868500</v>
       </c>
       <c r="F15" s="3">
-        <v>-2872000</v>
+        <v>-3067300</v>
       </c>
       <c r="G15" s="3">
-        <v>-2618400</v>
+        <v>-2796400</v>
       </c>
       <c r="H15" s="3">
-        <v>-2678200</v>
+        <v>-2860300</v>
       </c>
       <c r="I15" s="3">
-        <v>-2533100</v>
+        <v>-2705300</v>
       </c>
       <c r="J15" s="3">
-        <v>-2648300</v>
+        <v>-2828300</v>
       </c>
       <c r="K15" s="3">
         <v>-2625300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34160600</v>
+        <v>36483000</v>
       </c>
       <c r="E17" s="3">
-        <v>32086100</v>
+        <v>34267400</v>
       </c>
       <c r="F17" s="3">
-        <v>34320100</v>
+        <v>36653300</v>
       </c>
       <c r="G17" s="3">
-        <v>37241900</v>
+        <v>39773800</v>
       </c>
       <c r="H17" s="3">
-        <v>38300800</v>
+        <v>40904700</v>
       </c>
       <c r="I17" s="3">
-        <v>39463800</v>
+        <v>42146700</v>
       </c>
       <c r="J17" s="3">
-        <v>40425200</v>
+        <v>43173500</v>
       </c>
       <c r="K17" s="3">
         <v>40074800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28734500</v>
+        <v>30688000</v>
       </c>
       <c r="E18" s="3">
-        <v>28084300</v>
+        <v>29993600</v>
       </c>
       <c r="F18" s="3">
-        <v>27750900</v>
+        <v>29637600</v>
       </c>
       <c r="G18" s="3">
-        <v>23848800</v>
+        <v>25470200</v>
       </c>
       <c r="H18" s="3">
-        <v>25051700</v>
+        <v>26754800</v>
       </c>
       <c r="I18" s="3">
-        <v>21073200</v>
+        <v>22505900</v>
       </c>
       <c r="J18" s="3">
-        <v>16557500</v>
+        <v>17683200</v>
       </c>
       <c r="K18" s="3">
         <v>16414000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14841800</v>
+        <v>-15850900</v>
       </c>
       <c r="E20" s="3">
-        <v>-12355300</v>
+        <v>-13195200</v>
       </c>
       <c r="F20" s="3">
-        <v>-14358900</v>
+        <v>-15335100</v>
       </c>
       <c r="G20" s="3">
-        <v>-11922200</v>
+        <v>-12732700</v>
       </c>
       <c r="H20" s="3">
-        <v>-14477400</v>
+        <v>-15461700</v>
       </c>
       <c r="I20" s="3">
-        <v>-9245100</v>
+        <v>-9873700</v>
       </c>
       <c r="J20" s="3">
-        <v>-8385600</v>
+        <v>-8955700</v>
       </c>
       <c r="K20" s="3">
         <v>-8313000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17194600</v>
+        <v>18388200</v>
       </c>
       <c r="E21" s="3">
-        <v>18397300</v>
+        <v>19667900</v>
       </c>
       <c r="F21" s="3">
-        <v>16245100</v>
+        <v>17370800</v>
       </c>
       <c r="G21" s="3">
-        <v>14527700</v>
+        <v>15534800</v>
       </c>
       <c r="H21" s="3">
-        <v>13234800</v>
+        <v>14154400</v>
       </c>
       <c r="I21" s="3">
-        <v>14344400</v>
+        <v>15338400</v>
       </c>
       <c r="J21" s="3">
-        <v>10802700</v>
+        <v>11556700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13892600</v>
+        <v>14837100</v>
       </c>
       <c r="E23" s="3">
-        <v>15729000</v>
+        <v>16798400</v>
       </c>
       <c r="F23" s="3">
-        <v>13392000</v>
+        <v>14302400</v>
       </c>
       <c r="G23" s="3">
-        <v>11926600</v>
+        <v>12737500</v>
       </c>
       <c r="H23" s="3">
-        <v>10574300</v>
+        <v>11293100</v>
       </c>
       <c r="I23" s="3">
-        <v>11828100</v>
+        <v>12632200</v>
       </c>
       <c r="J23" s="3">
-        <v>8171900</v>
+        <v>8727400</v>
       </c>
       <c r="K23" s="3">
         <v>8101000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4903300</v>
+        <v>5236700</v>
       </c>
       <c r="E24" s="3">
-        <v>5411700</v>
+        <v>5779600</v>
       </c>
       <c r="F24" s="3">
-        <v>4301900</v>
+        <v>4594400</v>
       </c>
       <c r="G24" s="3">
-        <v>3635100</v>
+        <v>3882300</v>
       </c>
       <c r="H24" s="3">
-        <v>2451100</v>
+        <v>2617800</v>
       </c>
       <c r="I24" s="3">
-        <v>4118100</v>
+        <v>4398000</v>
       </c>
       <c r="J24" s="3">
-        <v>2252900</v>
+        <v>2406000</v>
       </c>
       <c r="K24" s="3">
         <v>2233300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8989300</v>
+        <v>9600400</v>
       </c>
       <c r="E26" s="3">
-        <v>10317300</v>
+        <v>11018700</v>
       </c>
       <c r="F26" s="3">
-        <v>9090100</v>
+        <v>9708100</v>
       </c>
       <c r="G26" s="3">
-        <v>8291500</v>
+        <v>8855200</v>
       </c>
       <c r="H26" s="3">
-        <v>8123100</v>
+        <v>8675400</v>
       </c>
       <c r="I26" s="3">
-        <v>7710000</v>
+        <v>8234200</v>
       </c>
       <c r="J26" s="3">
-        <v>5919000</v>
+        <v>6321400</v>
       </c>
       <c r="K26" s="3">
         <v>5867700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7216000</v>
+        <v>7706600</v>
       </c>
       <c r="E27" s="3">
-        <v>8650400</v>
+        <v>9238400</v>
       </c>
       <c r="F27" s="3">
-        <v>7331200</v>
+        <v>7829600</v>
       </c>
       <c r="G27" s="3">
-        <v>6871600</v>
+        <v>7338700</v>
       </c>
       <c r="H27" s="3">
-        <v>6302200</v>
+        <v>6730700</v>
       </c>
       <c r="I27" s="3">
-        <v>6470600</v>
+        <v>6910500</v>
       </c>
       <c r="J27" s="3">
-        <v>4640800</v>
+        <v>4956400</v>
       </c>
       <c r="K27" s="3">
         <v>4600600</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-28800</v>
+        <v>-30800</v>
       </c>
       <c r="J29" s="3">
-        <v>-16600</v>
+        <v>-17700</v>
       </c>
       <c r="K29" s="3">
         <v>-16500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14841800</v>
+        <v>15850900</v>
       </c>
       <c r="E32" s="3">
-        <v>12355300</v>
+        <v>13195200</v>
       </c>
       <c r="F32" s="3">
-        <v>14358900</v>
+        <v>15335100</v>
       </c>
       <c r="G32" s="3">
-        <v>11922200</v>
+        <v>12732700</v>
       </c>
       <c r="H32" s="3">
-        <v>14477400</v>
+        <v>15461700</v>
       </c>
       <c r="I32" s="3">
-        <v>9245100</v>
+        <v>9873700</v>
       </c>
       <c r="J32" s="3">
-        <v>8385600</v>
+        <v>8955700</v>
       </c>
       <c r="K32" s="3">
         <v>8313000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7216000</v>
+        <v>7706600</v>
       </c>
       <c r="E33" s="3">
-        <v>8650400</v>
+        <v>9238400</v>
       </c>
       <c r="F33" s="3">
-        <v>7331200</v>
+        <v>7829600</v>
       </c>
       <c r="G33" s="3">
-        <v>6871600</v>
+        <v>7338700</v>
       </c>
       <c r="H33" s="3">
-        <v>6302200</v>
+        <v>6730700</v>
       </c>
       <c r="I33" s="3">
-        <v>6441800</v>
+        <v>6879700</v>
       </c>
       <c r="J33" s="3">
-        <v>4624200</v>
+        <v>4938600</v>
       </c>
       <c r="K33" s="3">
         <v>4584200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7216000</v>
+        <v>7706600</v>
       </c>
       <c r="E35" s="3">
-        <v>8650400</v>
+        <v>9238400</v>
       </c>
       <c r="F35" s="3">
-        <v>7331200</v>
+        <v>7829600</v>
       </c>
       <c r="G35" s="3">
-        <v>6871600</v>
+        <v>7338700</v>
       </c>
       <c r="H35" s="3">
-        <v>6302200</v>
+        <v>6730700</v>
       </c>
       <c r="I35" s="3">
-        <v>6441800</v>
+        <v>6879700</v>
       </c>
       <c r="J35" s="3">
-        <v>4624200</v>
+        <v>4938600</v>
       </c>
       <c r="K35" s="3">
         <v>4584200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132667000</v>
+        <v>141405000</v>
       </c>
       <c r="E41" s="3">
-        <v>143457000</v>
+        <v>152906000</v>
       </c>
       <c r="F41" s="3">
-        <v>152346000</v>
+        <v>162380000</v>
       </c>
       <c r="G41" s="3">
-        <v>115893000</v>
+        <v>123527000</v>
       </c>
       <c r="H41" s="3">
-        <v>146033000</v>
+        <v>155652000</v>
       </c>
       <c r="I41" s="3">
-        <v>133991000</v>
+        <v>142816000</v>
       </c>
       <c r="J41" s="3">
-        <v>147737000</v>
+        <v>157468000</v>
       </c>
       <c r="K41" s="3">
         <v>189156000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>175636000</v>
+        <v>187205000</v>
       </c>
       <c r="E42" s="3">
-        <v>180803000</v>
+        <v>192712000</v>
       </c>
       <c r="F42" s="3">
-        <v>154655000</v>
+        <v>164842000</v>
       </c>
       <c r="G42" s="3">
-        <v>155029000</v>
+        <v>165241000</v>
       </c>
       <c r="H42" s="3">
-        <v>126369000</v>
+        <v>134692000</v>
       </c>
       <c r="I42" s="3">
-        <v>135450000</v>
+        <v>144372000</v>
       </c>
       <c r="J42" s="3">
-        <v>106621000</v>
+        <v>113644000</v>
       </c>
       <c r="K42" s="3">
         <v>219900000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9735200</v>
+        <v>10376400</v>
       </c>
       <c r="E47" s="3">
-        <v>8421200</v>
+        <v>8975800</v>
       </c>
       <c r="F47" s="3">
-        <v>6863000</v>
+        <v>7315100</v>
       </c>
       <c r="G47" s="3">
-        <v>5367000</v>
+        <v>5720500</v>
       </c>
       <c r="H47" s="3">
-        <v>3608000</v>
+        <v>3845600</v>
       </c>
       <c r="I47" s="3">
-        <v>3852100</v>
+        <v>4105800</v>
       </c>
       <c r="J47" s="3">
-        <v>9891600</v>
+        <v>10543200</v>
       </c>
       <c r="K47" s="3">
         <v>4890500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39103800</v>
+        <v>41679500</v>
       </c>
       <c r="E48" s="3">
-        <v>29029000</v>
+        <v>30941100</v>
       </c>
       <c r="F48" s="3">
-        <v>25496500</v>
+        <v>27175900</v>
       </c>
       <c r="G48" s="3">
-        <v>25842800</v>
+        <v>27545000</v>
       </c>
       <c r="H48" s="3">
-        <v>28100100</v>
+        <v>29951000</v>
       </c>
       <c r="I48" s="3">
-        <v>25809500</v>
+        <v>27509500</v>
       </c>
       <c r="J48" s="3">
-        <v>35281700</v>
+        <v>37605600</v>
       </c>
       <c r="K48" s="3">
         <v>15218300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30727000</v>
+        <v>32751000</v>
       </c>
       <c r="E49" s="3">
-        <v>31695900</v>
+        <v>33783600</v>
       </c>
       <c r="F49" s="3">
-        <v>31832400</v>
+        <v>33929100</v>
       </c>
       <c r="G49" s="3">
-        <v>32651400</v>
+        <v>34802100</v>
       </c>
       <c r="H49" s="3">
-        <v>32661400</v>
+        <v>34812700</v>
       </c>
       <c r="I49" s="3">
-        <v>33739000</v>
+        <v>35961300</v>
       </c>
       <c r="J49" s="3">
-        <v>56049300</v>
+        <v>59741200</v>
       </c>
       <c r="K49" s="3">
         <v>30812100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31365200</v>
+        <v>33431100</v>
       </c>
       <c r="E52" s="3">
-        <v>32960000</v>
+        <v>35130900</v>
       </c>
       <c r="F52" s="3">
-        <v>43386500</v>
+        <v>46244300</v>
       </c>
       <c r="G52" s="3">
-        <v>30582800</v>
+        <v>32597200</v>
       </c>
       <c r="H52" s="3">
-        <v>31604900</v>
+        <v>33686600</v>
       </c>
       <c r="I52" s="3">
-        <v>31022200</v>
+        <v>33065600</v>
       </c>
       <c r="J52" s="3">
-        <v>29114500</v>
+        <v>31032200</v>
       </c>
       <c r="K52" s="3">
         <v>29252900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1689890000</v>
+        <v>1801200000</v>
       </c>
       <c r="E54" s="3">
-        <v>1619500000</v>
+        <v>1726170000</v>
       </c>
       <c r="F54" s="3">
-        <v>1602890000</v>
+        <v>1708470000</v>
       </c>
       <c r="G54" s="3">
-        <v>1486160000</v>
+        <v>1584050000</v>
       </c>
       <c r="H54" s="3">
-        <v>1487420000</v>
+        <v>1585390000</v>
       </c>
       <c r="I54" s="3">
-        <v>1405340000</v>
+        <v>1497900000</v>
       </c>
       <c r="J54" s="3">
-        <v>1238270000</v>
+        <v>1319840000</v>
       </c>
       <c r="K54" s="3">
         <v>1394020000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3107400</v>
+        <v>3312100</v>
       </c>
       <c r="E59" s="3">
-        <v>2848900</v>
+        <v>3036500</v>
       </c>
       <c r="F59" s="3">
-        <v>3057500</v>
+        <v>3258900</v>
       </c>
       <c r="G59" s="3">
-        <v>2973200</v>
+        <v>3169000</v>
       </c>
       <c r="H59" s="3">
-        <v>2397200</v>
+        <v>2555100</v>
       </c>
       <c r="I59" s="3">
-        <v>5384700</v>
+        <v>5739400</v>
       </c>
       <c r="J59" s="3">
-        <v>4721100</v>
+        <v>5032100</v>
       </c>
       <c r="K59" s="3">
         <v>5667900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>290742000</v>
+        <v>309893000</v>
       </c>
       <c r="E61" s="3">
-        <v>273698000</v>
+        <v>291726000</v>
       </c>
       <c r="F61" s="3">
-        <v>241899000</v>
+        <v>257832000</v>
       </c>
       <c r="G61" s="3">
-        <v>253999000</v>
+        <v>270729000</v>
       </c>
       <c r="H61" s="3">
-        <v>251017000</v>
+        <v>267551000</v>
       </c>
       <c r="I61" s="3">
-        <v>237521000</v>
+        <v>253165000</v>
       </c>
       <c r="J61" s="3">
-        <v>212654000</v>
+        <v>226661000</v>
       </c>
       <c r="K61" s="3">
         <v>246179000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22760900</v>
+        <v>24260100</v>
       </c>
       <c r="E62" s="3">
-        <v>20856500</v>
+        <v>22230200</v>
       </c>
       <c r="F62" s="3">
-        <v>21448000</v>
+        <v>22860700</v>
       </c>
       <c r="G62" s="3">
-        <v>22365800</v>
+        <v>23839000</v>
       </c>
       <c r="H62" s="3">
-        <v>22261500</v>
+        <v>23727800</v>
       </c>
       <c r="I62" s="3">
-        <v>22088300</v>
+        <v>23543300</v>
       </c>
       <c r="J62" s="3">
-        <v>34291700</v>
+        <v>36550400</v>
       </c>
       <c r="K62" s="3">
         <v>20588600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1578830000</v>
+        <v>1682820000</v>
       </c>
       <c r="E66" s="3">
-        <v>1512430000</v>
+        <v>1612050000</v>
       </c>
       <c r="F66" s="3">
-        <v>1498030000</v>
+        <v>1596700000</v>
       </c>
       <c r="G66" s="3">
-        <v>1385240000</v>
+        <v>1476480000</v>
       </c>
       <c r="H66" s="3">
-        <v>1389710000</v>
+        <v>1481250000</v>
       </c>
       <c r="I66" s="3">
-        <v>1315660000</v>
+        <v>1402320000</v>
       </c>
       <c r="J66" s="3">
-        <v>1160220000</v>
+        <v>1236650000</v>
       </c>
       <c r="K66" s="3">
         <v>1315120000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>74959200</v>
+        <v>79896600</v>
       </c>
       <c r="E72" s="3">
-        <v>71655300</v>
+        <v>76375100</v>
       </c>
       <c r="F72" s="3">
-        <v>66650100</v>
+        <v>71040200</v>
       </c>
       <c r="G72" s="3">
-        <v>62323000</v>
+        <v>66428100</v>
       </c>
       <c r="H72" s="3">
-        <v>57405500</v>
+        <v>61186700</v>
       </c>
       <c r="I72" s="3">
-        <v>52134000</v>
+        <v>55567900</v>
       </c>
       <c r="J72" s="3">
-        <v>130224000</v>
+        <v>138802000</v>
       </c>
       <c r="K72" s="3">
         <v>42600200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>111059000</v>
+        <v>118374000</v>
       </c>
       <c r="E76" s="3">
-        <v>107065000</v>
+        <v>114117000</v>
       </c>
       <c r="F76" s="3">
-        <v>104864000</v>
+        <v>111771000</v>
       </c>
       <c r="G76" s="3">
-        <v>100923000</v>
+        <v>107571000</v>
       </c>
       <c r="H76" s="3">
-        <v>97706800</v>
+        <v>104143000</v>
       </c>
       <c r="I76" s="3">
-        <v>89677400</v>
+        <v>95584200</v>
       </c>
       <c r="J76" s="3">
-        <v>78050000</v>
+        <v>83191000</v>
       </c>
       <c r="K76" s="3">
         <v>78902300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7216000</v>
+        <v>7706600</v>
       </c>
       <c r="E81" s="3">
-        <v>8650400</v>
+        <v>9238400</v>
       </c>
       <c r="F81" s="3">
-        <v>7331200</v>
+        <v>7829600</v>
       </c>
       <c r="G81" s="3">
-        <v>6871600</v>
+        <v>7338700</v>
       </c>
       <c r="H81" s="3">
-        <v>6302200</v>
+        <v>6730700</v>
       </c>
       <c r="I81" s="3">
-        <v>6441800</v>
+        <v>6879700</v>
       </c>
       <c r="J81" s="3">
-        <v>4624200</v>
+        <v>4938600</v>
       </c>
       <c r="K81" s="3">
         <v>4584200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3323900</v>
+        <v>3549900</v>
       </c>
       <c r="E83" s="3">
-        <v>2685900</v>
+        <v>2868500</v>
       </c>
       <c r="F83" s="3">
-        <v>2872000</v>
+        <v>3067300</v>
       </c>
       <c r="G83" s="3">
-        <v>2618400</v>
+        <v>2796400</v>
       </c>
       <c r="H83" s="3">
-        <v>2678200</v>
+        <v>2860300</v>
       </c>
       <c r="I83" s="3">
-        <v>2533100</v>
+        <v>2705300</v>
       </c>
       <c r="J83" s="3">
-        <v>2648300</v>
+        <v>2828300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3753700</v>
+        <v>4008800</v>
       </c>
       <c r="E89" s="3">
-        <v>3783600</v>
+        <v>4040800</v>
       </c>
       <c r="F89" s="3">
-        <v>44512200</v>
+        <v>47538400</v>
       </c>
       <c r="G89" s="3">
-        <v>24171200</v>
+        <v>25814400</v>
       </c>
       <c r="H89" s="3">
-        <v>6289000</v>
+        <v>6716500</v>
       </c>
       <c r="I89" s="3">
-        <v>-4362800</v>
+        <v>-4659400</v>
       </c>
       <c r="J89" s="3">
-        <v>-38602100</v>
+        <v>-41226400</v>
       </c>
       <c r="K89" s="3">
         <v>26498000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14139600</v>
+        <v>-15100900</v>
       </c>
       <c r="E91" s="3">
-        <v>-11880100</v>
+        <v>-12687800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8251600</v>
+        <v>-8812600</v>
       </c>
       <c r="G91" s="3">
-        <v>-7279100</v>
+        <v>-7774000</v>
       </c>
       <c r="H91" s="3">
-        <v>-8488600</v>
+        <v>-9065700</v>
       </c>
       <c r="I91" s="3">
-        <v>-7415400</v>
+        <v>-7919500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2079000</v>
+        <v>-2220300</v>
       </c>
       <c r="K91" s="3">
         <v>-2372800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8006800</v>
+        <v>-8551200</v>
       </c>
       <c r="E94" s="3">
-        <v>3486700</v>
+        <v>3723800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4439300</v>
+        <v>-4741100</v>
       </c>
       <c r="G94" s="3">
-        <v>-15245000</v>
+        <v>-16281400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6887100</v>
+        <v>-7355300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6651100</v>
+        <v>-7103300</v>
       </c>
       <c r="J94" s="3">
-        <v>749800</v>
+        <v>800800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4179000</v>
+        <v>-4463100</v>
       </c>
       <c r="E96" s="3">
-        <v>-3453500</v>
+        <v>-3688300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2951800</v>
+        <v>-3152400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2557400</v>
+        <v>-2731300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1659200</v>
+        <v>-1772000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1006800</v>
+        <v>-1075300</v>
       </c>
       <c r="J96" s="3">
-        <v>-906000</v>
+        <v>-967600</v>
       </c>
       <c r="K96" s="3">
         <v>-1413100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11211100</v>
+        <v>-11973300</v>
       </c>
       <c r="E100" s="3">
-        <v>-3656200</v>
+        <v>-3904800</v>
       </c>
       <c r="F100" s="3">
-        <v>4658600</v>
+        <v>4975300</v>
       </c>
       <c r="G100" s="3">
-        <v>-6363200</v>
+        <v>-6795800</v>
       </c>
       <c r="H100" s="3">
-        <v>9924100</v>
+        <v>10598800</v>
       </c>
       <c r="I100" s="3">
-        <v>-68700</v>
+        <v>-73300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1856300</v>
+        <v>-1982500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1513000</v>
+        <v>1615800</v>
       </c>
       <c r="E101" s="3">
-        <v>-659000</v>
+        <v>-703800</v>
       </c>
       <c r="F101" s="3">
-        <v>-6473900</v>
+        <v>-6914100</v>
       </c>
       <c r="G101" s="3">
-        <v>-3999500</v>
+        <v>-4271500</v>
       </c>
       <c r="H101" s="3">
-        <v>-578200</v>
+        <v>-617500</v>
       </c>
       <c r="I101" s="3">
-        <v>2581800</v>
+        <v>2757300</v>
       </c>
       <c r="J101" s="3">
-        <v>-6129500</v>
+        <v>-6546200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13951300</v>
+        <v>-14899800</v>
       </c>
       <c r="E102" s="3">
-        <v>2955100</v>
+        <v>3156000</v>
       </c>
       <c r="F102" s="3">
-        <v>38257600</v>
+        <v>40858500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1436600</v>
+        <v>-1534200</v>
       </c>
       <c r="H102" s="3">
-        <v>8747800</v>
+        <v>9342500</v>
       </c>
       <c r="I102" s="3">
-        <v>-8500800</v>
+        <v>-9078800</v>
       </c>
       <c r="J102" s="3">
-        <v>-45838000</v>
+        <v>-48954300</v>
       </c>
       <c r="K102" s="3">
         <v>24116500</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67171000</v>
+        <v>67926200</v>
       </c>
       <c r="E8" s="3">
-        <v>64261000</v>
+        <v>64983600</v>
       </c>
       <c r="F8" s="3">
-        <v>66290900</v>
+        <v>67036200</v>
       </c>
       <c r="G8" s="3">
-        <v>65244000</v>
+        <v>65977600</v>
       </c>
       <c r="H8" s="3">
-        <v>67659500</v>
+        <v>68420200</v>
       </c>
       <c r="I8" s="3">
-        <v>64652600</v>
+        <v>65379500</v>
       </c>
       <c r="J8" s="3">
-        <v>60856700</v>
+        <v>61540900</v>
       </c>
       <c r="K8" s="3">
         <v>56488800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3549900</v>
+        <v>-3589800</v>
       </c>
       <c r="E15" s="3">
-        <v>-2868500</v>
+        <v>-2900800</v>
       </c>
       <c r="F15" s="3">
-        <v>-3067300</v>
+        <v>-3101700</v>
       </c>
       <c r="G15" s="3">
-        <v>-2796400</v>
+        <v>-2827800</v>
       </c>
       <c r="H15" s="3">
-        <v>-2860300</v>
+        <v>-2892400</v>
       </c>
       <c r="I15" s="3">
-        <v>-2705300</v>
+        <v>-2735700</v>
       </c>
       <c r="J15" s="3">
-        <v>-2828300</v>
+        <v>-2860100</v>
       </c>
       <c r="K15" s="3">
         <v>-2625300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36483000</v>
+        <v>36893200</v>
       </c>
       <c r="E17" s="3">
-        <v>34267400</v>
+        <v>34652700</v>
       </c>
       <c r="F17" s="3">
-        <v>36653300</v>
+        <v>37065500</v>
       </c>
       <c r="G17" s="3">
-        <v>39773800</v>
+        <v>40221000</v>
       </c>
       <c r="H17" s="3">
-        <v>40904700</v>
+        <v>41364600</v>
       </c>
       <c r="I17" s="3">
-        <v>42146700</v>
+        <v>42620600</v>
       </c>
       <c r="J17" s="3">
-        <v>43173500</v>
+        <v>43658900</v>
       </c>
       <c r="K17" s="3">
         <v>40074800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30688000</v>
+        <v>31033000</v>
       </c>
       <c r="E18" s="3">
-        <v>29993600</v>
+        <v>30330800</v>
       </c>
       <c r="F18" s="3">
-        <v>29637600</v>
+        <v>29970800</v>
       </c>
       <c r="G18" s="3">
-        <v>25470200</v>
+        <v>25756600</v>
       </c>
       <c r="H18" s="3">
-        <v>26754800</v>
+        <v>27055700</v>
       </c>
       <c r="I18" s="3">
-        <v>22505900</v>
+        <v>22758900</v>
       </c>
       <c r="J18" s="3">
-        <v>17683200</v>
+        <v>17882000</v>
       </c>
       <c r="K18" s="3">
         <v>16414000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15850900</v>
+        <v>-16029100</v>
       </c>
       <c r="E20" s="3">
-        <v>-13195200</v>
+        <v>-13343600</v>
       </c>
       <c r="F20" s="3">
-        <v>-15335100</v>
+        <v>-15507500</v>
       </c>
       <c r="G20" s="3">
-        <v>-12732700</v>
+        <v>-12875900</v>
       </c>
       <c r="H20" s="3">
-        <v>-15461700</v>
+        <v>-15635500</v>
       </c>
       <c r="I20" s="3">
-        <v>-9873700</v>
+        <v>-9984700</v>
       </c>
       <c r="J20" s="3">
-        <v>-8955700</v>
+        <v>-9056400</v>
       </c>
       <c r="K20" s="3">
         <v>-8313000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18388200</v>
+        <v>18579000</v>
       </c>
       <c r="E21" s="3">
-        <v>19667900</v>
+        <v>19876100</v>
       </c>
       <c r="F21" s="3">
-        <v>17370800</v>
+        <v>17552300</v>
       </c>
       <c r="G21" s="3">
-        <v>15534800</v>
+        <v>15696900</v>
       </c>
       <c r="H21" s="3">
-        <v>14154400</v>
+        <v>14300700</v>
       </c>
       <c r="I21" s="3">
-        <v>15338400</v>
+        <v>15498700</v>
       </c>
       <c r="J21" s="3">
-        <v>11556700</v>
+        <v>11674000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14837100</v>
+        <v>15003900</v>
       </c>
       <c r="E23" s="3">
-        <v>16798400</v>
+        <v>16987200</v>
       </c>
       <c r="F23" s="3">
-        <v>14302400</v>
+        <v>14463300</v>
       </c>
       <c r="G23" s="3">
-        <v>12737500</v>
+        <v>12880700</v>
       </c>
       <c r="H23" s="3">
-        <v>11293100</v>
+        <v>11420100</v>
       </c>
       <c r="I23" s="3">
-        <v>12632200</v>
+        <v>12774200</v>
       </c>
       <c r="J23" s="3">
-        <v>8727400</v>
+        <v>8825600</v>
       </c>
       <c r="K23" s="3">
         <v>8101000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5236700</v>
+        <v>5295600</v>
       </c>
       <c r="E24" s="3">
-        <v>5779600</v>
+        <v>5844600</v>
       </c>
       <c r="F24" s="3">
-        <v>4594400</v>
+        <v>4646000</v>
       </c>
       <c r="G24" s="3">
-        <v>3882300</v>
+        <v>3925900</v>
       </c>
       <c r="H24" s="3">
-        <v>2617800</v>
+        <v>2647200</v>
       </c>
       <c r="I24" s="3">
-        <v>4398000</v>
+        <v>4447500</v>
       </c>
       <c r="J24" s="3">
-        <v>2406000</v>
+        <v>2433100</v>
       </c>
       <c r="K24" s="3">
         <v>2233300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9600400</v>
+        <v>9708400</v>
       </c>
       <c r="E26" s="3">
-        <v>11018700</v>
+        <v>11142600</v>
       </c>
       <c r="F26" s="3">
-        <v>9708100</v>
+        <v>9817200</v>
       </c>
       <c r="G26" s="3">
-        <v>8855200</v>
+        <v>8954800</v>
       </c>
       <c r="H26" s="3">
-        <v>8675400</v>
+        <v>8772900</v>
       </c>
       <c r="I26" s="3">
-        <v>8234200</v>
+        <v>8326700</v>
       </c>
       <c r="J26" s="3">
-        <v>6321400</v>
+        <v>6392500</v>
       </c>
       <c r="K26" s="3">
         <v>5867700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7706600</v>
+        <v>7793200</v>
       </c>
       <c r="E27" s="3">
-        <v>9238400</v>
+        <v>9342300</v>
       </c>
       <c r="F27" s="3">
-        <v>7829600</v>
+        <v>7917600</v>
       </c>
       <c r="G27" s="3">
-        <v>7338700</v>
+        <v>7421200</v>
       </c>
       <c r="H27" s="3">
-        <v>6730700</v>
+        <v>6806400</v>
       </c>
       <c r="I27" s="3">
-        <v>6910500</v>
+        <v>6988200</v>
       </c>
       <c r="J27" s="3">
-        <v>4956400</v>
+        <v>5012100</v>
       </c>
       <c r="K27" s="3">
         <v>4600600</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-30800</v>
+        <v>-31100</v>
       </c>
       <c r="J29" s="3">
-        <v>-17700</v>
+        <v>-17900</v>
       </c>
       <c r="K29" s="3">
         <v>-16500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15850900</v>
+        <v>16029100</v>
       </c>
       <c r="E32" s="3">
-        <v>13195200</v>
+        <v>13343600</v>
       </c>
       <c r="F32" s="3">
-        <v>15335100</v>
+        <v>15507500</v>
       </c>
       <c r="G32" s="3">
-        <v>12732700</v>
+        <v>12875900</v>
       </c>
       <c r="H32" s="3">
-        <v>15461700</v>
+        <v>15635500</v>
       </c>
       <c r="I32" s="3">
-        <v>9873700</v>
+        <v>9984700</v>
       </c>
       <c r="J32" s="3">
-        <v>8955700</v>
+        <v>9056400</v>
       </c>
       <c r="K32" s="3">
         <v>8313000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7706600</v>
+        <v>7793200</v>
       </c>
       <c r="E33" s="3">
-        <v>9238400</v>
+        <v>9342300</v>
       </c>
       <c r="F33" s="3">
-        <v>7829600</v>
+        <v>7917600</v>
       </c>
       <c r="G33" s="3">
-        <v>7338700</v>
+        <v>7421200</v>
       </c>
       <c r="H33" s="3">
-        <v>6730700</v>
+        <v>6806400</v>
       </c>
       <c r="I33" s="3">
-        <v>6879700</v>
+        <v>6957100</v>
       </c>
       <c r="J33" s="3">
-        <v>4938600</v>
+        <v>4994100</v>
       </c>
       <c r="K33" s="3">
         <v>4584200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7706600</v>
+        <v>7793200</v>
       </c>
       <c r="E35" s="3">
-        <v>9238400</v>
+        <v>9342300</v>
       </c>
       <c r="F35" s="3">
-        <v>7829600</v>
+        <v>7917600</v>
       </c>
       <c r="G35" s="3">
-        <v>7338700</v>
+        <v>7421200</v>
       </c>
       <c r="H35" s="3">
-        <v>6730700</v>
+        <v>6806400</v>
       </c>
       <c r="I35" s="3">
-        <v>6879700</v>
+        <v>6957100</v>
       </c>
       <c r="J35" s="3">
-        <v>4938600</v>
+        <v>4994100</v>
       </c>
       <c r="K35" s="3">
         <v>4584200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141405000</v>
+        <v>142995000</v>
       </c>
       <c r="E41" s="3">
-        <v>152906000</v>
+        <v>154626000</v>
       </c>
       <c r="F41" s="3">
-        <v>162380000</v>
+        <v>164206000</v>
       </c>
       <c r="G41" s="3">
-        <v>123527000</v>
+        <v>124916000</v>
       </c>
       <c r="H41" s="3">
-        <v>155652000</v>
+        <v>157402000</v>
       </c>
       <c r="I41" s="3">
-        <v>142816000</v>
+        <v>144422000</v>
       </c>
       <c r="J41" s="3">
-        <v>157468000</v>
+        <v>159238000</v>
       </c>
       <c r="K41" s="3">
         <v>189156000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>187205000</v>
+        <v>189309000</v>
       </c>
       <c r="E42" s="3">
-        <v>192712000</v>
+        <v>194879000</v>
       </c>
       <c r="F42" s="3">
-        <v>164842000</v>
+        <v>166695000</v>
       </c>
       <c r="G42" s="3">
-        <v>165241000</v>
+        <v>167098000</v>
       </c>
       <c r="H42" s="3">
-        <v>134692000</v>
+        <v>136207000</v>
       </c>
       <c r="I42" s="3">
-        <v>144372000</v>
+        <v>145995000</v>
       </c>
       <c r="J42" s="3">
-        <v>113644000</v>
+        <v>114921000</v>
       </c>
       <c r="K42" s="3">
         <v>219900000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10376400</v>
+        <v>10493100</v>
       </c>
       <c r="E47" s="3">
-        <v>8975800</v>
+        <v>9076800</v>
       </c>
       <c r="F47" s="3">
-        <v>7315100</v>
+        <v>7397300</v>
       </c>
       <c r="G47" s="3">
-        <v>5720500</v>
+        <v>5784800</v>
       </c>
       <c r="H47" s="3">
-        <v>3845600</v>
+        <v>3888800</v>
       </c>
       <c r="I47" s="3">
-        <v>4105800</v>
+        <v>4152000</v>
       </c>
       <c r="J47" s="3">
-        <v>10543200</v>
+        <v>10661700</v>
       </c>
       <c r="K47" s="3">
         <v>4890500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41679500</v>
+        <v>42148100</v>
       </c>
       <c r="E48" s="3">
-        <v>30941100</v>
+        <v>31289000</v>
       </c>
       <c r="F48" s="3">
-        <v>27175900</v>
+        <v>27481500</v>
       </c>
       <c r="G48" s="3">
-        <v>27545000</v>
+        <v>27854700</v>
       </c>
       <c r="H48" s="3">
-        <v>29951000</v>
+        <v>30287800</v>
       </c>
       <c r="I48" s="3">
-        <v>27509500</v>
+        <v>27818800</v>
       </c>
       <c r="J48" s="3">
-        <v>37605600</v>
+        <v>38028400</v>
       </c>
       <c r="K48" s="3">
         <v>15218300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32751000</v>
+        <v>33119200</v>
       </c>
       <c r="E49" s="3">
-        <v>33783600</v>
+        <v>34163500</v>
       </c>
       <c r="F49" s="3">
-        <v>33929100</v>
+        <v>34310600</v>
       </c>
       <c r="G49" s="3">
-        <v>34802100</v>
+        <v>35193400</v>
       </c>
       <c r="H49" s="3">
-        <v>34812700</v>
+        <v>35204200</v>
       </c>
       <c r="I49" s="3">
-        <v>35961300</v>
+        <v>36365700</v>
       </c>
       <c r="J49" s="3">
-        <v>59741200</v>
+        <v>60412900</v>
       </c>
       <c r="K49" s="3">
         <v>30812100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33431100</v>
+        <v>33807000</v>
       </c>
       <c r="E52" s="3">
-        <v>35130900</v>
+        <v>35525900</v>
       </c>
       <c r="F52" s="3">
-        <v>46244300</v>
+        <v>46764200</v>
       </c>
       <c r="G52" s="3">
-        <v>32597200</v>
+        <v>32963700</v>
       </c>
       <c r="H52" s="3">
-        <v>33686600</v>
+        <v>34065400</v>
       </c>
       <c r="I52" s="3">
-        <v>33065600</v>
+        <v>33437400</v>
       </c>
       <c r="J52" s="3">
-        <v>31032200</v>
+        <v>31381100</v>
       </c>
       <c r="K52" s="3">
         <v>29252900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1801200000</v>
+        <v>1821450000</v>
       </c>
       <c r="E54" s="3">
-        <v>1726170000</v>
+        <v>1745580000</v>
       </c>
       <c r="F54" s="3">
-        <v>1708470000</v>
+        <v>1727680000</v>
       </c>
       <c r="G54" s="3">
-        <v>1584050000</v>
+        <v>1601860000</v>
       </c>
       <c r="H54" s="3">
-        <v>1585390000</v>
+        <v>1603220000</v>
       </c>
       <c r="I54" s="3">
-        <v>1497900000</v>
+        <v>1514740000</v>
       </c>
       <c r="J54" s="3">
-        <v>1319840000</v>
+        <v>1334680000</v>
       </c>
       <c r="K54" s="3">
         <v>1394020000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3312100</v>
+        <v>3349400</v>
       </c>
       <c r="E59" s="3">
-        <v>3036500</v>
+        <v>3070600</v>
       </c>
       <c r="F59" s="3">
-        <v>3258900</v>
+        <v>3295500</v>
       </c>
       <c r="G59" s="3">
-        <v>3169000</v>
+        <v>3204600</v>
       </c>
       <c r="H59" s="3">
-        <v>2555100</v>
+        <v>2583800</v>
       </c>
       <c r="I59" s="3">
-        <v>5739400</v>
+        <v>5804000</v>
       </c>
       <c r="J59" s="3">
-        <v>5032100</v>
+        <v>5088600</v>
       </c>
       <c r="K59" s="3">
         <v>5667900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>309893000</v>
+        <v>313377000</v>
       </c>
       <c r="E61" s="3">
-        <v>291726000</v>
+        <v>295006000</v>
       </c>
       <c r="F61" s="3">
-        <v>257832000</v>
+        <v>260731000</v>
       </c>
       <c r="G61" s="3">
-        <v>270729000</v>
+        <v>273773000</v>
       </c>
       <c r="H61" s="3">
-        <v>267551000</v>
+        <v>270559000</v>
       </c>
       <c r="I61" s="3">
-        <v>253165000</v>
+        <v>256012000</v>
       </c>
       <c r="J61" s="3">
-        <v>226661000</v>
+        <v>229210000</v>
       </c>
       <c r="K61" s="3">
         <v>246179000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24260100</v>
+        <v>24532900</v>
       </c>
       <c r="E62" s="3">
-        <v>22230200</v>
+        <v>22480200</v>
       </c>
       <c r="F62" s="3">
-        <v>22860700</v>
+        <v>23117800</v>
       </c>
       <c r="G62" s="3">
-        <v>23839000</v>
+        <v>24107000</v>
       </c>
       <c r="H62" s="3">
-        <v>23727800</v>
+        <v>23994600</v>
       </c>
       <c r="I62" s="3">
-        <v>23543300</v>
+        <v>23808000</v>
       </c>
       <c r="J62" s="3">
-        <v>36550400</v>
+        <v>36961400</v>
       </c>
       <c r="K62" s="3">
         <v>20588600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1682820000</v>
+        <v>1701740000</v>
       </c>
       <c r="E66" s="3">
-        <v>1612050000</v>
+        <v>1630180000</v>
       </c>
       <c r="F66" s="3">
-        <v>1596700000</v>
+        <v>1614650000</v>
       </c>
       <c r="G66" s="3">
-        <v>1476480000</v>
+        <v>1493080000</v>
       </c>
       <c r="H66" s="3">
-        <v>1481250000</v>
+        <v>1497910000</v>
       </c>
       <c r="I66" s="3">
-        <v>1402320000</v>
+        <v>1418080000</v>
       </c>
       <c r="J66" s="3">
-        <v>1236650000</v>
+        <v>1250550000</v>
       </c>
       <c r="K66" s="3">
         <v>1315120000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>79896600</v>
+        <v>80794900</v>
       </c>
       <c r="E72" s="3">
-        <v>76375100</v>
+        <v>77233800</v>
       </c>
       <c r="F72" s="3">
-        <v>71040200</v>
+        <v>71839000</v>
       </c>
       <c r="G72" s="3">
-        <v>66428100</v>
+        <v>67175000</v>
       </c>
       <c r="H72" s="3">
-        <v>61186700</v>
+        <v>61874600</v>
       </c>
       <c r="I72" s="3">
-        <v>55567900</v>
+        <v>56192700</v>
       </c>
       <c r="J72" s="3">
-        <v>138802000</v>
+        <v>140362000</v>
       </c>
       <c r="K72" s="3">
         <v>42600200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>118374000</v>
+        <v>119705000</v>
       </c>
       <c r="E76" s="3">
-        <v>114117000</v>
+        <v>115400000</v>
       </c>
       <c r="F76" s="3">
-        <v>111771000</v>
+        <v>113028000</v>
       </c>
       <c r="G76" s="3">
-        <v>107571000</v>
+        <v>108780000</v>
       </c>
       <c r="H76" s="3">
-        <v>104143000</v>
+        <v>105313000</v>
       </c>
       <c r="I76" s="3">
-        <v>95584200</v>
+        <v>96658900</v>
       </c>
       <c r="J76" s="3">
-        <v>83191000</v>
+        <v>84126400</v>
       </c>
       <c r="K76" s="3">
         <v>78902300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7706600</v>
+        <v>7793200</v>
       </c>
       <c r="E81" s="3">
-        <v>9238400</v>
+        <v>9342300</v>
       </c>
       <c r="F81" s="3">
-        <v>7829600</v>
+        <v>7917600</v>
       </c>
       <c r="G81" s="3">
-        <v>7338700</v>
+        <v>7421200</v>
       </c>
       <c r="H81" s="3">
-        <v>6730700</v>
+        <v>6806400</v>
       </c>
       <c r="I81" s="3">
-        <v>6879700</v>
+        <v>6957100</v>
       </c>
       <c r="J81" s="3">
-        <v>4938600</v>
+        <v>4994100</v>
       </c>
       <c r="K81" s="3">
         <v>4584200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3549900</v>
+        <v>3589800</v>
       </c>
       <c r="E83" s="3">
-        <v>2868500</v>
+        <v>2900800</v>
       </c>
       <c r="F83" s="3">
-        <v>3067300</v>
+        <v>3101700</v>
       </c>
       <c r="G83" s="3">
-        <v>2796400</v>
+        <v>2827800</v>
       </c>
       <c r="H83" s="3">
-        <v>2860300</v>
+        <v>2892400</v>
       </c>
       <c r="I83" s="3">
-        <v>2705300</v>
+        <v>2735700</v>
       </c>
       <c r="J83" s="3">
-        <v>2828300</v>
+        <v>2860100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4008800</v>
+        <v>4053900</v>
       </c>
       <c r="E89" s="3">
-        <v>4040800</v>
+        <v>4086200</v>
       </c>
       <c r="F89" s="3">
-        <v>47538400</v>
+        <v>48072900</v>
       </c>
       <c r="G89" s="3">
-        <v>25814400</v>
+        <v>26104700</v>
       </c>
       <c r="H89" s="3">
-        <v>6716500</v>
+        <v>6792000</v>
       </c>
       <c r="I89" s="3">
-        <v>-4659400</v>
+        <v>-4711800</v>
       </c>
       <c r="J89" s="3">
-        <v>-41226400</v>
+        <v>-41690000</v>
       </c>
       <c r="K89" s="3">
         <v>26498000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15100900</v>
+        <v>-15270700</v>
       </c>
       <c r="E91" s="3">
-        <v>-12687800</v>
+        <v>-12830400</v>
       </c>
       <c r="F91" s="3">
-        <v>-8812600</v>
+        <v>-8911700</v>
       </c>
       <c r="G91" s="3">
-        <v>-7774000</v>
+        <v>-7861400</v>
       </c>
       <c r="H91" s="3">
-        <v>-9065700</v>
+        <v>-9167700</v>
       </c>
       <c r="I91" s="3">
-        <v>-7919500</v>
+        <v>-8008600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2220300</v>
+        <v>-2245300</v>
       </c>
       <c r="K91" s="3">
         <v>-2372800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8551200</v>
+        <v>-8647300</v>
       </c>
       <c r="E94" s="3">
-        <v>3723800</v>
+        <v>3765600</v>
       </c>
       <c r="F94" s="3">
-        <v>-4741100</v>
+        <v>-4794400</v>
       </c>
       <c r="G94" s="3">
-        <v>-16281400</v>
+        <v>-16464500</v>
       </c>
       <c r="H94" s="3">
-        <v>-7355300</v>
+        <v>-7438000</v>
       </c>
       <c r="I94" s="3">
-        <v>-7103300</v>
+        <v>-7183200</v>
       </c>
       <c r="J94" s="3">
-        <v>800800</v>
+        <v>809800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4463100</v>
+        <v>-4513300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3688300</v>
+        <v>-3729800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3152400</v>
+        <v>-3187900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2731300</v>
+        <v>-2762000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1772000</v>
+        <v>-1791900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1075300</v>
+        <v>-1087300</v>
       </c>
       <c r="J96" s="3">
-        <v>-967600</v>
+        <v>-978500</v>
       </c>
       <c r="K96" s="3">
         <v>-1413100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11973300</v>
+        <v>-12107900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3904800</v>
+        <v>-3948700</v>
       </c>
       <c r="F100" s="3">
-        <v>4975300</v>
+        <v>5031200</v>
       </c>
       <c r="G100" s="3">
-        <v>-6795800</v>
+        <v>-6872200</v>
       </c>
       <c r="H100" s="3">
-        <v>10598800</v>
+        <v>10718000</v>
       </c>
       <c r="I100" s="3">
-        <v>-73300</v>
+        <v>-74200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1982500</v>
+        <v>-2004800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1615800</v>
+        <v>1634000</v>
       </c>
       <c r="E101" s="3">
-        <v>-703800</v>
+        <v>-711700</v>
       </c>
       <c r="F101" s="3">
-        <v>-6914100</v>
+        <v>-6991800</v>
       </c>
       <c r="G101" s="3">
-        <v>-4271500</v>
+        <v>-4319500</v>
       </c>
       <c r="H101" s="3">
-        <v>-617500</v>
+        <v>-624400</v>
       </c>
       <c r="I101" s="3">
-        <v>2757300</v>
+        <v>2788300</v>
       </c>
       <c r="J101" s="3">
-        <v>-6546200</v>
+        <v>-6619800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14899800</v>
+        <v>-15067300</v>
       </c>
       <c r="E102" s="3">
-        <v>3156000</v>
+        <v>3191500</v>
       </c>
       <c r="F102" s="3">
-        <v>40858500</v>
+        <v>41317900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1534200</v>
+        <v>-1551500</v>
       </c>
       <c r="H102" s="3">
-        <v>9342500</v>
+        <v>9447600</v>
       </c>
       <c r="I102" s="3">
-        <v>-9078800</v>
+        <v>-9180800</v>
       </c>
       <c r="J102" s="3">
-        <v>-48954300</v>
+        <v>-49504700</v>
       </c>
       <c r="K102" s="3">
         <v>24116500</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>SAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67926200</v>
+        <v>53809700</v>
       </c>
       <c r="E8" s="3">
-        <v>64983600</v>
+        <v>66801900</v>
       </c>
       <c r="F8" s="3">
-        <v>67036200</v>
+        <v>63907900</v>
       </c>
       <c r="G8" s="3">
-        <v>65977600</v>
+        <v>65926600</v>
       </c>
       <c r="H8" s="3">
-        <v>68420200</v>
+        <v>64885500</v>
       </c>
       <c r="I8" s="3">
-        <v>65379500</v>
+        <v>67287700</v>
       </c>
       <c r="J8" s="3">
+        <v>64297300</v>
+      </c>
+      <c r="K8" s="3">
         <v>61540900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56488800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71154000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3589800</v>
+        <v>-3305700</v>
       </c>
       <c r="E15" s="3">
-        <v>-2900800</v>
+        <v>-3530400</v>
       </c>
       <c r="F15" s="3">
-        <v>-3101700</v>
+        <v>-2852800</v>
       </c>
       <c r="G15" s="3">
-        <v>-2827800</v>
+        <v>-3050400</v>
       </c>
       <c r="H15" s="3">
-        <v>-2892400</v>
+        <v>-2781000</v>
       </c>
       <c r="I15" s="3">
-        <v>-2735700</v>
+        <v>-2844500</v>
       </c>
       <c r="J15" s="3">
+        <v>-2690400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2860100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2625300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2462700</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36893200</v>
+        <v>30715800</v>
       </c>
       <c r="E17" s="3">
-        <v>34652700</v>
+        <v>36282500</v>
       </c>
       <c r="F17" s="3">
-        <v>37065500</v>
+        <v>34079100</v>
       </c>
       <c r="G17" s="3">
-        <v>40221000</v>
+        <v>36451900</v>
       </c>
       <c r="H17" s="3">
-        <v>41364600</v>
+        <v>39555300</v>
       </c>
       <c r="I17" s="3">
-        <v>42620600</v>
+        <v>40679900</v>
       </c>
       <c r="J17" s="3">
+        <v>41915100</v>
+      </c>
+      <c r="K17" s="3">
         <v>43658900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40074800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48114500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31033000</v>
+        <v>23093900</v>
       </c>
       <c r="E18" s="3">
-        <v>30330800</v>
+        <v>30519300</v>
       </c>
       <c r="F18" s="3">
-        <v>29970800</v>
+        <v>29828800</v>
       </c>
       <c r="G18" s="3">
-        <v>25756600</v>
+        <v>29474700</v>
       </c>
       <c r="H18" s="3">
-        <v>27055700</v>
+        <v>25330200</v>
       </c>
       <c r="I18" s="3">
-        <v>22758900</v>
+        <v>26607800</v>
       </c>
       <c r="J18" s="3">
+        <v>22382200</v>
+      </c>
+      <c r="K18" s="3">
         <v>17882000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16414000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23039500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16029100</v>
+        <v>-25536100</v>
       </c>
       <c r="E20" s="3">
-        <v>-13343600</v>
+        <v>-15763800</v>
       </c>
       <c r="F20" s="3">
-        <v>-15507500</v>
+        <v>-13122700</v>
       </c>
       <c r="G20" s="3">
-        <v>-12875900</v>
+        <v>-15250800</v>
       </c>
       <c r="H20" s="3">
-        <v>-15635500</v>
+        <v>-12662800</v>
       </c>
       <c r="I20" s="3">
-        <v>-9984700</v>
+        <v>-15376700</v>
       </c>
       <c r="J20" s="3">
+        <v>-9819400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9056400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8313000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13815700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18579000</v>
+        <v>877000</v>
       </c>
       <c r="E21" s="3">
-        <v>19876100</v>
+        <v>18300400</v>
       </c>
       <c r="F21" s="3">
-        <v>17552300</v>
+        <v>19570500</v>
       </c>
       <c r="G21" s="3">
-        <v>15696900</v>
+        <v>17286700</v>
       </c>
       <c r="H21" s="3">
-        <v>14300700</v>
+        <v>15459800</v>
       </c>
       <c r="I21" s="3">
-        <v>15498700</v>
+        <v>14087200</v>
       </c>
       <c r="J21" s="3">
+        <v>15264200</v>
+      </c>
+      <c r="K21" s="3">
         <v>11674000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>11688100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15003900</v>
+        <v>-2442200</v>
       </c>
       <c r="E23" s="3">
-        <v>16987200</v>
+        <v>14755600</v>
       </c>
       <c r="F23" s="3">
-        <v>14463300</v>
+        <v>16706100</v>
       </c>
       <c r="G23" s="3">
-        <v>12880700</v>
+        <v>14223900</v>
       </c>
       <c r="H23" s="3">
-        <v>11420100</v>
+        <v>12667500</v>
       </c>
       <c r="I23" s="3">
-        <v>12774200</v>
+        <v>11231100</v>
       </c>
       <c r="J23" s="3">
+        <v>12562800</v>
+      </c>
+      <c r="K23" s="3">
         <v>8825600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8101000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9223800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5295600</v>
+        <v>6625500</v>
       </c>
       <c r="E24" s="3">
-        <v>5844600</v>
+        <v>5207900</v>
       </c>
       <c r="F24" s="3">
-        <v>4646000</v>
+        <v>5747900</v>
       </c>
       <c r="G24" s="3">
-        <v>3925900</v>
+        <v>4569100</v>
       </c>
       <c r="H24" s="3">
-        <v>2647200</v>
+        <v>3860900</v>
       </c>
       <c r="I24" s="3">
-        <v>4447500</v>
+        <v>2603400</v>
       </c>
       <c r="J24" s="3">
+        <v>4373900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2433100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2233300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2060000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9708400</v>
+        <v>-9067700</v>
       </c>
       <c r="E26" s="3">
-        <v>11142600</v>
+        <v>9547700</v>
       </c>
       <c r="F26" s="3">
-        <v>9817200</v>
+        <v>10958200</v>
       </c>
       <c r="G26" s="3">
-        <v>8954800</v>
+        <v>9654700</v>
       </c>
       <c r="H26" s="3">
-        <v>8772900</v>
+        <v>8806500</v>
       </c>
       <c r="I26" s="3">
-        <v>8326700</v>
+        <v>8627700</v>
       </c>
       <c r="J26" s="3">
+        <v>8188900</v>
+      </c>
+      <c r="K26" s="3">
         <v>6392500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5867700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7163800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7793200</v>
+        <v>-10318200</v>
       </c>
       <c r="E27" s="3">
-        <v>9342300</v>
+        <v>7664200</v>
       </c>
       <c r="F27" s="3">
-        <v>7917600</v>
+        <v>9187700</v>
       </c>
       <c r="G27" s="3">
-        <v>7421200</v>
+        <v>7786600</v>
       </c>
       <c r="H27" s="3">
-        <v>6806400</v>
+        <v>7298400</v>
       </c>
       <c r="I27" s="3">
-        <v>6988200</v>
+        <v>6693700</v>
       </c>
       <c r="J27" s="3">
+        <v>6872500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5012100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6238800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,24 +1424,27 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>-31100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-17900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-16500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>17600</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16029100</v>
+        <v>25536100</v>
       </c>
       <c r="E32" s="3">
-        <v>13343600</v>
+        <v>15763800</v>
       </c>
       <c r="F32" s="3">
-        <v>15507500</v>
+        <v>13122700</v>
       </c>
       <c r="G32" s="3">
-        <v>12875900</v>
+        <v>15250800</v>
       </c>
       <c r="H32" s="3">
-        <v>15635500</v>
+        <v>12662800</v>
       </c>
       <c r="I32" s="3">
-        <v>9984700</v>
+        <v>15376700</v>
       </c>
       <c r="J32" s="3">
+        <v>9819400</v>
+      </c>
+      <c r="K32" s="3">
         <v>9056400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8313000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13815700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7793200</v>
+        <v>-10318200</v>
       </c>
       <c r="E33" s="3">
-        <v>9342300</v>
+        <v>7664200</v>
       </c>
       <c r="F33" s="3">
-        <v>7917600</v>
+        <v>9187700</v>
       </c>
       <c r="G33" s="3">
-        <v>7421200</v>
+        <v>7786600</v>
       </c>
       <c r="H33" s="3">
-        <v>6806400</v>
+        <v>7298400</v>
       </c>
       <c r="I33" s="3">
-        <v>6957100</v>
+        <v>6693700</v>
       </c>
       <c r="J33" s="3">
+        <v>6841900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4994100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4584200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6256400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7793200</v>
+        <v>-10318200</v>
       </c>
       <c r="E35" s="3">
-        <v>9342300</v>
+        <v>7664200</v>
       </c>
       <c r="F35" s="3">
-        <v>7917600</v>
+        <v>9187700</v>
       </c>
       <c r="G35" s="3">
-        <v>7421200</v>
+        <v>7786600</v>
       </c>
       <c r="H35" s="3">
-        <v>6806400</v>
+        <v>7298400</v>
       </c>
       <c r="I35" s="3">
-        <v>6957100</v>
+        <v>6693700</v>
       </c>
       <c r="J35" s="3">
+        <v>6841900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4994100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4584200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6256400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>142995000</v>
+        <v>195680000</v>
       </c>
       <c r="E41" s="3">
-        <v>154626000</v>
+        <v>140628000</v>
       </c>
       <c r="F41" s="3">
-        <v>164206000</v>
+        <v>152066000</v>
       </c>
       <c r="G41" s="3">
-        <v>124916000</v>
+        <v>161488000</v>
       </c>
       <c r="H41" s="3">
-        <v>157402000</v>
+        <v>122848000</v>
       </c>
       <c r="I41" s="3">
-        <v>144422000</v>
+        <v>154797000</v>
       </c>
       <c r="J41" s="3">
+        <v>142032000</v>
+      </c>
+      <c r="K41" s="3">
         <v>159238000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189156000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>163058000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>189309000</v>
+        <v>174437000</v>
       </c>
       <c r="E42" s="3">
-        <v>194879000</v>
+        <v>186176000</v>
       </c>
       <c r="F42" s="3">
-        <v>166695000</v>
+        <v>191653000</v>
       </c>
       <c r="G42" s="3">
-        <v>167098000</v>
+        <v>163936000</v>
       </c>
       <c r="H42" s="3">
-        <v>136207000</v>
+        <v>164333000</v>
       </c>
       <c r="I42" s="3">
-        <v>145995000</v>
+        <v>133952000</v>
       </c>
       <c r="J42" s="3">
+        <v>143578000</v>
+      </c>
+      <c r="K42" s="3">
         <v>114921000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>219900000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>223436000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10493100</v>
+        <v>8966500</v>
       </c>
       <c r="E47" s="3">
-        <v>9076800</v>
+        <v>10319400</v>
       </c>
       <c r="F47" s="3">
-        <v>7397300</v>
+        <v>8926500</v>
       </c>
       <c r="G47" s="3">
-        <v>5784800</v>
+        <v>7274900</v>
       </c>
       <c r="H47" s="3">
-        <v>3888800</v>
+        <v>5689100</v>
       </c>
       <c r="I47" s="3">
-        <v>4152000</v>
+        <v>3824500</v>
       </c>
       <c r="J47" s="3">
+        <v>4083300</v>
+      </c>
+      <c r="K47" s="3">
         <v>10661700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4890500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4877200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42148100</v>
+        <v>38509500</v>
       </c>
       <c r="E48" s="3">
-        <v>31289000</v>
+        <v>41450500</v>
       </c>
       <c r="F48" s="3">
-        <v>27481500</v>
+        <v>30771100</v>
       </c>
       <c r="G48" s="3">
-        <v>27854700</v>
+        <v>27026600</v>
       </c>
       <c r="H48" s="3">
-        <v>30287800</v>
+        <v>27393700</v>
       </c>
       <c r="I48" s="3">
-        <v>27818800</v>
+        <v>29786400</v>
       </c>
       <c r="J48" s="3">
+        <v>27358400</v>
+      </c>
+      <c r="K48" s="3">
         <v>38028400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15218300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16252600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33119200</v>
+        <v>18714200</v>
       </c>
       <c r="E49" s="3">
-        <v>34163500</v>
+        <v>32571000</v>
       </c>
       <c r="F49" s="3">
-        <v>34310600</v>
+        <v>33598000</v>
       </c>
       <c r="G49" s="3">
-        <v>35193400</v>
+        <v>33742700</v>
       </c>
       <c r="H49" s="3">
-        <v>35204200</v>
+        <v>34610900</v>
       </c>
       <c r="I49" s="3">
-        <v>36365700</v>
+        <v>34621500</v>
       </c>
       <c r="J49" s="3">
+        <v>35763700</v>
+      </c>
+      <c r="K49" s="3">
         <v>60412900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30812100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32964100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33807000</v>
+        <v>28617100</v>
       </c>
       <c r="E52" s="3">
-        <v>35525900</v>
+        <v>33247400</v>
       </c>
       <c r="F52" s="3">
-        <v>46764200</v>
+        <v>34937900</v>
       </c>
       <c r="G52" s="3">
-        <v>32963700</v>
+        <v>45990200</v>
       </c>
       <c r="H52" s="3">
-        <v>34065400</v>
+        <v>32418100</v>
       </c>
       <c r="I52" s="3">
-        <v>33437400</v>
+        <v>33501500</v>
       </c>
       <c r="J52" s="3">
+        <v>32883900</v>
+      </c>
+      <c r="K52" s="3">
         <v>31381100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29252900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29758400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1821450000</v>
+        <v>1774310000</v>
       </c>
       <c r="E54" s="3">
-        <v>1745580000</v>
+        <v>1791300000</v>
       </c>
       <c r="F54" s="3">
-        <v>1727680000</v>
+        <v>1716690000</v>
       </c>
       <c r="G54" s="3">
-        <v>1601860000</v>
+        <v>1699080000</v>
       </c>
       <c r="H54" s="3">
-        <v>1603220000</v>
+        <v>1575350000</v>
       </c>
       <c r="I54" s="3">
-        <v>1514740000</v>
+        <v>1576680000</v>
       </c>
       <c r="J54" s="3">
+        <v>1489670000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1334680000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1394020000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1468450000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,9 +2300,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3349400</v>
+        <v>2763400</v>
       </c>
       <c r="E59" s="3">
-        <v>3070600</v>
+        <v>3293900</v>
       </c>
       <c r="F59" s="3">
-        <v>3295500</v>
+        <v>3019800</v>
       </c>
       <c r="G59" s="3">
-        <v>3204600</v>
+        <v>3241000</v>
       </c>
       <c r="H59" s="3">
-        <v>2583800</v>
+        <v>3151600</v>
       </c>
       <c r="I59" s="3">
-        <v>5804000</v>
+        <v>2541000</v>
       </c>
       <c r="J59" s="3">
+        <v>5707900</v>
+      </c>
+      <c r="K59" s="3">
         <v>5088600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5667900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5987600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>313377000</v>
+        <v>276771000</v>
       </c>
       <c r="E61" s="3">
-        <v>295006000</v>
+        <v>308190000</v>
       </c>
       <c r="F61" s="3">
-        <v>260731000</v>
+        <v>290123000</v>
       </c>
       <c r="G61" s="3">
-        <v>273773000</v>
+        <v>256415000</v>
       </c>
       <c r="H61" s="3">
-        <v>270559000</v>
+        <v>269242000</v>
       </c>
       <c r="I61" s="3">
-        <v>256012000</v>
+        <v>266081000</v>
       </c>
       <c r="J61" s="3">
+        <v>251774000</v>
+      </c>
+      <c r="K61" s="3">
         <v>229210000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>246179000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258666000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24532900</v>
+        <v>19745900</v>
       </c>
       <c r="E62" s="3">
-        <v>22480200</v>
+        <v>24126800</v>
       </c>
       <c r="F62" s="3">
-        <v>23117800</v>
+        <v>22108100</v>
       </c>
       <c r="G62" s="3">
-        <v>24107000</v>
+        <v>22735100</v>
       </c>
       <c r="H62" s="3">
-        <v>23994600</v>
+        <v>23708000</v>
       </c>
       <c r="I62" s="3">
-        <v>23808000</v>
+        <v>23597400</v>
       </c>
       <c r="J62" s="3">
+        <v>23413900</v>
+      </c>
+      <c r="K62" s="3">
         <v>36961400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20588600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23680400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1701740000</v>
+        <v>1678460000</v>
       </c>
       <c r="E66" s="3">
-        <v>1630180000</v>
+        <v>1673570000</v>
       </c>
       <c r="F66" s="3">
-        <v>1614650000</v>
+        <v>1603200000</v>
       </c>
       <c r="G66" s="3">
-        <v>1493080000</v>
+        <v>1587920000</v>
       </c>
       <c r="H66" s="3">
-        <v>1497910000</v>
+        <v>1468370000</v>
       </c>
       <c r="I66" s="3">
-        <v>1418080000</v>
+        <v>1473110000</v>
       </c>
       <c r="J66" s="3">
+        <v>1394610000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1250550000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1315120000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1381050000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>80794900</v>
+        <v>66833600</v>
       </c>
       <c r="E72" s="3">
-        <v>77233800</v>
+        <v>79457600</v>
       </c>
       <c r="F72" s="3">
-        <v>71839000</v>
+        <v>75955400</v>
       </c>
       <c r="G72" s="3">
-        <v>67175000</v>
+        <v>70649900</v>
       </c>
       <c r="H72" s="3">
-        <v>61874600</v>
+        <v>66063100</v>
       </c>
       <c r="I72" s="3">
-        <v>56192700</v>
+        <v>60850500</v>
       </c>
       <c r="J72" s="3">
+        <v>55262600</v>
+      </c>
+      <c r="K72" s="3">
         <v>140362000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42600200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43125800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>119705000</v>
+        <v>95848400</v>
       </c>
       <c r="E76" s="3">
-        <v>115400000</v>
+        <v>117724000</v>
       </c>
       <c r="F76" s="3">
-        <v>113028000</v>
+        <v>113490000</v>
       </c>
       <c r="G76" s="3">
-        <v>108780000</v>
+        <v>111157000</v>
       </c>
       <c r="H76" s="3">
-        <v>105313000</v>
+        <v>106980000</v>
       </c>
       <c r="I76" s="3">
-        <v>96658900</v>
+        <v>103570000</v>
       </c>
       <c r="J76" s="3">
+        <v>95059000</v>
+      </c>
+      <c r="K76" s="3">
         <v>84126400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78902300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87401900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7793200</v>
+        <v>-10318200</v>
       </c>
       <c r="E81" s="3">
-        <v>9342300</v>
+        <v>7664200</v>
       </c>
       <c r="F81" s="3">
-        <v>7917600</v>
+        <v>9187700</v>
       </c>
       <c r="G81" s="3">
-        <v>7421200</v>
+        <v>7786600</v>
       </c>
       <c r="H81" s="3">
-        <v>6806400</v>
+        <v>7298400</v>
       </c>
       <c r="I81" s="3">
-        <v>6957100</v>
+        <v>6693700</v>
       </c>
       <c r="J81" s="3">
+        <v>6841900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4994100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4584200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6256400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3589800</v>
+        <v>3305700</v>
       </c>
       <c r="E83" s="3">
-        <v>2900800</v>
+        <v>3530400</v>
       </c>
       <c r="F83" s="3">
-        <v>3101700</v>
+        <v>2852800</v>
       </c>
       <c r="G83" s="3">
-        <v>2827800</v>
+        <v>3050400</v>
       </c>
       <c r="H83" s="3">
-        <v>2892400</v>
+        <v>2781000</v>
       </c>
       <c r="I83" s="3">
-        <v>2735700</v>
+        <v>2844500</v>
       </c>
       <c r="J83" s="3">
+        <v>2690400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2860100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>2462700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4053900</v>
+        <v>77822400</v>
       </c>
       <c r="E89" s="3">
-        <v>4086200</v>
+        <v>3986800</v>
       </c>
       <c r="F89" s="3">
-        <v>48072900</v>
+        <v>4018600</v>
       </c>
       <c r="G89" s="3">
-        <v>26104700</v>
+        <v>47277200</v>
       </c>
       <c r="H89" s="3">
-        <v>6792000</v>
+        <v>25672600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4711800</v>
+        <v>6679600</v>
       </c>
       <c r="J89" s="3">
+        <v>-4633800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-41690000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26498000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42143300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15270700</v>
+        <v>-8688900</v>
       </c>
       <c r="E91" s="3">
-        <v>-12830400</v>
+        <v>-15017900</v>
       </c>
       <c r="F91" s="3">
-        <v>-8911700</v>
+        <v>-12618100</v>
       </c>
       <c r="G91" s="3">
-        <v>-7861400</v>
+        <v>-8764200</v>
       </c>
       <c r="H91" s="3">
-        <v>-9167700</v>
+        <v>-7731300</v>
       </c>
       <c r="I91" s="3">
-        <v>-8008600</v>
+        <v>-9015900</v>
       </c>
       <c r="J91" s="3">
+        <v>-7876000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2245300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2372800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3988600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8647300</v>
+        <v>-8493600</v>
       </c>
       <c r="E94" s="3">
-        <v>3765600</v>
+        <v>-8504200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4794400</v>
+        <v>3703300</v>
       </c>
       <c r="G94" s="3">
-        <v>-16464500</v>
+        <v>-4715000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7438000</v>
+        <v>-16192000</v>
       </c>
       <c r="I94" s="3">
-        <v>-7183200</v>
+        <v>-7314900</v>
       </c>
       <c r="J94" s="3">
+        <v>-7064300</v>
+      </c>
+      <c r="K94" s="3">
         <v>809800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-8226100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4513300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3729800</v>
+        <v>-4438600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3187900</v>
+        <v>-3668000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2762000</v>
+        <v>-3135100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1791900</v>
+        <v>-2716300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1087300</v>
+        <v>-1762200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1069300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-978500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1413100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4095400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12107900</v>
+        <v>-2543400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3948700</v>
+        <v>-11907500</v>
       </c>
       <c r="F100" s="3">
-        <v>5031200</v>
+        <v>-3883300</v>
       </c>
       <c r="G100" s="3">
-        <v>-6872200</v>
+        <v>4947900</v>
       </c>
       <c r="H100" s="3">
-        <v>10718000</v>
+        <v>-6758400</v>
       </c>
       <c r="I100" s="3">
-        <v>-74200</v>
+        <v>10540500</v>
       </c>
       <c r="J100" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2004800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-9520800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1634000</v>
+        <v>-5002100</v>
       </c>
       <c r="E101" s="3">
-        <v>-711700</v>
+        <v>1607000</v>
       </c>
       <c r="F101" s="3">
-        <v>-6991800</v>
+        <v>-700000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4319500</v>
+        <v>-6876100</v>
       </c>
       <c r="H101" s="3">
-        <v>-624400</v>
+        <v>-4248000</v>
       </c>
       <c r="I101" s="3">
-        <v>2788300</v>
+        <v>-614100</v>
       </c>
       <c r="J101" s="3">
+        <v>2742200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6619800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-2401600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15067300</v>
+        <v>62081000</v>
       </c>
       <c r="E102" s="3">
-        <v>3191500</v>
+        <v>-14817900</v>
       </c>
       <c r="F102" s="3">
-        <v>41317900</v>
+        <v>3138600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1551500</v>
+        <v>40634000</v>
       </c>
       <c r="H102" s="3">
-        <v>9447600</v>
+        <v>-1525800</v>
       </c>
       <c r="I102" s="3">
-        <v>-9180800</v>
+        <v>9291200</v>
       </c>
       <c r="J102" s="3">
+        <v>-9028900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-49504700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24116500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21994900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>53809700</v>
+        <v>56032300</v>
       </c>
       <c r="E8" s="3">
-        <v>66801900</v>
+        <v>69561100</v>
       </c>
       <c r="F8" s="3">
-        <v>63907900</v>
+        <v>66547600</v>
       </c>
       <c r="G8" s="3">
-        <v>65926600</v>
+        <v>68649700</v>
       </c>
       <c r="H8" s="3">
-        <v>64885500</v>
+        <v>67565500</v>
       </c>
       <c r="I8" s="3">
-        <v>67287700</v>
+        <v>70067000</v>
       </c>
       <c r="J8" s="3">
-        <v>64297300</v>
+        <v>66953100</v>
       </c>
       <c r="K8" s="3">
         <v>61540900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3305700</v>
+        <v>-3442200</v>
       </c>
       <c r="E15" s="3">
-        <v>-3530400</v>
+        <v>-3676200</v>
       </c>
       <c r="F15" s="3">
-        <v>-2852800</v>
+        <v>-2970600</v>
       </c>
       <c r="G15" s="3">
-        <v>-3050400</v>
+        <v>-3176400</v>
       </c>
       <c r="H15" s="3">
-        <v>-2781000</v>
+        <v>-2895900</v>
       </c>
       <c r="I15" s="3">
-        <v>-2844500</v>
+        <v>-2962000</v>
       </c>
       <c r="J15" s="3">
-        <v>-2690400</v>
+        <v>-2801600</v>
       </c>
       <c r="K15" s="3">
         <v>-2860100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30715800</v>
+        <v>31984500</v>
       </c>
       <c r="E17" s="3">
-        <v>36282500</v>
+        <v>37781100</v>
       </c>
       <c r="F17" s="3">
-        <v>34079100</v>
+        <v>35486700</v>
       </c>
       <c r="G17" s="3">
-        <v>36451900</v>
+        <v>37957500</v>
       </c>
       <c r="H17" s="3">
-        <v>39555300</v>
+        <v>41189100</v>
       </c>
       <c r="I17" s="3">
-        <v>40679900</v>
+        <v>42360200</v>
       </c>
       <c r="J17" s="3">
-        <v>41915100</v>
+        <v>43646400</v>
       </c>
       <c r="K17" s="3">
         <v>43658900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23093900</v>
+        <v>24047800</v>
       </c>
       <c r="E18" s="3">
-        <v>30519300</v>
+        <v>31779900</v>
       </c>
       <c r="F18" s="3">
-        <v>29828800</v>
+        <v>31060800</v>
       </c>
       <c r="G18" s="3">
-        <v>29474700</v>
+        <v>30692100</v>
       </c>
       <c r="H18" s="3">
-        <v>25330200</v>
+        <v>26376500</v>
       </c>
       <c r="I18" s="3">
-        <v>26607800</v>
+        <v>27706800</v>
       </c>
       <c r="J18" s="3">
-        <v>22382200</v>
+        <v>23306700</v>
       </c>
       <c r="K18" s="3">
         <v>17882000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25536100</v>
+        <v>-26590900</v>
       </c>
       <c r="E20" s="3">
-        <v>-15763800</v>
+        <v>-16414900</v>
       </c>
       <c r="F20" s="3">
-        <v>-13122700</v>
+        <v>-13664800</v>
       </c>
       <c r="G20" s="3">
-        <v>-15250800</v>
+        <v>-15880800</v>
       </c>
       <c r="H20" s="3">
-        <v>-12662800</v>
+        <v>-13185800</v>
       </c>
       <c r="I20" s="3">
-        <v>-15376700</v>
+        <v>-16011800</v>
       </c>
       <c r="J20" s="3">
-        <v>-9819400</v>
+        <v>-10225000</v>
       </c>
       <c r="K20" s="3">
         <v>-9056400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>877000</v>
+        <v>889300</v>
       </c>
       <c r="E21" s="3">
-        <v>18300400</v>
+        <v>19030700</v>
       </c>
       <c r="F21" s="3">
-        <v>19570500</v>
+        <v>20358200</v>
       </c>
       <c r="G21" s="3">
-        <v>17286700</v>
+        <v>17978700</v>
       </c>
       <c r="H21" s="3">
-        <v>15459800</v>
+        <v>16078300</v>
       </c>
       <c r="I21" s="3">
-        <v>14087200</v>
+        <v>14648500</v>
       </c>
       <c r="J21" s="3">
-        <v>15264200</v>
+        <v>15875200</v>
       </c>
       <c r="K21" s="3">
         <v>11674000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2442200</v>
+        <v>-2543100</v>
       </c>
       <c r="E23" s="3">
-        <v>14755600</v>
+        <v>15365000</v>
       </c>
       <c r="F23" s="3">
-        <v>16706100</v>
+        <v>17396100</v>
       </c>
       <c r="G23" s="3">
-        <v>14223900</v>
+        <v>14811400</v>
       </c>
       <c r="H23" s="3">
-        <v>12667500</v>
+        <v>13190700</v>
       </c>
       <c r="I23" s="3">
-        <v>11231100</v>
+        <v>11695000</v>
       </c>
       <c r="J23" s="3">
-        <v>12562800</v>
+        <v>13081700</v>
       </c>
       <c r="K23" s="3">
         <v>8825600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6625500</v>
+        <v>6899100</v>
       </c>
       <c r="E24" s="3">
-        <v>5207900</v>
+        <v>5423000</v>
       </c>
       <c r="F24" s="3">
-        <v>5747900</v>
+        <v>5985300</v>
       </c>
       <c r="G24" s="3">
-        <v>4569100</v>
+        <v>4757900</v>
       </c>
       <c r="H24" s="3">
-        <v>3860900</v>
+        <v>4020400</v>
       </c>
       <c r="I24" s="3">
-        <v>2603400</v>
+        <v>2710900</v>
       </c>
       <c r="J24" s="3">
-        <v>4373900</v>
+        <v>4554500</v>
       </c>
       <c r="K24" s="3">
         <v>2433100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9067700</v>
+        <v>-9442200</v>
       </c>
       <c r="E26" s="3">
-        <v>9547700</v>
+        <v>9942000</v>
       </c>
       <c r="F26" s="3">
-        <v>10958200</v>
+        <v>11410800</v>
       </c>
       <c r="G26" s="3">
-        <v>9654700</v>
+        <v>10053500</v>
       </c>
       <c r="H26" s="3">
-        <v>8806500</v>
+        <v>9170300</v>
       </c>
       <c r="I26" s="3">
-        <v>8627700</v>
+        <v>8984100</v>
       </c>
       <c r="J26" s="3">
-        <v>8188900</v>
+        <v>8527200</v>
       </c>
       <c r="K26" s="3">
         <v>6392500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10318200</v>
+        <v>-10744400</v>
       </c>
       <c r="E27" s="3">
-        <v>7664200</v>
+        <v>7980800</v>
       </c>
       <c r="F27" s="3">
-        <v>9187700</v>
+        <v>9567200</v>
       </c>
       <c r="G27" s="3">
-        <v>7786600</v>
+        <v>8108200</v>
       </c>
       <c r="H27" s="3">
-        <v>7298400</v>
+        <v>7599800</v>
       </c>
       <c r="I27" s="3">
-        <v>6693700</v>
+        <v>6970200</v>
       </c>
       <c r="J27" s="3">
-        <v>6872500</v>
+        <v>7156400</v>
       </c>
       <c r="K27" s="3">
         <v>5012100</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-30600</v>
+        <v>-31800</v>
       </c>
       <c r="K29" s="3">
         <v>-17900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25536100</v>
+        <v>26590900</v>
       </c>
       <c r="E32" s="3">
-        <v>15763800</v>
+        <v>16414900</v>
       </c>
       <c r="F32" s="3">
-        <v>13122700</v>
+        <v>13664800</v>
       </c>
       <c r="G32" s="3">
-        <v>15250800</v>
+        <v>15880800</v>
       </c>
       <c r="H32" s="3">
-        <v>12662800</v>
+        <v>13185800</v>
       </c>
       <c r="I32" s="3">
-        <v>15376700</v>
+        <v>16011800</v>
       </c>
       <c r="J32" s="3">
-        <v>9819400</v>
+        <v>10225000</v>
       </c>
       <c r="K32" s="3">
         <v>9056400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10318200</v>
+        <v>-10744400</v>
       </c>
       <c r="E33" s="3">
-        <v>7664200</v>
+        <v>7980800</v>
       </c>
       <c r="F33" s="3">
-        <v>9187700</v>
+        <v>9567200</v>
       </c>
       <c r="G33" s="3">
-        <v>7786600</v>
+        <v>8108200</v>
       </c>
       <c r="H33" s="3">
-        <v>7298400</v>
+        <v>7599800</v>
       </c>
       <c r="I33" s="3">
-        <v>6693700</v>
+        <v>6970200</v>
       </c>
       <c r="J33" s="3">
-        <v>6841900</v>
+        <v>7124500</v>
       </c>
       <c r="K33" s="3">
         <v>4994100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10318200</v>
+        <v>-10744400</v>
       </c>
       <c r="E35" s="3">
-        <v>7664200</v>
+        <v>7980800</v>
       </c>
       <c r="F35" s="3">
-        <v>9187700</v>
+        <v>9567200</v>
       </c>
       <c r="G35" s="3">
-        <v>7786600</v>
+        <v>8108200</v>
       </c>
       <c r="H35" s="3">
-        <v>7298400</v>
+        <v>7599800</v>
       </c>
       <c r="I35" s="3">
-        <v>6693700</v>
+        <v>6970200</v>
       </c>
       <c r="J35" s="3">
-        <v>6841900</v>
+        <v>7124500</v>
       </c>
       <c r="K35" s="3">
         <v>4994100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>195680000</v>
+        <v>203762000</v>
       </c>
       <c r="E41" s="3">
-        <v>140628000</v>
+        <v>146437000</v>
       </c>
       <c r="F41" s="3">
-        <v>152066000</v>
+        <v>158347000</v>
       </c>
       <c r="G41" s="3">
-        <v>161488000</v>
+        <v>168158000</v>
       </c>
       <c r="H41" s="3">
-        <v>122848000</v>
+        <v>127922000</v>
       </c>
       <c r="I41" s="3">
-        <v>154797000</v>
+        <v>161190000</v>
       </c>
       <c r="J41" s="3">
-        <v>142032000</v>
+        <v>147898000</v>
       </c>
       <c r="K41" s="3">
         <v>159238000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>174437000</v>
+        <v>181642000</v>
       </c>
       <c r="E42" s="3">
-        <v>186176000</v>
+        <v>193866000</v>
       </c>
       <c r="F42" s="3">
-        <v>191653000</v>
+        <v>199569000</v>
       </c>
       <c r="G42" s="3">
-        <v>163936000</v>
+        <v>170707000</v>
       </c>
       <c r="H42" s="3">
-        <v>164333000</v>
+        <v>171120000</v>
       </c>
       <c r="I42" s="3">
-        <v>133952000</v>
+        <v>139485000</v>
       </c>
       <c r="J42" s="3">
-        <v>143578000</v>
+        <v>149509000</v>
       </c>
       <c r="K42" s="3">
         <v>114921000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8966500</v>
+        <v>9336900</v>
       </c>
       <c r="E47" s="3">
-        <v>10319400</v>
+        <v>10745600</v>
       </c>
       <c r="F47" s="3">
-        <v>8926500</v>
+        <v>9295200</v>
       </c>
       <c r="G47" s="3">
-        <v>7274900</v>
+        <v>7575300</v>
       </c>
       <c r="H47" s="3">
-        <v>5689100</v>
+        <v>5924100</v>
       </c>
       <c r="I47" s="3">
-        <v>3824500</v>
+        <v>3982400</v>
       </c>
       <c r="J47" s="3">
-        <v>4083300</v>
+        <v>4251900</v>
       </c>
       <c r="K47" s="3">
         <v>10661700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38509500</v>
+        <v>40100000</v>
       </c>
       <c r="E48" s="3">
-        <v>41450500</v>
+        <v>43162500</v>
       </c>
       <c r="F48" s="3">
-        <v>30771100</v>
+        <v>32042100</v>
       </c>
       <c r="G48" s="3">
-        <v>27026600</v>
+        <v>28142900</v>
       </c>
       <c r="H48" s="3">
-        <v>27393700</v>
+        <v>28525100</v>
       </c>
       <c r="I48" s="3">
-        <v>29786400</v>
+        <v>31016700</v>
       </c>
       <c r="J48" s="3">
-        <v>27358400</v>
+        <v>28488400</v>
       </c>
       <c r="K48" s="3">
         <v>38028400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18714200</v>
+        <v>19487100</v>
       </c>
       <c r="E49" s="3">
-        <v>32571000</v>
+        <v>33916300</v>
       </c>
       <c r="F49" s="3">
-        <v>33598000</v>
+        <v>34985700</v>
       </c>
       <c r="G49" s="3">
-        <v>33742700</v>
+        <v>35136400</v>
       </c>
       <c r="H49" s="3">
-        <v>34610900</v>
+        <v>36040400</v>
       </c>
       <c r="I49" s="3">
-        <v>34621500</v>
+        <v>36051500</v>
       </c>
       <c r="J49" s="3">
-        <v>35763700</v>
+        <v>37240900</v>
       </c>
       <c r="K49" s="3">
         <v>60412900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28617100</v>
+        <v>29799100</v>
       </c>
       <c r="E52" s="3">
-        <v>33247400</v>
+        <v>34620700</v>
       </c>
       <c r="F52" s="3">
-        <v>34937900</v>
+        <v>36381000</v>
       </c>
       <c r="G52" s="3">
-        <v>45990200</v>
+        <v>47889800</v>
       </c>
       <c r="H52" s="3">
-        <v>32418100</v>
+        <v>33757000</v>
       </c>
       <c r="I52" s="3">
-        <v>33501500</v>
+        <v>34885300</v>
       </c>
       <c r="J52" s="3">
-        <v>32883900</v>
+        <v>34242100</v>
       </c>
       <c r="K52" s="3">
         <v>31381100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1774310000</v>
+        <v>1847590000</v>
       </c>
       <c r="E54" s="3">
-        <v>1791300000</v>
+        <v>1865290000</v>
       </c>
       <c r="F54" s="3">
-        <v>1716690000</v>
+        <v>1787590000</v>
       </c>
       <c r="G54" s="3">
-        <v>1699080000</v>
+        <v>1769260000</v>
       </c>
       <c r="H54" s="3">
-        <v>1575350000</v>
+        <v>1640410000</v>
       </c>
       <c r="I54" s="3">
-        <v>1576680000</v>
+        <v>1641810000</v>
       </c>
       <c r="J54" s="3">
-        <v>1489670000</v>
+        <v>1551200000</v>
       </c>
       <c r="K54" s="3">
         <v>1334680000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2763400</v>
+        <v>2877500</v>
       </c>
       <c r="E59" s="3">
-        <v>3293900</v>
+        <v>3430000</v>
       </c>
       <c r="F59" s="3">
-        <v>3019800</v>
+        <v>3144500</v>
       </c>
       <c r="G59" s="3">
-        <v>3241000</v>
+        <v>3374800</v>
       </c>
       <c r="H59" s="3">
-        <v>3151600</v>
+        <v>3281700</v>
       </c>
       <c r="I59" s="3">
-        <v>2541000</v>
+        <v>2646000</v>
       </c>
       <c r="J59" s="3">
-        <v>5707900</v>
+        <v>5943700</v>
       </c>
       <c r="K59" s="3">
         <v>5088600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>276771000</v>
+        <v>288202000</v>
       </c>
       <c r="E61" s="3">
-        <v>308190000</v>
+        <v>320919000</v>
       </c>
       <c r="F61" s="3">
-        <v>290123000</v>
+        <v>302106000</v>
       </c>
       <c r="G61" s="3">
-        <v>256415000</v>
+        <v>267006000</v>
       </c>
       <c r="H61" s="3">
-        <v>269242000</v>
+        <v>280362000</v>
       </c>
       <c r="I61" s="3">
-        <v>266081000</v>
+        <v>277071000</v>
       </c>
       <c r="J61" s="3">
-        <v>251774000</v>
+        <v>262174000</v>
       </c>
       <c r="K61" s="3">
         <v>229210000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19745900</v>
+        <v>20561500</v>
       </c>
       <c r="E62" s="3">
-        <v>24126800</v>
+        <v>25123300</v>
       </c>
       <c r="F62" s="3">
-        <v>22108100</v>
+        <v>23021200</v>
       </c>
       <c r="G62" s="3">
-        <v>22735100</v>
+        <v>23674200</v>
       </c>
       <c r="H62" s="3">
-        <v>23708000</v>
+        <v>24687200</v>
       </c>
       <c r="I62" s="3">
-        <v>23597400</v>
+        <v>24572100</v>
       </c>
       <c r="J62" s="3">
-        <v>23413900</v>
+        <v>24381000</v>
       </c>
       <c r="K62" s="3">
         <v>36961400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1678460000</v>
+        <v>1747780000</v>
       </c>
       <c r="E66" s="3">
-        <v>1673570000</v>
+        <v>1742700000</v>
       </c>
       <c r="F66" s="3">
-        <v>1603200000</v>
+        <v>1669420000</v>
       </c>
       <c r="G66" s="3">
-        <v>1587920000</v>
+        <v>1653510000</v>
       </c>
       <c r="H66" s="3">
-        <v>1468370000</v>
+        <v>1529020000</v>
       </c>
       <c r="I66" s="3">
-        <v>1473110000</v>
+        <v>1533960000</v>
       </c>
       <c r="J66" s="3">
-        <v>1394610000</v>
+        <v>1452210000</v>
       </c>
       <c r="K66" s="3">
         <v>1250550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66833600</v>
+        <v>69594100</v>
       </c>
       <c r="E72" s="3">
-        <v>79457600</v>
+        <v>82739500</v>
       </c>
       <c r="F72" s="3">
-        <v>75955400</v>
+        <v>79092700</v>
       </c>
       <c r="G72" s="3">
-        <v>70649900</v>
+        <v>73568000</v>
       </c>
       <c r="H72" s="3">
-        <v>66063100</v>
+        <v>68791800</v>
       </c>
       <c r="I72" s="3">
-        <v>60850500</v>
+        <v>63363800</v>
       </c>
       <c r="J72" s="3">
-        <v>55262600</v>
+        <v>57545100</v>
       </c>
       <c r="K72" s="3">
         <v>140362000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>95848400</v>
+        <v>99807300</v>
       </c>
       <c r="E76" s="3">
-        <v>117724000</v>
+        <v>122586000</v>
       </c>
       <c r="F76" s="3">
-        <v>113490000</v>
+        <v>118177000</v>
       </c>
       <c r="G76" s="3">
-        <v>111157000</v>
+        <v>115748000</v>
       </c>
       <c r="H76" s="3">
-        <v>106980000</v>
+        <v>111398000</v>
       </c>
       <c r="I76" s="3">
-        <v>103570000</v>
+        <v>107848000</v>
       </c>
       <c r="J76" s="3">
-        <v>95059000</v>
+        <v>98985300</v>
       </c>
       <c r="K76" s="3">
         <v>84126400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10318200</v>
+        <v>-10744400</v>
       </c>
       <c r="E81" s="3">
-        <v>7664200</v>
+        <v>7980800</v>
       </c>
       <c r="F81" s="3">
-        <v>9187700</v>
+        <v>9567200</v>
       </c>
       <c r="G81" s="3">
-        <v>7786600</v>
+        <v>8108200</v>
       </c>
       <c r="H81" s="3">
-        <v>7298400</v>
+        <v>7599800</v>
       </c>
       <c r="I81" s="3">
-        <v>6693700</v>
+        <v>6970200</v>
       </c>
       <c r="J81" s="3">
-        <v>6841900</v>
+        <v>7124500</v>
       </c>
       <c r="K81" s="3">
         <v>4994100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3305700</v>
+        <v>3442200</v>
       </c>
       <c r="E83" s="3">
-        <v>3530400</v>
+        <v>3676200</v>
       </c>
       <c r="F83" s="3">
-        <v>2852800</v>
+        <v>2970600</v>
       </c>
       <c r="G83" s="3">
-        <v>3050400</v>
+        <v>3176400</v>
       </c>
       <c r="H83" s="3">
-        <v>2781000</v>
+        <v>2895900</v>
       </c>
       <c r="I83" s="3">
-        <v>2844500</v>
+        <v>2962000</v>
       </c>
       <c r="J83" s="3">
-        <v>2690400</v>
+        <v>2801600</v>
       </c>
       <c r="K83" s="3">
         <v>2860100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77822400</v>
+        <v>81036800</v>
       </c>
       <c r="E89" s="3">
-        <v>3986800</v>
+        <v>4151500</v>
       </c>
       <c r="F89" s="3">
-        <v>4018600</v>
+        <v>4184600</v>
       </c>
       <c r="G89" s="3">
-        <v>47277200</v>
+        <v>49229900</v>
       </c>
       <c r="H89" s="3">
-        <v>25672600</v>
+        <v>26733000</v>
       </c>
       <c r="I89" s="3">
-        <v>6679600</v>
+        <v>6955500</v>
       </c>
       <c r="J89" s="3">
-        <v>-4633800</v>
+        <v>-4825200</v>
       </c>
       <c r="K89" s="3">
         <v>-41690000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8688900</v>
+        <v>-9047800</v>
       </c>
       <c r="E91" s="3">
-        <v>-15017900</v>
+        <v>-15638200</v>
       </c>
       <c r="F91" s="3">
-        <v>-12618100</v>
+        <v>-13139200</v>
       </c>
       <c r="G91" s="3">
-        <v>-8764200</v>
+        <v>-9126200</v>
       </c>
       <c r="H91" s="3">
-        <v>-7731300</v>
+        <v>-8050600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9015900</v>
+        <v>-9388300</v>
       </c>
       <c r="J91" s="3">
-        <v>-7876000</v>
+        <v>-8201300</v>
       </c>
       <c r="K91" s="3">
         <v>-2245300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8493600</v>
+        <v>-8844400</v>
       </c>
       <c r="E94" s="3">
-        <v>-8504200</v>
+        <v>-8855500</v>
       </c>
       <c r="F94" s="3">
-        <v>3703300</v>
+        <v>3856300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4715000</v>
+        <v>-4909800</v>
       </c>
       <c r="H94" s="3">
-        <v>-16192000</v>
+        <v>-16860800</v>
       </c>
       <c r="I94" s="3">
-        <v>-7314900</v>
+        <v>-7617000</v>
       </c>
       <c r="J94" s="3">
-        <v>-7064300</v>
+        <v>-7356100</v>
       </c>
       <c r="K94" s="3">
         <v>809800</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4438600</v>
+        <v>-4621900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3668000</v>
+        <v>-3819500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3135100</v>
+        <v>-3264600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2716300</v>
+        <v>-2828500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1762200</v>
+        <v>-1835000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1069300</v>
+        <v>-1113500</v>
       </c>
       <c r="K96" s="3">
         <v>-978500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2543400</v>
+        <v>-2338500</v>
       </c>
       <c r="E100" s="3">
-        <v>-11907500</v>
+        <v>-12399300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3883300</v>
+        <v>-4043700</v>
       </c>
       <c r="G100" s="3">
-        <v>4947900</v>
+        <v>5152300</v>
       </c>
       <c r="H100" s="3">
-        <v>-6758400</v>
+        <v>-7037600</v>
       </c>
       <c r="I100" s="3">
-        <v>10540500</v>
+        <v>10975900</v>
       </c>
       <c r="J100" s="3">
-        <v>-72900</v>
+        <v>-75900</v>
       </c>
       <c r="K100" s="3">
         <v>-2004800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5002100</v>
+        <v>-5208700</v>
       </c>
       <c r="E101" s="3">
-        <v>1607000</v>
+        <v>1673300</v>
       </c>
       <c r="F101" s="3">
-        <v>-700000</v>
+        <v>-728900</v>
       </c>
       <c r="G101" s="3">
-        <v>-6876100</v>
+        <v>-7160100</v>
       </c>
       <c r="H101" s="3">
-        <v>-4248000</v>
+        <v>-4423400</v>
       </c>
       <c r="I101" s="3">
-        <v>-614100</v>
+        <v>-639400</v>
       </c>
       <c r="J101" s="3">
-        <v>2742200</v>
+        <v>2855500</v>
       </c>
       <c r="K101" s="3">
         <v>-6619800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>62081000</v>
+        <v>64645200</v>
       </c>
       <c r="E102" s="3">
-        <v>-14817900</v>
+        <v>-15430000</v>
       </c>
       <c r="F102" s="3">
-        <v>3138600</v>
+        <v>3268300</v>
       </c>
       <c r="G102" s="3">
-        <v>40634000</v>
+        <v>42312400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1525800</v>
+        <v>-1588800</v>
       </c>
       <c r="I102" s="3">
-        <v>9291200</v>
+        <v>9675000</v>
       </c>
       <c r="J102" s="3">
-        <v>-9028900</v>
+        <v>-9401800</v>
       </c>
       <c r="K102" s="3">
         <v>-49504700</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56032300</v>
+        <v>53398500</v>
       </c>
       <c r="E8" s="3">
-        <v>69561100</v>
+        <v>66291400</v>
       </c>
       <c r="F8" s="3">
-        <v>66547600</v>
+        <v>63419500</v>
       </c>
       <c r="G8" s="3">
-        <v>68649700</v>
+        <v>65422800</v>
       </c>
       <c r="H8" s="3">
-        <v>67565500</v>
+        <v>64389700</v>
       </c>
       <c r="I8" s="3">
-        <v>70067000</v>
+        <v>66773500</v>
       </c>
       <c r="J8" s="3">
-        <v>66953100</v>
+        <v>63806000</v>
       </c>
       <c r="K8" s="3">
         <v>61540900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3442200</v>
+        <v>-3280400</v>
       </c>
       <c r="E15" s="3">
-        <v>-3676200</v>
+        <v>-3503400</v>
       </c>
       <c r="F15" s="3">
-        <v>-2970600</v>
+        <v>-2831000</v>
       </c>
       <c r="G15" s="3">
-        <v>-3176400</v>
+        <v>-3027100</v>
       </c>
       <c r="H15" s="3">
-        <v>-2895900</v>
+        <v>-2759800</v>
       </c>
       <c r="I15" s="3">
-        <v>-2962000</v>
+        <v>-2822800</v>
       </c>
       <c r="J15" s="3">
-        <v>-2801600</v>
+        <v>-2669900</v>
       </c>
       <c r="K15" s="3">
         <v>-2860100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31984500</v>
+        <v>30481100</v>
       </c>
       <c r="E17" s="3">
-        <v>37781100</v>
+        <v>36005300</v>
       </c>
       <c r="F17" s="3">
-        <v>35486700</v>
+        <v>33818700</v>
       </c>
       <c r="G17" s="3">
-        <v>37957500</v>
+        <v>36173400</v>
       </c>
       <c r="H17" s="3">
-        <v>41189100</v>
+        <v>39253000</v>
       </c>
       <c r="I17" s="3">
-        <v>42360200</v>
+        <v>40369000</v>
       </c>
       <c r="J17" s="3">
-        <v>43646400</v>
+        <v>41594800</v>
       </c>
       <c r="K17" s="3">
         <v>43658900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24047800</v>
+        <v>22917400</v>
       </c>
       <c r="E18" s="3">
-        <v>31779900</v>
+        <v>30286100</v>
       </c>
       <c r="F18" s="3">
-        <v>31060800</v>
+        <v>29600800</v>
       </c>
       <c r="G18" s="3">
-        <v>30692100</v>
+        <v>29249500</v>
       </c>
       <c r="H18" s="3">
-        <v>26376500</v>
+        <v>25136700</v>
       </c>
       <c r="I18" s="3">
-        <v>27706800</v>
+        <v>26404500</v>
       </c>
       <c r="J18" s="3">
-        <v>23306700</v>
+        <v>22211100</v>
       </c>
       <c r="K18" s="3">
         <v>17882000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26590900</v>
+        <v>-25341000</v>
       </c>
       <c r="E20" s="3">
-        <v>-16414900</v>
+        <v>-15643300</v>
       </c>
       <c r="F20" s="3">
-        <v>-13664800</v>
+        <v>-13022500</v>
       </c>
       <c r="G20" s="3">
-        <v>-15880800</v>
+        <v>-15134300</v>
       </c>
       <c r="H20" s="3">
-        <v>-13185800</v>
+        <v>-12566000</v>
       </c>
       <c r="I20" s="3">
-        <v>-16011800</v>
+        <v>-15259200</v>
       </c>
       <c r="J20" s="3">
-        <v>-10225000</v>
+        <v>-9744400</v>
       </c>
       <c r="K20" s="3">
         <v>-9056400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>889300</v>
+        <v>867000</v>
       </c>
       <c r="E21" s="3">
-        <v>19030700</v>
+        <v>18157000</v>
       </c>
       <c r="F21" s="3">
-        <v>20358200</v>
+        <v>19418100</v>
       </c>
       <c r="G21" s="3">
-        <v>17978700</v>
+        <v>17151600</v>
       </c>
       <c r="H21" s="3">
-        <v>16078300</v>
+        <v>15338900</v>
       </c>
       <c r="I21" s="3">
-        <v>14648500</v>
+        <v>13976700</v>
       </c>
       <c r="J21" s="3">
-        <v>15875200</v>
+        <v>15144800</v>
       </c>
       <c r="K21" s="3">
         <v>11674000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2543100</v>
+        <v>-2423500</v>
       </c>
       <c r="E23" s="3">
-        <v>15365000</v>
+        <v>14642800</v>
       </c>
       <c r="F23" s="3">
-        <v>17396100</v>
+        <v>16578400</v>
       </c>
       <c r="G23" s="3">
-        <v>14811400</v>
+        <v>14115200</v>
       </c>
       <c r="H23" s="3">
-        <v>13190700</v>
+        <v>12570700</v>
       </c>
       <c r="I23" s="3">
-        <v>11695000</v>
+        <v>11145300</v>
       </c>
       <c r="J23" s="3">
-        <v>13081700</v>
+        <v>12466800</v>
       </c>
       <c r="K23" s="3">
         <v>8825600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6899100</v>
+        <v>6574900</v>
       </c>
       <c r="E24" s="3">
-        <v>5423000</v>
+        <v>5168100</v>
       </c>
       <c r="F24" s="3">
-        <v>5985300</v>
+        <v>5704000</v>
       </c>
       <c r="G24" s="3">
-        <v>4757900</v>
+        <v>4534200</v>
       </c>
       <c r="H24" s="3">
-        <v>4020400</v>
+        <v>3831400</v>
       </c>
       <c r="I24" s="3">
-        <v>2710900</v>
+        <v>2583500</v>
       </c>
       <c r="J24" s="3">
-        <v>4554500</v>
+        <v>4340400</v>
       </c>
       <c r="K24" s="3">
         <v>2433100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9442200</v>
+        <v>-8998400</v>
       </c>
       <c r="E26" s="3">
-        <v>9942000</v>
+        <v>9474700</v>
       </c>
       <c r="F26" s="3">
-        <v>11410800</v>
+        <v>10874400</v>
       </c>
       <c r="G26" s="3">
-        <v>10053500</v>
+        <v>9580900</v>
       </c>
       <c r="H26" s="3">
-        <v>9170300</v>
+        <v>8739200</v>
       </c>
       <c r="I26" s="3">
-        <v>8984100</v>
+        <v>8561800</v>
       </c>
       <c r="J26" s="3">
-        <v>8527200</v>
+        <v>8126300</v>
       </c>
       <c r="K26" s="3">
         <v>6392500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10744400</v>
+        <v>-10239400</v>
       </c>
       <c r="E27" s="3">
-        <v>7980800</v>
+        <v>7605700</v>
       </c>
       <c r="F27" s="3">
-        <v>9567200</v>
+        <v>9117500</v>
       </c>
       <c r="G27" s="3">
-        <v>8108200</v>
+        <v>7727100</v>
       </c>
       <c r="H27" s="3">
-        <v>7599800</v>
+        <v>7242600</v>
       </c>
       <c r="I27" s="3">
-        <v>6970200</v>
+        <v>6642600</v>
       </c>
       <c r="J27" s="3">
-        <v>7156400</v>
+        <v>6820000</v>
       </c>
       <c r="K27" s="3">
         <v>5012100</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-31800</v>
+        <v>-30400</v>
       </c>
       <c r="K29" s="3">
         <v>-17900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26590900</v>
+        <v>25341000</v>
       </c>
       <c r="E32" s="3">
-        <v>16414900</v>
+        <v>15643300</v>
       </c>
       <c r="F32" s="3">
-        <v>13664800</v>
+        <v>13022500</v>
       </c>
       <c r="G32" s="3">
-        <v>15880800</v>
+        <v>15134300</v>
       </c>
       <c r="H32" s="3">
-        <v>13185800</v>
+        <v>12566000</v>
       </c>
       <c r="I32" s="3">
-        <v>16011800</v>
+        <v>15259200</v>
       </c>
       <c r="J32" s="3">
-        <v>10225000</v>
+        <v>9744400</v>
       </c>
       <c r="K32" s="3">
         <v>9056400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10744400</v>
+        <v>-10239400</v>
       </c>
       <c r="E33" s="3">
-        <v>7980800</v>
+        <v>7605700</v>
       </c>
       <c r="F33" s="3">
-        <v>9567200</v>
+        <v>9117500</v>
       </c>
       <c r="G33" s="3">
-        <v>8108200</v>
+        <v>7727100</v>
       </c>
       <c r="H33" s="3">
-        <v>7599800</v>
+        <v>7242600</v>
       </c>
       <c r="I33" s="3">
-        <v>6970200</v>
+        <v>6642600</v>
       </c>
       <c r="J33" s="3">
-        <v>7124500</v>
+        <v>6789700</v>
       </c>
       <c r="K33" s="3">
         <v>4994100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10744400</v>
+        <v>-10239400</v>
       </c>
       <c r="E35" s="3">
-        <v>7980800</v>
+        <v>7605700</v>
       </c>
       <c r="F35" s="3">
-        <v>9567200</v>
+        <v>9117500</v>
       </c>
       <c r="G35" s="3">
-        <v>8108200</v>
+        <v>7727100</v>
       </c>
       <c r="H35" s="3">
-        <v>7599800</v>
+        <v>7242600</v>
       </c>
       <c r="I35" s="3">
-        <v>6970200</v>
+        <v>6642600</v>
       </c>
       <c r="J35" s="3">
-        <v>7124500</v>
+        <v>6789700</v>
       </c>
       <c r="K35" s="3">
         <v>4994100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>203762000</v>
+        <v>194185000</v>
       </c>
       <c r="E41" s="3">
-        <v>146437000</v>
+        <v>139553000</v>
       </c>
       <c r="F41" s="3">
-        <v>158347000</v>
+        <v>150904000</v>
       </c>
       <c r="G41" s="3">
-        <v>168158000</v>
+        <v>160254000</v>
       </c>
       <c r="H41" s="3">
-        <v>127922000</v>
+        <v>121909000</v>
       </c>
       <c r="I41" s="3">
-        <v>161190000</v>
+        <v>153614000</v>
       </c>
       <c r="J41" s="3">
-        <v>147898000</v>
+        <v>140946000</v>
       </c>
       <c r="K41" s="3">
         <v>159238000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>181642000</v>
+        <v>173104000</v>
       </c>
       <c r="E42" s="3">
-        <v>193866000</v>
+        <v>184753000</v>
       </c>
       <c r="F42" s="3">
-        <v>199569000</v>
+        <v>190189000</v>
       </c>
       <c r="G42" s="3">
-        <v>170707000</v>
+        <v>162683000</v>
       </c>
       <c r="H42" s="3">
-        <v>171120000</v>
+        <v>163077000</v>
       </c>
       <c r="I42" s="3">
-        <v>139485000</v>
+        <v>132928000</v>
       </c>
       <c r="J42" s="3">
-        <v>149509000</v>
+        <v>142481000</v>
       </c>
       <c r="K42" s="3">
         <v>114921000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9336900</v>
+        <v>8898000</v>
       </c>
       <c r="E47" s="3">
-        <v>10745600</v>
+        <v>10240500</v>
       </c>
       <c r="F47" s="3">
-        <v>9295200</v>
+        <v>8858300</v>
       </c>
       <c r="G47" s="3">
-        <v>7575300</v>
+        <v>7219300</v>
       </c>
       <c r="H47" s="3">
-        <v>5924100</v>
+        <v>5645600</v>
       </c>
       <c r="I47" s="3">
-        <v>3982400</v>
+        <v>3795200</v>
       </c>
       <c r="J47" s="3">
-        <v>4251900</v>
+        <v>4052100</v>
       </c>
       <c r="K47" s="3">
         <v>10661700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40100000</v>
+        <v>38215200</v>
       </c>
       <c r="E48" s="3">
-        <v>43162500</v>
+        <v>41133700</v>
       </c>
       <c r="F48" s="3">
-        <v>32042100</v>
+        <v>30535900</v>
       </c>
       <c r="G48" s="3">
-        <v>28142900</v>
+        <v>26820100</v>
       </c>
       <c r="H48" s="3">
-        <v>28525100</v>
+        <v>27184300</v>
       </c>
       <c r="I48" s="3">
-        <v>31016700</v>
+        <v>29558800</v>
       </c>
       <c r="J48" s="3">
-        <v>28488400</v>
+        <v>27149300</v>
       </c>
       <c r="K48" s="3">
         <v>38028400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19487100</v>
+        <v>18571200</v>
       </c>
       <c r="E49" s="3">
-        <v>33916300</v>
+        <v>32322100</v>
       </c>
       <c r="F49" s="3">
-        <v>34985700</v>
+        <v>33341200</v>
       </c>
       <c r="G49" s="3">
-        <v>35136400</v>
+        <v>33484800</v>
       </c>
       <c r="H49" s="3">
-        <v>36040400</v>
+        <v>34346400</v>
       </c>
       <c r="I49" s="3">
-        <v>36051500</v>
+        <v>34356900</v>
       </c>
       <c r="J49" s="3">
-        <v>37240900</v>
+        <v>35490400</v>
       </c>
       <c r="K49" s="3">
         <v>60412900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29799100</v>
+        <v>28398400</v>
       </c>
       <c r="E52" s="3">
-        <v>34620700</v>
+        <v>32993300</v>
       </c>
       <c r="F52" s="3">
-        <v>36381000</v>
+        <v>34670900</v>
       </c>
       <c r="G52" s="3">
-        <v>47889800</v>
+        <v>45638700</v>
       </c>
       <c r="H52" s="3">
-        <v>33757000</v>
+        <v>32170300</v>
       </c>
       <c r="I52" s="3">
-        <v>34885300</v>
+        <v>33245500</v>
       </c>
       <c r="J52" s="3">
-        <v>34242100</v>
+        <v>32632600</v>
       </c>
       <c r="K52" s="3">
         <v>31381100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1847590000</v>
+        <v>1760750000</v>
       </c>
       <c r="E54" s="3">
-        <v>1865290000</v>
+        <v>1777610000</v>
       </c>
       <c r="F54" s="3">
-        <v>1787590000</v>
+        <v>1703570000</v>
       </c>
       <c r="G54" s="3">
-        <v>1769260000</v>
+        <v>1686100000</v>
       </c>
       <c r="H54" s="3">
-        <v>1640410000</v>
+        <v>1563310000</v>
       </c>
       <c r="I54" s="3">
-        <v>1641810000</v>
+        <v>1564630000</v>
       </c>
       <c r="J54" s="3">
-        <v>1551200000</v>
+        <v>1478290000</v>
       </c>
       <c r="K54" s="3">
         <v>1334680000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2877500</v>
+        <v>2742200</v>
       </c>
       <c r="E59" s="3">
-        <v>3430000</v>
+        <v>3268700</v>
       </c>
       <c r="F59" s="3">
-        <v>3144500</v>
+        <v>2996700</v>
       </c>
       <c r="G59" s="3">
-        <v>3374800</v>
+        <v>3216200</v>
       </c>
       <c r="H59" s="3">
-        <v>3281700</v>
+        <v>3127500</v>
       </c>
       <c r="I59" s="3">
-        <v>2646000</v>
+        <v>2521600</v>
       </c>
       <c r="J59" s="3">
-        <v>5943700</v>
+        <v>5664300</v>
       </c>
       <c r="K59" s="3">
         <v>5088600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>288202000</v>
+        <v>274655000</v>
       </c>
       <c r="E61" s="3">
-        <v>320919000</v>
+        <v>305835000</v>
       </c>
       <c r="F61" s="3">
-        <v>302106000</v>
+        <v>287906000</v>
       </c>
       <c r="G61" s="3">
-        <v>267006000</v>
+        <v>254456000</v>
       </c>
       <c r="H61" s="3">
-        <v>280362000</v>
+        <v>267184000</v>
       </c>
       <c r="I61" s="3">
-        <v>277071000</v>
+        <v>264047000</v>
       </c>
       <c r="J61" s="3">
-        <v>262174000</v>
+        <v>249850000</v>
       </c>
       <c r="K61" s="3">
         <v>229210000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20561500</v>
+        <v>19595000</v>
       </c>
       <c r="E62" s="3">
-        <v>25123300</v>
+        <v>23942400</v>
       </c>
       <c r="F62" s="3">
-        <v>23021200</v>
+        <v>21939100</v>
       </c>
       <c r="G62" s="3">
-        <v>23674200</v>
+        <v>22561400</v>
       </c>
       <c r="H62" s="3">
-        <v>24687200</v>
+        <v>23526800</v>
       </c>
       <c r="I62" s="3">
-        <v>24572100</v>
+        <v>23417100</v>
       </c>
       <c r="J62" s="3">
-        <v>24381000</v>
+        <v>23235000</v>
       </c>
       <c r="K62" s="3">
         <v>36961400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1747780000</v>
+        <v>1665630000</v>
       </c>
       <c r="E66" s="3">
-        <v>1742700000</v>
+        <v>1660790000</v>
       </c>
       <c r="F66" s="3">
-        <v>1669420000</v>
+        <v>1590950000</v>
       </c>
       <c r="G66" s="3">
-        <v>1653510000</v>
+        <v>1575790000</v>
       </c>
       <c r="H66" s="3">
-        <v>1529020000</v>
+        <v>1457150000</v>
       </c>
       <c r="I66" s="3">
-        <v>1533960000</v>
+        <v>1461850000</v>
       </c>
       <c r="J66" s="3">
-        <v>1452210000</v>
+        <v>1383950000</v>
       </c>
       <c r="K66" s="3">
         <v>1250550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>69594100</v>
+        <v>66322900</v>
       </c>
       <c r="E72" s="3">
-        <v>82739500</v>
+        <v>78850400</v>
       </c>
       <c r="F72" s="3">
-        <v>79092700</v>
+        <v>75375000</v>
       </c>
       <c r="G72" s="3">
-        <v>73568000</v>
+        <v>70110000</v>
       </c>
       <c r="H72" s="3">
-        <v>68791800</v>
+        <v>65558200</v>
       </c>
       <c r="I72" s="3">
-        <v>63363800</v>
+        <v>60385400</v>
       </c>
       <c r="J72" s="3">
-        <v>57545100</v>
+        <v>54840300</v>
       </c>
       <c r="K72" s="3">
         <v>140362000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>99807300</v>
+        <v>95115900</v>
       </c>
       <c r="E76" s="3">
-        <v>122586000</v>
+        <v>116824000</v>
       </c>
       <c r="F76" s="3">
-        <v>118177000</v>
+        <v>112622000</v>
       </c>
       <c r="G76" s="3">
-        <v>115748000</v>
+        <v>110307000</v>
       </c>
       <c r="H76" s="3">
-        <v>111398000</v>
+        <v>106162000</v>
       </c>
       <c r="I76" s="3">
-        <v>107848000</v>
+        <v>102779000</v>
       </c>
       <c r="J76" s="3">
-        <v>98985300</v>
+        <v>94332600</v>
       </c>
       <c r="K76" s="3">
         <v>84126400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10744400</v>
+        <v>-10239400</v>
       </c>
       <c r="E81" s="3">
-        <v>7980800</v>
+        <v>7605700</v>
       </c>
       <c r="F81" s="3">
-        <v>9567200</v>
+        <v>9117500</v>
       </c>
       <c r="G81" s="3">
-        <v>8108200</v>
+        <v>7727100</v>
       </c>
       <c r="H81" s="3">
-        <v>7599800</v>
+        <v>7242600</v>
       </c>
       <c r="I81" s="3">
-        <v>6970200</v>
+        <v>6642600</v>
       </c>
       <c r="J81" s="3">
-        <v>7124500</v>
+        <v>6789700</v>
       </c>
       <c r="K81" s="3">
         <v>4994100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3442200</v>
+        <v>3280400</v>
       </c>
       <c r="E83" s="3">
-        <v>3676200</v>
+        <v>3503400</v>
       </c>
       <c r="F83" s="3">
-        <v>2970600</v>
+        <v>2831000</v>
       </c>
       <c r="G83" s="3">
-        <v>3176400</v>
+        <v>3027100</v>
       </c>
       <c r="H83" s="3">
-        <v>2895900</v>
+        <v>2759800</v>
       </c>
       <c r="I83" s="3">
-        <v>2962000</v>
+        <v>2822800</v>
       </c>
       <c r="J83" s="3">
-        <v>2801600</v>
+        <v>2669900</v>
       </c>
       <c r="K83" s="3">
         <v>2860100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>81036800</v>
+        <v>77227700</v>
       </c>
       <c r="E89" s="3">
-        <v>4151500</v>
+        <v>3956400</v>
       </c>
       <c r="F89" s="3">
-        <v>4184600</v>
+        <v>3987900</v>
       </c>
       <c r="G89" s="3">
-        <v>49229900</v>
+        <v>46915900</v>
       </c>
       <c r="H89" s="3">
-        <v>26733000</v>
+        <v>25476400</v>
       </c>
       <c r="I89" s="3">
-        <v>6955500</v>
+        <v>6628600</v>
       </c>
       <c r="J89" s="3">
-        <v>-4825200</v>
+        <v>-4598400</v>
       </c>
       <c r="K89" s="3">
         <v>-41690000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9047800</v>
+        <v>-8622500</v>
       </c>
       <c r="E91" s="3">
-        <v>-15638200</v>
+        <v>-14903200</v>
       </c>
       <c r="F91" s="3">
-        <v>-13139200</v>
+        <v>-12521600</v>
       </c>
       <c r="G91" s="3">
-        <v>-9126200</v>
+        <v>-8697200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8050600</v>
+        <v>-7672200</v>
       </c>
       <c r="I91" s="3">
-        <v>-9388300</v>
+        <v>-8947000</v>
       </c>
       <c r="J91" s="3">
-        <v>-8201300</v>
+        <v>-7815800</v>
       </c>
       <c r="K91" s="3">
         <v>-2245300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8844400</v>
+        <v>-8428700</v>
       </c>
       <c r="E94" s="3">
-        <v>-8855500</v>
+        <v>-8439200</v>
       </c>
       <c r="F94" s="3">
-        <v>3856300</v>
+        <v>3675000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4909800</v>
+        <v>-4679000</v>
       </c>
       <c r="H94" s="3">
-        <v>-16860800</v>
+        <v>-16068200</v>
       </c>
       <c r="I94" s="3">
-        <v>-7617000</v>
+        <v>-7259000</v>
       </c>
       <c r="J94" s="3">
-        <v>-7356100</v>
+        <v>-7010300</v>
       </c>
       <c r="K94" s="3">
         <v>809800</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4621900</v>
+        <v>-4404600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3819500</v>
+        <v>-3640000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3264600</v>
+        <v>-3111100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2828500</v>
+        <v>-2695500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1835000</v>
+        <v>-1748800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1113500</v>
+        <v>-1061200</v>
       </c>
       <c r="K96" s="3">
         <v>-978500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2338500</v>
+        <v>-2228600</v>
       </c>
       <c r="E100" s="3">
-        <v>-12399300</v>
+        <v>-11816500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4043700</v>
+        <v>-3853600</v>
       </c>
       <c r="G100" s="3">
-        <v>5152300</v>
+        <v>4910100</v>
       </c>
       <c r="H100" s="3">
-        <v>-7037600</v>
+        <v>-6706800</v>
       </c>
       <c r="I100" s="3">
-        <v>10975900</v>
+        <v>10460000</v>
       </c>
       <c r="J100" s="3">
-        <v>-75900</v>
+        <v>-72400</v>
       </c>
       <c r="K100" s="3">
         <v>-2004800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5208700</v>
+        <v>-4963800</v>
       </c>
       <c r="E101" s="3">
-        <v>1673300</v>
+        <v>1594700</v>
       </c>
       <c r="F101" s="3">
-        <v>-728900</v>
+        <v>-694600</v>
       </c>
       <c r="G101" s="3">
-        <v>-7160100</v>
+        <v>-6823500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4423400</v>
+        <v>-4215500</v>
       </c>
       <c r="I101" s="3">
-        <v>-639400</v>
+        <v>-609400</v>
       </c>
       <c r="J101" s="3">
-        <v>2855500</v>
+        <v>2721200</v>
       </c>
       <c r="K101" s="3">
         <v>-6619800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64645200</v>
+        <v>61606600</v>
       </c>
       <c r="E102" s="3">
-        <v>-15430000</v>
+        <v>-14704700</v>
       </c>
       <c r="F102" s="3">
-        <v>3268300</v>
+        <v>3114600</v>
       </c>
       <c r="G102" s="3">
-        <v>42312400</v>
+        <v>40323500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1588800</v>
+        <v>-1514100</v>
       </c>
       <c r="I102" s="3">
-        <v>9675000</v>
+        <v>9220200</v>
       </c>
       <c r="J102" s="3">
-        <v>-9401800</v>
+        <v>-8959900</v>
       </c>
       <c r="K102" s="3">
         <v>-49504700</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>53398500</v>
+        <v>51646200</v>
       </c>
       <c r="E8" s="3">
-        <v>66291400</v>
+        <v>64115900</v>
       </c>
       <c r="F8" s="3">
-        <v>63419500</v>
+        <v>61338400</v>
       </c>
       <c r="G8" s="3">
-        <v>65422800</v>
+        <v>63275900</v>
       </c>
       <c r="H8" s="3">
-        <v>64389700</v>
+        <v>62276600</v>
       </c>
       <c r="I8" s="3">
-        <v>66773500</v>
+        <v>64582300</v>
       </c>
       <c r="J8" s="3">
-        <v>63806000</v>
+        <v>61712100</v>
       </c>
       <c r="K8" s="3">
         <v>61540900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3280400</v>
+        <v>-3172800</v>
       </c>
       <c r="E15" s="3">
-        <v>-3503400</v>
+        <v>-3388400</v>
       </c>
       <c r="F15" s="3">
-        <v>-2831000</v>
+        <v>-2738100</v>
       </c>
       <c r="G15" s="3">
-        <v>-3027100</v>
+        <v>-2927800</v>
       </c>
       <c r="H15" s="3">
-        <v>-2759800</v>
+        <v>-2669200</v>
       </c>
       <c r="I15" s="3">
-        <v>-2822800</v>
+        <v>-2730200</v>
       </c>
       <c r="J15" s="3">
-        <v>-2669900</v>
+        <v>-2582300</v>
       </c>
       <c r="K15" s="3">
         <v>-2860100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30481100</v>
+        <v>29480800</v>
       </c>
       <c r="E17" s="3">
-        <v>36005300</v>
+        <v>34823700</v>
       </c>
       <c r="F17" s="3">
-        <v>33818700</v>
+        <v>32708900</v>
       </c>
       <c r="G17" s="3">
-        <v>36173400</v>
+        <v>34986300</v>
       </c>
       <c r="H17" s="3">
-        <v>39253000</v>
+        <v>37964900</v>
       </c>
       <c r="I17" s="3">
-        <v>40369000</v>
+        <v>39044300</v>
       </c>
       <c r="J17" s="3">
-        <v>41594800</v>
+        <v>40229800</v>
       </c>
       <c r="K17" s="3">
         <v>43658900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22917400</v>
+        <v>22165400</v>
       </c>
       <c r="E18" s="3">
-        <v>30286100</v>
+        <v>29292200</v>
       </c>
       <c r="F18" s="3">
-        <v>29600800</v>
+        <v>28629500</v>
       </c>
       <c r="G18" s="3">
-        <v>29249500</v>
+        <v>28289600</v>
       </c>
       <c r="H18" s="3">
-        <v>25136700</v>
+        <v>24311800</v>
       </c>
       <c r="I18" s="3">
-        <v>26404500</v>
+        <v>25538000</v>
       </c>
       <c r="J18" s="3">
-        <v>22211100</v>
+        <v>21482300</v>
       </c>
       <c r="K18" s="3">
         <v>17882000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25341000</v>
+        <v>-24509400</v>
       </c>
       <c r="E20" s="3">
-        <v>-15643300</v>
+        <v>-15129900</v>
       </c>
       <c r="F20" s="3">
-        <v>-13022500</v>
+        <v>-12595100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15134300</v>
+        <v>-14637700</v>
       </c>
       <c r="H20" s="3">
-        <v>-12566000</v>
+        <v>-12153600</v>
       </c>
       <c r="I20" s="3">
-        <v>-15259200</v>
+        <v>-14758500</v>
       </c>
       <c r="J20" s="3">
-        <v>-9744400</v>
+        <v>-9424600</v>
       </c>
       <c r="K20" s="3">
         <v>-9056400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>867000</v>
+        <v>836100</v>
       </c>
       <c r="E21" s="3">
-        <v>18157000</v>
+        <v>17558500</v>
       </c>
       <c r="F21" s="3">
-        <v>19418100</v>
+        <v>18778700</v>
       </c>
       <c r="G21" s="3">
-        <v>17151600</v>
+        <v>16586400</v>
       </c>
       <c r="H21" s="3">
-        <v>15338900</v>
+        <v>14833500</v>
       </c>
       <c r="I21" s="3">
-        <v>13976700</v>
+        <v>13516000</v>
       </c>
       <c r="J21" s="3">
-        <v>15144800</v>
+        <v>14645900</v>
       </c>
       <c r="K21" s="3">
         <v>11674000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2423500</v>
+        <v>-2344000</v>
       </c>
       <c r="E23" s="3">
-        <v>14642800</v>
+        <v>14162300</v>
       </c>
       <c r="F23" s="3">
-        <v>16578400</v>
+        <v>16034300</v>
       </c>
       <c r="G23" s="3">
-        <v>14115200</v>
+        <v>13651900</v>
       </c>
       <c r="H23" s="3">
-        <v>12570700</v>
+        <v>12158100</v>
       </c>
       <c r="I23" s="3">
-        <v>11145300</v>
+        <v>10779500</v>
       </c>
       <c r="J23" s="3">
-        <v>12466800</v>
+        <v>12057700</v>
       </c>
       <c r="K23" s="3">
         <v>8825600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6574900</v>
+        <v>6359100</v>
       </c>
       <c r="E24" s="3">
-        <v>5168100</v>
+        <v>4998500</v>
       </c>
       <c r="F24" s="3">
-        <v>5704000</v>
+        <v>5516800</v>
       </c>
       <c r="G24" s="3">
-        <v>4534200</v>
+        <v>4385400</v>
       </c>
       <c r="H24" s="3">
-        <v>3831400</v>
+        <v>3705700</v>
       </c>
       <c r="I24" s="3">
-        <v>2583500</v>
+        <v>2498700</v>
       </c>
       <c r="J24" s="3">
-        <v>4340400</v>
+        <v>4198000</v>
       </c>
       <c r="K24" s="3">
         <v>2433100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8998400</v>
+        <v>-8703100</v>
       </c>
       <c r="E26" s="3">
-        <v>9474700</v>
+        <v>9163800</v>
       </c>
       <c r="F26" s="3">
-        <v>10874400</v>
+        <v>10517600</v>
       </c>
       <c r="G26" s="3">
-        <v>9580900</v>
+        <v>9266500</v>
       </c>
       <c r="H26" s="3">
-        <v>8739200</v>
+        <v>8452400</v>
       </c>
       <c r="I26" s="3">
-        <v>8561800</v>
+        <v>8280800</v>
       </c>
       <c r="J26" s="3">
-        <v>8126300</v>
+        <v>7859700</v>
       </c>
       <c r="K26" s="3">
         <v>6392500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10239400</v>
+        <v>-9903300</v>
       </c>
       <c r="E27" s="3">
-        <v>7605700</v>
+        <v>7356100</v>
       </c>
       <c r="F27" s="3">
-        <v>9117500</v>
+        <v>8818300</v>
       </c>
       <c r="G27" s="3">
-        <v>7727100</v>
+        <v>7473500</v>
       </c>
       <c r="H27" s="3">
-        <v>7242600</v>
+        <v>7004900</v>
       </c>
       <c r="I27" s="3">
-        <v>6642600</v>
+        <v>6424600</v>
       </c>
       <c r="J27" s="3">
-        <v>6820000</v>
+        <v>6596200</v>
       </c>
       <c r="K27" s="3">
         <v>5012100</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-30400</v>
+        <v>-29400</v>
       </c>
       <c r="K29" s="3">
         <v>-17900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25341000</v>
+        <v>24509400</v>
       </c>
       <c r="E32" s="3">
-        <v>15643300</v>
+        <v>15129900</v>
       </c>
       <c r="F32" s="3">
-        <v>13022500</v>
+        <v>12595100</v>
       </c>
       <c r="G32" s="3">
-        <v>15134300</v>
+        <v>14637700</v>
       </c>
       <c r="H32" s="3">
-        <v>12566000</v>
+        <v>12153600</v>
       </c>
       <c r="I32" s="3">
-        <v>15259200</v>
+        <v>14758500</v>
       </c>
       <c r="J32" s="3">
-        <v>9744400</v>
+        <v>9424600</v>
       </c>
       <c r="K32" s="3">
         <v>9056400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10239400</v>
+        <v>-9903300</v>
       </c>
       <c r="E33" s="3">
-        <v>7605700</v>
+        <v>7356100</v>
       </c>
       <c r="F33" s="3">
-        <v>9117500</v>
+        <v>8818300</v>
       </c>
       <c r="G33" s="3">
-        <v>7727100</v>
+        <v>7473500</v>
       </c>
       <c r="H33" s="3">
-        <v>7242600</v>
+        <v>7004900</v>
       </c>
       <c r="I33" s="3">
-        <v>6642600</v>
+        <v>6424600</v>
       </c>
       <c r="J33" s="3">
-        <v>6789700</v>
+        <v>6566800</v>
       </c>
       <c r="K33" s="3">
         <v>4994100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10239400</v>
+        <v>-9903300</v>
       </c>
       <c r="E35" s="3">
-        <v>7605700</v>
+        <v>7356100</v>
       </c>
       <c r="F35" s="3">
-        <v>9117500</v>
+        <v>8818300</v>
       </c>
       <c r="G35" s="3">
-        <v>7727100</v>
+        <v>7473500</v>
       </c>
       <c r="H35" s="3">
-        <v>7242600</v>
+        <v>7004900</v>
       </c>
       <c r="I35" s="3">
-        <v>6642600</v>
+        <v>6424600</v>
       </c>
       <c r="J35" s="3">
-        <v>6789700</v>
+        <v>6566800</v>
       </c>
       <c r="K35" s="3">
         <v>4994100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>194185000</v>
+        <v>187812000</v>
       </c>
       <c r="E41" s="3">
-        <v>139553000</v>
+        <v>134974000</v>
       </c>
       <c r="F41" s="3">
-        <v>150904000</v>
+        <v>145952000</v>
       </c>
       <c r="G41" s="3">
-        <v>160254000</v>
+        <v>154995000</v>
       </c>
       <c r="H41" s="3">
-        <v>121909000</v>
+        <v>117909000</v>
       </c>
       <c r="I41" s="3">
-        <v>153614000</v>
+        <v>148573000</v>
       </c>
       <c r="J41" s="3">
-        <v>140946000</v>
+        <v>136321000</v>
       </c>
       <c r="K41" s="3">
         <v>159238000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>173104000</v>
+        <v>167426000</v>
       </c>
       <c r="E42" s="3">
-        <v>184753000</v>
+        <v>178690000</v>
       </c>
       <c r="F42" s="3">
-        <v>190189000</v>
+        <v>183947000</v>
       </c>
       <c r="G42" s="3">
-        <v>162683000</v>
+        <v>157345000</v>
       </c>
       <c r="H42" s="3">
-        <v>163077000</v>
+        <v>157725000</v>
       </c>
       <c r="I42" s="3">
-        <v>132928000</v>
+        <v>128566000</v>
       </c>
       <c r="J42" s="3">
-        <v>142481000</v>
+        <v>137806000</v>
       </c>
       <c r="K42" s="3">
         <v>114921000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8898000</v>
+        <v>8606000</v>
       </c>
       <c r="E47" s="3">
-        <v>10240500</v>
+        <v>9904500</v>
       </c>
       <c r="F47" s="3">
-        <v>8858300</v>
+        <v>8567600</v>
       </c>
       <c r="G47" s="3">
-        <v>7219300</v>
+        <v>6982400</v>
       </c>
       <c r="H47" s="3">
-        <v>5645600</v>
+        <v>5460300</v>
       </c>
       <c r="I47" s="3">
-        <v>3795200</v>
+        <v>3670700</v>
       </c>
       <c r="J47" s="3">
-        <v>4052100</v>
+        <v>3919100</v>
       </c>
       <c r="K47" s="3">
         <v>10661700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38215200</v>
+        <v>36961100</v>
       </c>
       <c r="E48" s="3">
-        <v>41133700</v>
+        <v>39783800</v>
       </c>
       <c r="F48" s="3">
-        <v>30535900</v>
+        <v>29533900</v>
       </c>
       <c r="G48" s="3">
-        <v>26820100</v>
+        <v>25939900</v>
       </c>
       <c r="H48" s="3">
-        <v>27184300</v>
+        <v>26292200</v>
       </c>
       <c r="I48" s="3">
-        <v>29558800</v>
+        <v>28588800</v>
       </c>
       <c r="J48" s="3">
-        <v>27149300</v>
+        <v>26258300</v>
       </c>
       <c r="K48" s="3">
         <v>38028400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18571200</v>
+        <v>17961700</v>
       </c>
       <c r="E49" s="3">
-        <v>32322100</v>
+        <v>31261400</v>
       </c>
       <c r="F49" s="3">
-        <v>33341200</v>
+        <v>32247100</v>
       </c>
       <c r="G49" s="3">
-        <v>33484800</v>
+        <v>32386000</v>
       </c>
       <c r="H49" s="3">
-        <v>34346400</v>
+        <v>33219300</v>
       </c>
       <c r="I49" s="3">
-        <v>34356900</v>
+        <v>33229400</v>
       </c>
       <c r="J49" s="3">
-        <v>35490400</v>
+        <v>34325800</v>
       </c>
       <c r="K49" s="3">
         <v>60412900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28398400</v>
+        <v>27466500</v>
       </c>
       <c r="E52" s="3">
-        <v>32993300</v>
+        <v>31910600</v>
       </c>
       <c r="F52" s="3">
-        <v>34670900</v>
+        <v>33533100</v>
       </c>
       <c r="G52" s="3">
-        <v>45638700</v>
+        <v>44141000</v>
       </c>
       <c r="H52" s="3">
-        <v>32170300</v>
+        <v>31114600</v>
       </c>
       <c r="I52" s="3">
-        <v>33245500</v>
+        <v>32154500</v>
       </c>
       <c r="J52" s="3">
-        <v>32632600</v>
+        <v>31561700</v>
       </c>
       <c r="K52" s="3">
         <v>31381100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1760750000</v>
+        <v>1702970000</v>
       </c>
       <c r="E54" s="3">
-        <v>1777610000</v>
+        <v>1719270000</v>
       </c>
       <c r="F54" s="3">
-        <v>1703570000</v>
+        <v>1647660000</v>
       </c>
       <c r="G54" s="3">
-        <v>1686100000</v>
+        <v>1630760000</v>
       </c>
       <c r="H54" s="3">
-        <v>1563310000</v>
+        <v>1512010000</v>
       </c>
       <c r="I54" s="3">
-        <v>1564630000</v>
+        <v>1513290000</v>
       </c>
       <c r="J54" s="3">
-        <v>1478290000</v>
+        <v>1429770000</v>
       </c>
       <c r="K54" s="3">
         <v>1334680000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2742200</v>
+        <v>2652300</v>
       </c>
       <c r="E59" s="3">
-        <v>3268700</v>
+        <v>3161500</v>
       </c>
       <c r="F59" s="3">
-        <v>2996700</v>
+        <v>2898400</v>
       </c>
       <c r="G59" s="3">
-        <v>3216200</v>
+        <v>3110700</v>
       </c>
       <c r="H59" s="3">
-        <v>3127500</v>
+        <v>3024900</v>
       </c>
       <c r="I59" s="3">
-        <v>2521600</v>
+        <v>2438900</v>
       </c>
       <c r="J59" s="3">
-        <v>5664300</v>
+        <v>5478400</v>
       </c>
       <c r="K59" s="3">
         <v>5088600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>274655000</v>
+        <v>265642000</v>
       </c>
       <c r="E61" s="3">
-        <v>305835000</v>
+        <v>295798000</v>
       </c>
       <c r="F61" s="3">
-        <v>287906000</v>
+        <v>278458000</v>
       </c>
       <c r="G61" s="3">
-        <v>254456000</v>
+        <v>246105000</v>
       </c>
       <c r="H61" s="3">
-        <v>267184000</v>
+        <v>258416000</v>
       </c>
       <c r="I61" s="3">
-        <v>264047000</v>
+        <v>255382000</v>
       </c>
       <c r="J61" s="3">
-        <v>249850000</v>
+        <v>241651000</v>
       </c>
       <c r="K61" s="3">
         <v>229210000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19595000</v>
+        <v>18951900</v>
       </c>
       <c r="E62" s="3">
-        <v>23942400</v>
+        <v>23156700</v>
       </c>
       <c r="F62" s="3">
-        <v>21939100</v>
+        <v>21219200</v>
       </c>
       <c r="G62" s="3">
-        <v>22561400</v>
+        <v>21821000</v>
       </c>
       <c r="H62" s="3">
-        <v>23526800</v>
+        <v>22754800</v>
       </c>
       <c r="I62" s="3">
-        <v>23417100</v>
+        <v>22648600</v>
       </c>
       <c r="J62" s="3">
-        <v>23235000</v>
+        <v>22472500</v>
       </c>
       <c r="K62" s="3">
         <v>36961400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1665630000</v>
+        <v>1610970000</v>
       </c>
       <c r="E66" s="3">
-        <v>1660790000</v>
+        <v>1606280000</v>
       </c>
       <c r="F66" s="3">
-        <v>1590950000</v>
+        <v>1538740000</v>
       </c>
       <c r="G66" s="3">
-        <v>1575790000</v>
+        <v>1524080000</v>
       </c>
       <c r="H66" s="3">
-        <v>1457150000</v>
+        <v>1409330000</v>
       </c>
       <c r="I66" s="3">
-        <v>1461850000</v>
+        <v>1413880000</v>
       </c>
       <c r="J66" s="3">
-        <v>1383950000</v>
+        <v>1338540000</v>
       </c>
       <c r="K66" s="3">
         <v>1250550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66322900</v>
+        <v>64146400</v>
       </c>
       <c r="E72" s="3">
-        <v>78850400</v>
+        <v>76262800</v>
       </c>
       <c r="F72" s="3">
-        <v>75375000</v>
+        <v>72901500</v>
       </c>
       <c r="G72" s="3">
-        <v>70110000</v>
+        <v>67809200</v>
       </c>
       <c r="H72" s="3">
-        <v>65558200</v>
+        <v>63406900</v>
       </c>
       <c r="I72" s="3">
-        <v>60385400</v>
+        <v>58403800</v>
       </c>
       <c r="J72" s="3">
-        <v>54840300</v>
+        <v>53040600</v>
       </c>
       <c r="K72" s="3">
         <v>140362000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>95115900</v>
+        <v>91994600</v>
       </c>
       <c r="E76" s="3">
-        <v>116824000</v>
+        <v>112990000</v>
       </c>
       <c r="F76" s="3">
-        <v>112622000</v>
+        <v>108927000</v>
       </c>
       <c r="G76" s="3">
-        <v>110307000</v>
+        <v>106688000</v>
       </c>
       <c r="H76" s="3">
-        <v>106162000</v>
+        <v>102678000</v>
       </c>
       <c r="I76" s="3">
-        <v>102779000</v>
+        <v>99406000</v>
       </c>
       <c r="J76" s="3">
-        <v>94332600</v>
+        <v>91236900</v>
       </c>
       <c r="K76" s="3">
         <v>84126400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10239400</v>
+        <v>-9903300</v>
       </c>
       <c r="E81" s="3">
-        <v>7605700</v>
+        <v>7356100</v>
       </c>
       <c r="F81" s="3">
-        <v>9117500</v>
+        <v>8818300</v>
       </c>
       <c r="G81" s="3">
-        <v>7727100</v>
+        <v>7473500</v>
       </c>
       <c r="H81" s="3">
-        <v>7242600</v>
+        <v>7004900</v>
       </c>
       <c r="I81" s="3">
-        <v>6642600</v>
+        <v>6424600</v>
       </c>
       <c r="J81" s="3">
-        <v>6789700</v>
+        <v>6566800</v>
       </c>
       <c r="K81" s="3">
         <v>4994100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3280400</v>
+        <v>3172800</v>
       </c>
       <c r="E83" s="3">
-        <v>3503400</v>
+        <v>3388400</v>
       </c>
       <c r="F83" s="3">
-        <v>2831000</v>
+        <v>2738100</v>
       </c>
       <c r="G83" s="3">
-        <v>3027100</v>
+        <v>2927800</v>
       </c>
       <c r="H83" s="3">
-        <v>2759800</v>
+        <v>2669200</v>
       </c>
       <c r="I83" s="3">
-        <v>2822800</v>
+        <v>2730200</v>
       </c>
       <c r="J83" s="3">
-        <v>2669900</v>
+        <v>2582300</v>
       </c>
       <c r="K83" s="3">
         <v>2860100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77227700</v>
+        <v>74693400</v>
       </c>
       <c r="E89" s="3">
-        <v>3956400</v>
+        <v>3826500</v>
       </c>
       <c r="F89" s="3">
-        <v>3987900</v>
+        <v>3857000</v>
       </c>
       <c r="G89" s="3">
-        <v>46915900</v>
+        <v>45376300</v>
       </c>
       <c r="H89" s="3">
-        <v>25476400</v>
+        <v>24640300</v>
       </c>
       <c r="I89" s="3">
-        <v>6628600</v>
+        <v>6411000</v>
       </c>
       <c r="J89" s="3">
-        <v>-4598400</v>
+        <v>-4447500</v>
       </c>
       <c r="K89" s="3">
         <v>-41690000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8622500</v>
+        <v>-8339500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14903200</v>
+        <v>-14414100</v>
       </c>
       <c r="F91" s="3">
-        <v>-12521600</v>
+        <v>-12110700</v>
       </c>
       <c r="G91" s="3">
-        <v>-8697200</v>
+        <v>-8411800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7672200</v>
+        <v>-7420400</v>
       </c>
       <c r="I91" s="3">
-        <v>-8947000</v>
+        <v>-8653400</v>
       </c>
       <c r="J91" s="3">
-        <v>-7815800</v>
+        <v>-7559300</v>
       </c>
       <c r="K91" s="3">
         <v>-2245300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8428700</v>
+        <v>-8152100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8439200</v>
+        <v>-8162300</v>
       </c>
       <c r="F94" s="3">
-        <v>3675000</v>
+        <v>3554400</v>
       </c>
       <c r="G94" s="3">
-        <v>-4679000</v>
+        <v>-4525400</v>
       </c>
       <c r="H94" s="3">
-        <v>-16068200</v>
+        <v>-15540900</v>
       </c>
       <c r="I94" s="3">
-        <v>-7259000</v>
+        <v>-7020700</v>
       </c>
       <c r="J94" s="3">
-        <v>-7010300</v>
+        <v>-6780200</v>
       </c>
       <c r="K94" s="3">
         <v>809800</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4404600</v>
+        <v>-4260100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3640000</v>
+        <v>-3520500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3111100</v>
+        <v>-3009100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2695500</v>
+        <v>-2607100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1748800</v>
+        <v>-1691400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1061200</v>
+        <v>-1026400</v>
       </c>
       <c r="K96" s="3">
         <v>-978500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2228600</v>
+        <v>-2155500</v>
       </c>
       <c r="E100" s="3">
-        <v>-11816500</v>
+        <v>-11428800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3853600</v>
+        <v>-3727200</v>
       </c>
       <c r="G100" s="3">
-        <v>4910100</v>
+        <v>4749000</v>
       </c>
       <c r="H100" s="3">
-        <v>-6706800</v>
+        <v>-6486700</v>
       </c>
       <c r="I100" s="3">
-        <v>10460000</v>
+        <v>10116700</v>
       </c>
       <c r="J100" s="3">
-        <v>-72400</v>
+        <v>-70000</v>
       </c>
       <c r="K100" s="3">
         <v>-2004800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4963800</v>
+        <v>-4800900</v>
       </c>
       <c r="E101" s="3">
-        <v>1594700</v>
+        <v>1542400</v>
       </c>
       <c r="F101" s="3">
-        <v>-694600</v>
+        <v>-671800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6823500</v>
+        <v>-6599600</v>
       </c>
       <c r="H101" s="3">
-        <v>-4215500</v>
+        <v>-4077200</v>
       </c>
       <c r="I101" s="3">
-        <v>-609400</v>
+        <v>-589400</v>
       </c>
       <c r="J101" s="3">
-        <v>2721200</v>
+        <v>2631900</v>
       </c>
       <c r="K101" s="3">
         <v>-6619800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>61606600</v>
+        <v>59584900</v>
       </c>
       <c r="E102" s="3">
-        <v>-14704700</v>
+        <v>-14222100</v>
       </c>
       <c r="F102" s="3">
-        <v>3114600</v>
+        <v>3012400</v>
       </c>
       <c r="G102" s="3">
-        <v>40323500</v>
+        <v>39000200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1514100</v>
+        <v>-1464400</v>
       </c>
       <c r="I102" s="3">
-        <v>9220200</v>
+        <v>8917600</v>
       </c>
       <c r="J102" s="3">
-        <v>-8959900</v>
+        <v>-8665800</v>
       </c>
       <c r="K102" s="3">
         <v>-49504700</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SAN</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51646200</v>
+        <v>50687000</v>
       </c>
       <c r="E8" s="3">
-        <v>64115900</v>
+        <v>49899300</v>
       </c>
       <c r="F8" s="3">
-        <v>61338400</v>
+        <v>61947300</v>
       </c>
       <c r="G8" s="3">
-        <v>63275900</v>
+        <v>59263700</v>
       </c>
       <c r="H8" s="3">
-        <v>62276600</v>
+        <v>61135700</v>
       </c>
       <c r="I8" s="3">
-        <v>64582300</v>
+        <v>60170200</v>
       </c>
       <c r="J8" s="3">
-        <v>61712100</v>
+        <v>62397900</v>
       </c>
       <c r="K8" s="3">
         <v>61540900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3172800</v>
+        <v>-3006500</v>
       </c>
       <c r="E15" s="3">
-        <v>-3388400</v>
+        <v>-3065500</v>
       </c>
       <c r="F15" s="3">
-        <v>-2738100</v>
+        <v>-3273800</v>
       </c>
       <c r="G15" s="3">
-        <v>-2927800</v>
+        <v>-2645500</v>
       </c>
       <c r="H15" s="3">
-        <v>-2669200</v>
+        <v>-2828700</v>
       </c>
       <c r="I15" s="3">
-        <v>-2730200</v>
+        <v>-2578900</v>
       </c>
       <c r="J15" s="3">
-        <v>-2582300</v>
+        <v>-2637800</v>
       </c>
       <c r="K15" s="3">
         <v>-2860100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29480800</v>
+        <v>22342900</v>
       </c>
       <c r="E17" s="3">
-        <v>34823700</v>
+        <v>28483700</v>
       </c>
       <c r="F17" s="3">
-        <v>32708900</v>
+        <v>33645800</v>
       </c>
       <c r="G17" s="3">
-        <v>34986300</v>
+        <v>31602600</v>
       </c>
       <c r="H17" s="3">
-        <v>37964900</v>
+        <v>33802900</v>
       </c>
       <c r="I17" s="3">
-        <v>39044300</v>
+        <v>36680800</v>
       </c>
       <c r="J17" s="3">
-        <v>40229800</v>
+        <v>37723700</v>
       </c>
       <c r="K17" s="3">
         <v>43658900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22165400</v>
+        <v>28344000</v>
       </c>
       <c r="E18" s="3">
-        <v>29292200</v>
+        <v>21415700</v>
       </c>
       <c r="F18" s="3">
-        <v>28629500</v>
+        <v>28301500</v>
       </c>
       <c r="G18" s="3">
-        <v>28289600</v>
+        <v>27661100</v>
       </c>
       <c r="H18" s="3">
-        <v>24311800</v>
+        <v>27332800</v>
       </c>
       <c r="I18" s="3">
-        <v>25538000</v>
+        <v>23489500</v>
       </c>
       <c r="J18" s="3">
-        <v>21482300</v>
+        <v>24674200</v>
       </c>
       <c r="K18" s="3">
         <v>17882000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-24509400</v>
+        <v>-12474600</v>
       </c>
       <c r="E20" s="3">
-        <v>-15129900</v>
+        <v>-23680400</v>
       </c>
       <c r="F20" s="3">
-        <v>-12595100</v>
+        <v>-14618200</v>
       </c>
       <c r="G20" s="3">
-        <v>-14637700</v>
+        <v>-12169100</v>
       </c>
       <c r="H20" s="3">
-        <v>-12153600</v>
+        <v>-14142600</v>
       </c>
       <c r="I20" s="3">
-        <v>-14758500</v>
+        <v>-11742600</v>
       </c>
       <c r="J20" s="3">
-        <v>-9424600</v>
+        <v>-14259300</v>
       </c>
       <c r="K20" s="3">
         <v>-9056400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>836100</v>
+        <v>18981600</v>
       </c>
       <c r="E21" s="3">
-        <v>17558500</v>
+        <v>1058900</v>
       </c>
       <c r="F21" s="3">
-        <v>18778700</v>
+        <v>16369000</v>
       </c>
       <c r="G21" s="3">
-        <v>16586400</v>
+        <v>18363800</v>
       </c>
       <c r="H21" s="3">
-        <v>14833500</v>
+        <v>15808300</v>
       </c>
       <c r="I21" s="3">
-        <v>13516000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>14645900</v>
+        <v>14424900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>11674000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2344000</v>
+        <v>15869500</v>
       </c>
       <c r="E23" s="3">
-        <v>14162300</v>
+        <v>-2264700</v>
       </c>
       <c r="F23" s="3">
-        <v>16034300</v>
+        <v>13683300</v>
       </c>
       <c r="G23" s="3">
-        <v>13651900</v>
+        <v>15492000</v>
       </c>
       <c r="H23" s="3">
-        <v>12158100</v>
+        <v>13190200</v>
       </c>
       <c r="I23" s="3">
-        <v>10779500</v>
+        <v>11746900</v>
       </c>
       <c r="J23" s="3">
-        <v>12057700</v>
+        <v>10414900</v>
       </c>
       <c r="K23" s="3">
         <v>8825600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6359100</v>
+        <v>5338900</v>
       </c>
       <c r="E24" s="3">
-        <v>4998500</v>
+        <v>6144000</v>
       </c>
       <c r="F24" s="3">
-        <v>5516800</v>
+        <v>4829500</v>
       </c>
       <c r="G24" s="3">
-        <v>4385400</v>
+        <v>5330200</v>
       </c>
       <c r="H24" s="3">
-        <v>3705700</v>
+        <v>4237100</v>
       </c>
       <c r="I24" s="3">
-        <v>2498700</v>
+        <v>3580400</v>
       </c>
       <c r="J24" s="3">
-        <v>4198000</v>
+        <v>2414200</v>
       </c>
       <c r="K24" s="3">
         <v>2433100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8703100</v>
+        <v>10530600</v>
       </c>
       <c r="E26" s="3">
-        <v>9163800</v>
+        <v>-8408700</v>
       </c>
       <c r="F26" s="3">
-        <v>10517600</v>
+        <v>8853800</v>
       </c>
       <c r="G26" s="3">
-        <v>9266500</v>
+        <v>10161800</v>
       </c>
       <c r="H26" s="3">
-        <v>8452400</v>
+        <v>8953100</v>
       </c>
       <c r="I26" s="3">
-        <v>8280800</v>
+        <v>8166600</v>
       </c>
       <c r="J26" s="3">
-        <v>7859700</v>
+        <v>8000700</v>
       </c>
       <c r="K26" s="3">
         <v>6392500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9903300</v>
+        <v>8862600</v>
       </c>
       <c r="E27" s="3">
-        <v>7356100</v>
+        <v>-9568400</v>
       </c>
       <c r="F27" s="3">
-        <v>8818300</v>
+        <v>7107300</v>
       </c>
       <c r="G27" s="3">
-        <v>7473500</v>
+        <v>8520000</v>
       </c>
       <c r="H27" s="3">
-        <v>7004900</v>
+        <v>7220700</v>
       </c>
       <c r="I27" s="3">
-        <v>6424600</v>
+        <v>6768000</v>
       </c>
       <c r="J27" s="3">
-        <v>6596200</v>
+        <v>6207300</v>
       </c>
       <c r="K27" s="3">
         <v>5012100</v>
@@ -1427,11 +1427,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>-29400</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>-17900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24509400</v>
+        <v>12474600</v>
       </c>
       <c r="E32" s="3">
-        <v>15129900</v>
+        <v>23680400</v>
       </c>
       <c r="F32" s="3">
-        <v>12595100</v>
+        <v>14618200</v>
       </c>
       <c r="G32" s="3">
-        <v>14637700</v>
+        <v>12169100</v>
       </c>
       <c r="H32" s="3">
-        <v>12153600</v>
+        <v>14142600</v>
       </c>
       <c r="I32" s="3">
-        <v>14758500</v>
+        <v>11742600</v>
       </c>
       <c r="J32" s="3">
-        <v>9424600</v>
+        <v>14259300</v>
       </c>
       <c r="K32" s="3">
         <v>9056400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9903300</v>
+        <v>8862600</v>
       </c>
       <c r="E33" s="3">
-        <v>7356100</v>
+        <v>-9568400</v>
       </c>
       <c r="F33" s="3">
-        <v>8818300</v>
+        <v>7107300</v>
       </c>
       <c r="G33" s="3">
-        <v>7473500</v>
+        <v>8520000</v>
       </c>
       <c r="H33" s="3">
-        <v>7004900</v>
+        <v>7220700</v>
       </c>
       <c r="I33" s="3">
-        <v>6424600</v>
+        <v>6768000</v>
       </c>
       <c r="J33" s="3">
-        <v>6566800</v>
+        <v>6207300</v>
       </c>
       <c r="K33" s="3">
         <v>4994100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9903300</v>
+        <v>8862600</v>
       </c>
       <c r="E35" s="3">
-        <v>7356100</v>
+        <v>-9568400</v>
       </c>
       <c r="F35" s="3">
-        <v>8818300</v>
+        <v>7107300</v>
       </c>
       <c r="G35" s="3">
-        <v>7473500</v>
+        <v>8520000</v>
       </c>
       <c r="H35" s="3">
-        <v>7004900</v>
+        <v>7220700</v>
       </c>
       <c r="I35" s="3">
-        <v>6424600</v>
+        <v>6768000</v>
       </c>
       <c r="J35" s="3">
-        <v>6566800</v>
+        <v>6207300</v>
       </c>
       <c r="K35" s="3">
         <v>4994100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>187812000</v>
+        <v>229843000</v>
       </c>
       <c r="E41" s="3">
-        <v>134974000</v>
+        <v>181460000</v>
       </c>
       <c r="F41" s="3">
-        <v>145952000</v>
+        <v>130409000</v>
       </c>
       <c r="G41" s="3">
-        <v>154995000</v>
+        <v>141015000</v>
       </c>
       <c r="H41" s="3">
-        <v>117909000</v>
+        <v>149753000</v>
       </c>
       <c r="I41" s="3">
-        <v>148573000</v>
+        <v>113921000</v>
       </c>
       <c r="J41" s="3">
-        <v>136321000</v>
+        <v>143547000</v>
       </c>
       <c r="K41" s="3">
         <v>159238000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>167426000</v>
+        <v>176503000</v>
       </c>
       <c r="E42" s="3">
-        <v>178690000</v>
+        <v>161763000</v>
       </c>
       <c r="F42" s="3">
-        <v>183947000</v>
+        <v>172646000</v>
       </c>
       <c r="G42" s="3">
-        <v>157345000</v>
+        <v>177726000</v>
       </c>
       <c r="H42" s="3">
-        <v>157725000</v>
+        <v>152023000</v>
       </c>
       <c r="I42" s="3">
-        <v>128566000</v>
+        <v>152390000</v>
       </c>
       <c r="J42" s="3">
-        <v>137806000</v>
+        <v>124218000</v>
       </c>
       <c r="K42" s="3">
         <v>114921000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8606000</v>
+        <v>8209100</v>
       </c>
       <c r="E47" s="3">
-        <v>9904500</v>
+        <v>8314900</v>
       </c>
       <c r="F47" s="3">
-        <v>8567600</v>
+        <v>9569500</v>
       </c>
       <c r="G47" s="3">
-        <v>6982400</v>
+        <v>8277800</v>
       </c>
       <c r="H47" s="3">
-        <v>5460300</v>
+        <v>6746200</v>
       </c>
       <c r="I47" s="3">
-        <v>3670700</v>
+        <v>5275600</v>
       </c>
       <c r="J47" s="3">
-        <v>3919100</v>
+        <v>3546500</v>
       </c>
       <c r="K47" s="3">
         <v>10661700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36961100</v>
+        <v>36350200</v>
       </c>
       <c r="E48" s="3">
-        <v>39783800</v>
+        <v>35710900</v>
       </c>
       <c r="F48" s="3">
-        <v>29533900</v>
+        <v>38438200</v>
       </c>
       <c r="G48" s="3">
-        <v>25939900</v>
+        <v>28534900</v>
       </c>
       <c r="H48" s="3">
-        <v>26292200</v>
+        <v>25062600</v>
       </c>
       <c r="I48" s="3">
-        <v>28588800</v>
+        <v>25402900</v>
       </c>
       <c r="J48" s="3">
-        <v>26258300</v>
+        <v>27621800</v>
       </c>
       <c r="K48" s="3">
         <v>38028400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17961700</v>
+        <v>18091700</v>
       </c>
       <c r="E49" s="3">
-        <v>31261400</v>
+        <v>17354200</v>
       </c>
       <c r="F49" s="3">
-        <v>32247100</v>
+        <v>30204000</v>
       </c>
       <c r="G49" s="3">
-        <v>32386000</v>
+        <v>31156400</v>
       </c>
       <c r="H49" s="3">
-        <v>33219300</v>
+        <v>31290600</v>
       </c>
       <c r="I49" s="3">
-        <v>33229400</v>
+        <v>32095700</v>
       </c>
       <c r="J49" s="3">
-        <v>34325800</v>
+        <v>32105500</v>
       </c>
       <c r="K49" s="3">
         <v>60412900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27466500</v>
+        <v>25668000</v>
       </c>
       <c r="E52" s="3">
-        <v>31910600</v>
+        <v>26537500</v>
       </c>
       <c r="F52" s="3">
-        <v>33533100</v>
+        <v>30831300</v>
       </c>
       <c r="G52" s="3">
-        <v>44141000</v>
+        <v>32398900</v>
       </c>
       <c r="H52" s="3">
-        <v>31114600</v>
+        <v>42648000</v>
       </c>
       <c r="I52" s="3">
-        <v>32154500</v>
+        <v>30062200</v>
       </c>
       <c r="J52" s="3">
-        <v>31561700</v>
+        <v>31066900</v>
       </c>
       <c r="K52" s="3">
         <v>31381100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1702970000</v>
+        <v>1740910000</v>
       </c>
       <c r="E54" s="3">
-        <v>1719270000</v>
+        <v>1645370000</v>
       </c>
       <c r="F54" s="3">
-        <v>1647660000</v>
+        <v>1661120000</v>
       </c>
       <c r="G54" s="3">
-        <v>1630760000</v>
+        <v>1591930000</v>
       </c>
       <c r="H54" s="3">
-        <v>1512010000</v>
+        <v>1575610000</v>
       </c>
       <c r="I54" s="3">
-        <v>1513290000</v>
+        <v>1460860000</v>
       </c>
       <c r="J54" s="3">
-        <v>1429770000</v>
+        <v>1462100000</v>
       </c>
       <c r="K54" s="3">
         <v>1334680000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2652300</v>
+        <v>2385800</v>
       </c>
       <c r="E59" s="3">
-        <v>3161500</v>
+        <v>2562500</v>
       </c>
       <c r="F59" s="3">
-        <v>2898400</v>
+        <v>3054500</v>
       </c>
       <c r="G59" s="3">
-        <v>3110700</v>
+        <v>2800400</v>
       </c>
       <c r="H59" s="3">
-        <v>3024900</v>
+        <v>3005500</v>
       </c>
       <c r="I59" s="3">
-        <v>2438900</v>
+        <v>2922500</v>
       </c>
       <c r="J59" s="3">
-        <v>5478400</v>
+        <v>2356400</v>
       </c>
       <c r="K59" s="3">
         <v>5088600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>265642000</v>
+        <v>268542000</v>
       </c>
       <c r="E61" s="3">
-        <v>295798000</v>
+        <v>256657000</v>
       </c>
       <c r="F61" s="3">
-        <v>278458000</v>
+        <v>285793000</v>
       </c>
       <c r="G61" s="3">
-        <v>246105000</v>
+        <v>269039000</v>
       </c>
       <c r="H61" s="3">
-        <v>258416000</v>
+        <v>237781000</v>
       </c>
       <c r="I61" s="3">
-        <v>255382000</v>
+        <v>249676000</v>
       </c>
       <c r="J61" s="3">
-        <v>241651000</v>
+        <v>246744000</v>
       </c>
       <c r="K61" s="3">
         <v>229210000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18951900</v>
+        <v>17503700</v>
       </c>
       <c r="E62" s="3">
-        <v>23156700</v>
+        <v>18310900</v>
       </c>
       <c r="F62" s="3">
-        <v>21219200</v>
+        <v>22373500</v>
       </c>
       <c r="G62" s="3">
-        <v>21821000</v>
+        <v>20501500</v>
       </c>
       <c r="H62" s="3">
-        <v>22754800</v>
+        <v>21082900</v>
       </c>
       <c r="I62" s="3">
-        <v>22648600</v>
+        <v>21985100</v>
       </c>
       <c r="J62" s="3">
-        <v>22472500</v>
+        <v>21882600</v>
       </c>
       <c r="K62" s="3">
         <v>36961400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1610970000</v>
+        <v>1646080000</v>
       </c>
       <c r="E66" s="3">
-        <v>1606280000</v>
+        <v>1556480000</v>
       </c>
       <c r="F66" s="3">
-        <v>1538740000</v>
+        <v>1551950000</v>
       </c>
       <c r="G66" s="3">
-        <v>1524080000</v>
+        <v>1486690000</v>
       </c>
       <c r="H66" s="3">
-        <v>1409330000</v>
+        <v>1472530000</v>
       </c>
       <c r="I66" s="3">
-        <v>1413880000</v>
+        <v>1361660000</v>
       </c>
       <c r="J66" s="3">
-        <v>1338540000</v>
+        <v>1366060000</v>
       </c>
       <c r="K66" s="3">
         <v>1250550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>64146400</v>
+        <v>74615000</v>
       </c>
       <c r="E72" s="3">
-        <v>76262800</v>
+        <v>61976800</v>
       </c>
       <c r="F72" s="3">
-        <v>72901500</v>
+        <v>73683300</v>
       </c>
       <c r="G72" s="3">
-        <v>67809200</v>
+        <v>70435700</v>
       </c>
       <c r="H72" s="3">
-        <v>63406900</v>
+        <v>65515700</v>
       </c>
       <c r="I72" s="3">
-        <v>58403800</v>
+        <v>61262200</v>
       </c>
       <c r="J72" s="3">
-        <v>53040600</v>
+        <v>56428400</v>
       </c>
       <c r="K72" s="3">
         <v>140362000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>91994600</v>
+        <v>94832800</v>
       </c>
       <c r="E76" s="3">
-        <v>112990000</v>
+        <v>88883000</v>
       </c>
       <c r="F76" s="3">
-        <v>108927000</v>
+        <v>109169000</v>
       </c>
       <c r="G76" s="3">
-        <v>106688000</v>
+        <v>105242000</v>
       </c>
       <c r="H76" s="3">
-        <v>102678000</v>
+        <v>103079000</v>
       </c>
       <c r="I76" s="3">
-        <v>99406000</v>
+        <v>99205200</v>
       </c>
       <c r="J76" s="3">
-        <v>91236900</v>
+        <v>96043700</v>
       </c>
       <c r="K76" s="3">
         <v>84126400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9903300</v>
+        <v>8862600</v>
       </c>
       <c r="E81" s="3">
-        <v>7356100</v>
+        <v>-9568400</v>
       </c>
       <c r="F81" s="3">
-        <v>8818300</v>
+        <v>7107300</v>
       </c>
       <c r="G81" s="3">
-        <v>7473500</v>
+        <v>8520000</v>
       </c>
       <c r="H81" s="3">
-        <v>7004900</v>
+        <v>7220700</v>
       </c>
       <c r="I81" s="3">
-        <v>6424600</v>
+        <v>6768000</v>
       </c>
       <c r="J81" s="3">
-        <v>6566800</v>
+        <v>6207300</v>
       </c>
       <c r="K81" s="3">
         <v>4994100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3172800</v>
+        <v>3065500</v>
       </c>
       <c r="E83" s="3">
-        <v>3388400</v>
+        <v>3273800</v>
       </c>
       <c r="F83" s="3">
-        <v>2738100</v>
+        <v>2645500</v>
       </c>
       <c r="G83" s="3">
-        <v>2927800</v>
+        <v>2828700</v>
       </c>
       <c r="H83" s="3">
-        <v>2669200</v>
+        <v>2578900</v>
       </c>
       <c r="I83" s="3">
-        <v>2730200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2582300</v>
+        <v>2637800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>2860100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>74693400</v>
+        <v>72167000</v>
       </c>
       <c r="E89" s="3">
-        <v>3826500</v>
+        <v>3697100</v>
       </c>
       <c r="F89" s="3">
-        <v>3857000</v>
+        <v>3726500</v>
       </c>
       <c r="G89" s="3">
-        <v>45376300</v>
+        <v>43841500</v>
       </c>
       <c r="H89" s="3">
-        <v>24640300</v>
+        <v>23806900</v>
       </c>
       <c r="I89" s="3">
-        <v>6411000</v>
+        <v>6194200</v>
       </c>
       <c r="J89" s="3">
-        <v>-4447500</v>
+        <v>-4297100</v>
       </c>
       <c r="K89" s="3">
         <v>-41690000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8339500</v>
+        <v>-8057500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14414100</v>
+        <v>-13926600</v>
       </c>
       <c r="F91" s="3">
-        <v>-12110700</v>
+        <v>-11701100</v>
       </c>
       <c r="G91" s="3">
-        <v>-8411800</v>
+        <v>-8127300</v>
       </c>
       <c r="H91" s="3">
-        <v>-7420400</v>
+        <v>-7169500</v>
       </c>
       <c r="I91" s="3">
-        <v>-8653400</v>
+        <v>-8360700</v>
       </c>
       <c r="J91" s="3">
-        <v>-7559300</v>
+        <v>-7303600</v>
       </c>
       <c r="K91" s="3">
         <v>-2245300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8152100</v>
+        <v>-7876400</v>
       </c>
       <c r="E94" s="3">
-        <v>-8162300</v>
+        <v>-7886200</v>
       </c>
       <c r="F94" s="3">
-        <v>3554400</v>
+        <v>3434200</v>
       </c>
       <c r="G94" s="3">
-        <v>-4525400</v>
+        <v>-4372400</v>
       </c>
       <c r="H94" s="3">
-        <v>-15540900</v>
+        <v>-15015300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7020700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-6780200</v>
+        <v>-6783300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>809800</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4260100</v>
+        <v>-4116000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3520500</v>
+        <v>-3401500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3009100</v>
+        <v>-2907300</v>
       </c>
       <c r="H96" s="3">
-        <v>-2607100</v>
+        <v>-2518900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1691400</v>
+        <v>-1634200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1026400</v>
+        <v>-991600</v>
       </c>
       <c r="K96" s="3">
         <v>-978500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2155500</v>
+        <v>-2082500</v>
       </c>
       <c r="E100" s="3">
-        <v>-11428800</v>
+        <v>-11042200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3727200</v>
+        <v>-3601100</v>
       </c>
       <c r="G100" s="3">
-        <v>4749000</v>
+        <v>4588400</v>
       </c>
       <c r="H100" s="3">
-        <v>-6486700</v>
+        <v>-6267300</v>
       </c>
       <c r="I100" s="3">
-        <v>10116700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-70000</v>
+        <v>9774600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>-2004800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4800900</v>
+        <v>-4638500</v>
       </c>
       <c r="E101" s="3">
-        <v>1542400</v>
+        <v>1490200</v>
       </c>
       <c r="F101" s="3">
-        <v>-671800</v>
+        <v>-649100</v>
       </c>
       <c r="G101" s="3">
-        <v>-6599600</v>
+        <v>-6376400</v>
       </c>
       <c r="H101" s="3">
-        <v>-4077200</v>
+        <v>-3939300</v>
       </c>
       <c r="I101" s="3">
-        <v>-589400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2631900</v>
+        <v>-569500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>-6619800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>59584900</v>
+        <v>57569500</v>
       </c>
       <c r="E102" s="3">
-        <v>-14222100</v>
+        <v>-13741100</v>
       </c>
       <c r="F102" s="3">
-        <v>3012400</v>
+        <v>2910500</v>
       </c>
       <c r="G102" s="3">
-        <v>39000200</v>
+        <v>37681100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1464400</v>
+        <v>-1414900</v>
       </c>
       <c r="I102" s="3">
-        <v>8917600</v>
+        <v>8616000</v>
       </c>
       <c r="J102" s="3">
-        <v>-8665800</v>
+        <v>-8372700</v>
       </c>
       <c r="K102" s="3">
         <v>-49504700</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50687000</v>
+        <v>48223900</v>
       </c>
       <c r="E8" s="3">
-        <v>49899300</v>
+        <v>47474600</v>
       </c>
       <c r="F8" s="3">
-        <v>61947300</v>
+        <v>58937200</v>
       </c>
       <c r="G8" s="3">
-        <v>59263700</v>
+        <v>56383900</v>
       </c>
       <c r="H8" s="3">
-        <v>61135700</v>
+        <v>58165000</v>
       </c>
       <c r="I8" s="3">
-        <v>60170200</v>
+        <v>57246400</v>
       </c>
       <c r="J8" s="3">
+        <v>59365800</v>
+      </c>
+      <c r="K8" s="3">
         <v>62397900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61540900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56488800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71154000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3006500</v>
+        <v>-2860500</v>
       </c>
       <c r="E15" s="3">
-        <v>-3065500</v>
+        <v>-2916500</v>
       </c>
       <c r="F15" s="3">
-        <v>-3273800</v>
+        <v>-3114700</v>
       </c>
       <c r="G15" s="3">
-        <v>-2645500</v>
+        <v>-2516900</v>
       </c>
       <c r="H15" s="3">
-        <v>-2828700</v>
+        <v>-2691300</v>
       </c>
       <c r="I15" s="3">
-        <v>-2578900</v>
+        <v>-2453600</v>
       </c>
       <c r="J15" s="3">
+        <v>-2509600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2637800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2860100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2625300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-2462700</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22342900</v>
+        <v>21257200</v>
       </c>
       <c r="E17" s="3">
-        <v>28483700</v>
+        <v>27099600</v>
       </c>
       <c r="F17" s="3">
-        <v>33645800</v>
+        <v>32010900</v>
       </c>
       <c r="G17" s="3">
-        <v>31602600</v>
+        <v>30066900</v>
       </c>
       <c r="H17" s="3">
-        <v>33802900</v>
+        <v>32160400</v>
       </c>
       <c r="I17" s="3">
-        <v>36680800</v>
+        <v>34898300</v>
       </c>
       <c r="J17" s="3">
+        <v>35890600</v>
+      </c>
+      <c r="K17" s="3">
         <v>37723700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43658900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40074800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48114500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28344000</v>
+        <v>26966700</v>
       </c>
       <c r="E18" s="3">
-        <v>21415700</v>
+        <v>20375000</v>
       </c>
       <c r="F18" s="3">
-        <v>28301500</v>
+        <v>26926200</v>
       </c>
       <c r="G18" s="3">
-        <v>27661100</v>
+        <v>26317000</v>
       </c>
       <c r="H18" s="3">
-        <v>27332800</v>
+        <v>26004600</v>
       </c>
       <c r="I18" s="3">
-        <v>23489500</v>
+        <v>22348100</v>
       </c>
       <c r="J18" s="3">
+        <v>23475200</v>
+      </c>
+      <c r="K18" s="3">
         <v>24674200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17882000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16414000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23039500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12474600</v>
+        <v>-11868400</v>
       </c>
       <c r="E20" s="3">
-        <v>-23680400</v>
+        <v>-22529700</v>
       </c>
       <c r="F20" s="3">
-        <v>-14618200</v>
+        <v>-13907900</v>
       </c>
       <c r="G20" s="3">
-        <v>-12169100</v>
+        <v>-11577800</v>
       </c>
       <c r="H20" s="3">
-        <v>-14142600</v>
+        <v>-13455300</v>
       </c>
       <c r="I20" s="3">
-        <v>-11742600</v>
+        <v>-11172000</v>
       </c>
       <c r="J20" s="3">
+        <v>-13566400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14259300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9056400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8313000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13815700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18981600</v>
+        <v>17995200</v>
       </c>
       <c r="E21" s="3">
-        <v>1058900</v>
+        <v>798900</v>
       </c>
       <c r="F21" s="3">
-        <v>16369000</v>
+        <v>16172700</v>
       </c>
       <c r="G21" s="3">
-        <v>18363800</v>
+        <v>17288100</v>
       </c>
       <c r="H21" s="3">
-        <v>15808300</v>
+        <v>15274800</v>
       </c>
       <c r="I21" s="3">
-        <v>14424900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>13660900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12450400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>11674000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>11688100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15869500</v>
+        <v>15098300</v>
       </c>
       <c r="E23" s="3">
-        <v>-2264700</v>
+        <v>-2154700</v>
       </c>
       <c r="F23" s="3">
-        <v>13683300</v>
+        <v>13018400</v>
       </c>
       <c r="G23" s="3">
-        <v>15492000</v>
+        <v>14739200</v>
       </c>
       <c r="H23" s="3">
-        <v>13190200</v>
+        <v>12549200</v>
       </c>
       <c r="I23" s="3">
-        <v>11746900</v>
+        <v>11176100</v>
       </c>
       <c r="J23" s="3">
+        <v>9908800</v>
+      </c>
+      <c r="K23" s="3">
         <v>10414900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8825600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8101000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9223800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5338900</v>
+        <v>5079500</v>
       </c>
       <c r="E24" s="3">
-        <v>6144000</v>
+        <v>5845500</v>
       </c>
       <c r="F24" s="3">
-        <v>4829500</v>
+        <v>4594800</v>
       </c>
       <c r="G24" s="3">
-        <v>5330200</v>
+        <v>5071200</v>
       </c>
       <c r="H24" s="3">
-        <v>4237100</v>
+        <v>4031200</v>
       </c>
       <c r="I24" s="3">
-        <v>3580400</v>
+        <v>3406400</v>
       </c>
       <c r="J24" s="3">
+        <v>2296900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2414200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2433100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2233300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2060000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10530600</v>
+        <v>10018800</v>
       </c>
       <c r="E26" s="3">
-        <v>-8408700</v>
+        <v>-8000100</v>
       </c>
       <c r="F26" s="3">
-        <v>8853800</v>
+        <v>8423600</v>
       </c>
       <c r="G26" s="3">
-        <v>10161800</v>
+        <v>9668000</v>
       </c>
       <c r="H26" s="3">
-        <v>8953100</v>
+        <v>8518000</v>
       </c>
       <c r="I26" s="3">
-        <v>8166600</v>
+        <v>7769700</v>
       </c>
       <c r="J26" s="3">
+        <v>7612000</v>
+      </c>
+      <c r="K26" s="3">
         <v>8000700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6392500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5867700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7163800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8862600</v>
+        <v>8431900</v>
       </c>
       <c r="E27" s="3">
-        <v>-9568400</v>
+        <v>-9103400</v>
       </c>
       <c r="F27" s="3">
-        <v>7107300</v>
+        <v>6761900</v>
       </c>
       <c r="G27" s="3">
-        <v>8520000</v>
+        <v>8106000</v>
       </c>
       <c r="H27" s="3">
-        <v>7220700</v>
+        <v>6869900</v>
       </c>
       <c r="I27" s="3">
-        <v>6768000</v>
+        <v>6439100</v>
       </c>
       <c r="J27" s="3">
+        <v>5905700</v>
+      </c>
+      <c r="K27" s="3">
         <v>6207300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5012100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6238800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1434,17 +1494,20 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-17900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-16500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>17600</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12474600</v>
+        <v>11868400</v>
       </c>
       <c r="E32" s="3">
-        <v>23680400</v>
+        <v>22529700</v>
       </c>
       <c r="F32" s="3">
-        <v>14618200</v>
+        <v>13907900</v>
       </c>
       <c r="G32" s="3">
-        <v>12169100</v>
+        <v>11577800</v>
       </c>
       <c r="H32" s="3">
-        <v>14142600</v>
+        <v>13455300</v>
       </c>
       <c r="I32" s="3">
-        <v>11742600</v>
+        <v>11172000</v>
       </c>
       <c r="J32" s="3">
+        <v>13566400</v>
+      </c>
+      <c r="K32" s="3">
         <v>14259300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9056400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8313000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13815700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8862600</v>
+        <v>8431900</v>
       </c>
       <c r="E33" s="3">
-        <v>-9568400</v>
+        <v>-9103400</v>
       </c>
       <c r="F33" s="3">
-        <v>7107300</v>
+        <v>6761900</v>
       </c>
       <c r="G33" s="3">
-        <v>8520000</v>
+        <v>8106000</v>
       </c>
       <c r="H33" s="3">
-        <v>7220700</v>
+        <v>6869900</v>
       </c>
       <c r="I33" s="3">
-        <v>6768000</v>
+        <v>6439100</v>
       </c>
       <c r="J33" s="3">
+        <v>5905700</v>
+      </c>
+      <c r="K33" s="3">
         <v>6207300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4994100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4584200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6256400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8862600</v>
+        <v>8431900</v>
       </c>
       <c r="E35" s="3">
-        <v>-9568400</v>
+        <v>-9103400</v>
       </c>
       <c r="F35" s="3">
-        <v>7107300</v>
+        <v>6761900</v>
       </c>
       <c r="G35" s="3">
-        <v>8520000</v>
+        <v>8106000</v>
       </c>
       <c r="H35" s="3">
-        <v>7220700</v>
+        <v>6869900</v>
       </c>
       <c r="I35" s="3">
-        <v>6768000</v>
+        <v>6439100</v>
       </c>
       <c r="J35" s="3">
+        <v>5905700</v>
+      </c>
+      <c r="K35" s="3">
         <v>6207300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4994100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4584200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6256400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>229843000</v>
+        <v>234925000</v>
       </c>
       <c r="E41" s="3">
-        <v>181460000</v>
+        <v>172642000</v>
       </c>
       <c r="F41" s="3">
-        <v>130409000</v>
+        <v>124072000</v>
       </c>
       <c r="G41" s="3">
-        <v>141015000</v>
+        <v>134163000</v>
       </c>
       <c r="H41" s="3">
-        <v>149753000</v>
+        <v>142476000</v>
       </c>
       <c r="I41" s="3">
-        <v>113921000</v>
+        <v>108385000</v>
       </c>
       <c r="J41" s="3">
+        <v>136572000</v>
+      </c>
+      <c r="K41" s="3">
         <v>143547000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159238000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>189156000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>163058000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>176503000</v>
+        <v>151676000</v>
       </c>
       <c r="E42" s="3">
-        <v>161763000</v>
+        <v>153903000</v>
       </c>
       <c r="F42" s="3">
-        <v>172646000</v>
+        <v>164257000</v>
       </c>
       <c r="G42" s="3">
-        <v>177726000</v>
+        <v>169090000</v>
       </c>
       <c r="H42" s="3">
-        <v>152023000</v>
+        <v>144636000</v>
       </c>
       <c r="I42" s="3">
-        <v>152390000</v>
+        <v>144985000</v>
       </c>
       <c r="J42" s="3">
+        <v>118182000</v>
+      </c>
+      <c r="K42" s="3">
         <v>124218000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114921000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>219900000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>223436000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8209100</v>
+        <v>7810200</v>
       </c>
       <c r="E47" s="3">
-        <v>8314900</v>
+        <v>7910900</v>
       </c>
       <c r="F47" s="3">
-        <v>9569500</v>
+        <v>9104500</v>
       </c>
       <c r="G47" s="3">
-        <v>8277800</v>
+        <v>7875600</v>
       </c>
       <c r="H47" s="3">
-        <v>6746200</v>
+        <v>6418400</v>
       </c>
       <c r="I47" s="3">
-        <v>5275600</v>
+        <v>5019300</v>
       </c>
       <c r="J47" s="3">
+        <v>3374200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3546500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10661700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4890500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4877200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36350200</v>
+        <v>34583900</v>
       </c>
       <c r="E48" s="3">
-        <v>35710900</v>
+        <v>33975700</v>
       </c>
       <c r="F48" s="3">
-        <v>38438200</v>
+        <v>36570400</v>
       </c>
       <c r="G48" s="3">
-        <v>28534900</v>
+        <v>27148400</v>
       </c>
       <c r="H48" s="3">
-        <v>25062600</v>
+        <v>23844700</v>
       </c>
       <c r="I48" s="3">
-        <v>25402900</v>
+        <v>24168500</v>
       </c>
       <c r="J48" s="3">
+        <v>26279600</v>
+      </c>
+      <c r="K48" s="3">
         <v>27621800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38028400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15218300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16252600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18091700</v>
+        <v>17212500</v>
       </c>
       <c r="E49" s="3">
-        <v>17354200</v>
+        <v>16510900</v>
       </c>
       <c r="F49" s="3">
-        <v>30204000</v>
+        <v>28736300</v>
       </c>
       <c r="G49" s="3">
-        <v>31156400</v>
+        <v>29642400</v>
       </c>
       <c r="H49" s="3">
-        <v>31290600</v>
+        <v>29770100</v>
       </c>
       <c r="I49" s="3">
-        <v>32095700</v>
+        <v>30536100</v>
       </c>
       <c r="J49" s="3">
+        <v>30545400</v>
+      </c>
+      <c r="K49" s="3">
         <v>32105500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60412900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30812100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>32964100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25668000</v>
+        <v>26486200</v>
       </c>
       <c r="E52" s="3">
-        <v>26537500</v>
+        <v>25248000</v>
       </c>
       <c r="F52" s="3">
-        <v>30831300</v>
+        <v>29333100</v>
       </c>
       <c r="G52" s="3">
-        <v>32398900</v>
+        <v>30824600</v>
       </c>
       <c r="H52" s="3">
-        <v>42648000</v>
+        <v>40575700</v>
       </c>
       <c r="I52" s="3">
-        <v>30062200</v>
+        <v>28601400</v>
       </c>
       <c r="J52" s="3">
+        <v>29557300</v>
+      </c>
+      <c r="K52" s="3">
         <v>31066900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31381100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29252900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29758400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1740910000</v>
+        <v>1656320000</v>
       </c>
       <c r="E54" s="3">
-        <v>1645370000</v>
+        <v>1565410000</v>
       </c>
       <c r="F54" s="3">
-        <v>1661120000</v>
+        <v>1580410000</v>
       </c>
       <c r="G54" s="3">
-        <v>1591930000</v>
+        <v>1514580000</v>
       </c>
       <c r="H54" s="3">
-        <v>1575610000</v>
+        <v>1499040000</v>
       </c>
       <c r="I54" s="3">
-        <v>1460860000</v>
+        <v>1389880000</v>
       </c>
       <c r="J54" s="3">
+        <v>1391060000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1462100000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1334680000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1394020000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1468450000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2303,9 +2433,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2385800</v>
+        <v>2269900</v>
       </c>
       <c r="E59" s="3">
-        <v>2562500</v>
+        <v>2438000</v>
       </c>
       <c r="F59" s="3">
-        <v>3054500</v>
+        <v>2906100</v>
       </c>
       <c r="G59" s="3">
-        <v>2800400</v>
+        <v>2664300</v>
       </c>
       <c r="H59" s="3">
-        <v>3005500</v>
+        <v>2859400</v>
       </c>
       <c r="I59" s="3">
-        <v>2922500</v>
+        <v>2780500</v>
       </c>
       <c r="J59" s="3">
+        <v>2241900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2356400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5088600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5667900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5987600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>268542000</v>
+        <v>255493000</v>
       </c>
       <c r="E61" s="3">
-        <v>256657000</v>
+        <v>244186000</v>
       </c>
       <c r="F61" s="3">
-        <v>285793000</v>
+        <v>271906000</v>
       </c>
       <c r="G61" s="3">
-        <v>269039000</v>
+        <v>255966000</v>
       </c>
       <c r="H61" s="3">
-        <v>237781000</v>
+        <v>226227000</v>
       </c>
       <c r="I61" s="3">
-        <v>249676000</v>
+        <v>237543000</v>
       </c>
       <c r="J61" s="3">
+        <v>234754000</v>
+      </c>
+      <c r="K61" s="3">
         <v>246744000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>229210000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>246179000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258666000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17503700</v>
+        <v>16653100</v>
       </c>
       <c r="E62" s="3">
-        <v>18310900</v>
+        <v>17421200</v>
       </c>
       <c r="F62" s="3">
-        <v>22373500</v>
+        <v>21286300</v>
       </c>
       <c r="G62" s="3">
-        <v>20501500</v>
+        <v>19505300</v>
       </c>
       <c r="H62" s="3">
-        <v>21082900</v>
+        <v>20058500</v>
       </c>
       <c r="I62" s="3">
-        <v>21985100</v>
+        <v>20916800</v>
       </c>
       <c r="J62" s="3">
+        <v>20819200</v>
+      </c>
+      <c r="K62" s="3">
         <v>21882600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36961400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20588600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23680400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1646080000</v>
+        <v>1566090000</v>
       </c>
       <c r="E66" s="3">
-        <v>1556480000</v>
+        <v>1480850000</v>
       </c>
       <c r="F66" s="3">
-        <v>1551950000</v>
+        <v>1476540000</v>
       </c>
       <c r="G66" s="3">
-        <v>1486690000</v>
+        <v>1414450000</v>
       </c>
       <c r="H66" s="3">
-        <v>1472530000</v>
+        <v>1400970000</v>
       </c>
       <c r="I66" s="3">
-        <v>1361660000</v>
+        <v>1295490000</v>
       </c>
       <c r="J66" s="3">
+        <v>1299680000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1366060000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1250550000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1315120000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1381050000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>74615000</v>
+        <v>70989200</v>
       </c>
       <c r="E72" s="3">
-        <v>61976800</v>
+        <v>58965200</v>
       </c>
       <c r="F72" s="3">
-        <v>73683300</v>
+        <v>70102900</v>
       </c>
       <c r="G72" s="3">
-        <v>70435700</v>
+        <v>67013100</v>
       </c>
       <c r="H72" s="3">
-        <v>65515700</v>
+        <v>62332100</v>
       </c>
       <c r="I72" s="3">
-        <v>61262200</v>
+        <v>58285400</v>
       </c>
       <c r="J72" s="3">
+        <v>53686400</v>
+      </c>
+      <c r="K72" s="3">
         <v>56428400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>140362000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42600200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43125800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94832800</v>
+        <v>90224600</v>
       </c>
       <c r="E76" s="3">
-        <v>88883000</v>
+        <v>84563900</v>
       </c>
       <c r="F76" s="3">
-        <v>109169000</v>
+        <v>103864000</v>
       </c>
       <c r="G76" s="3">
-        <v>105242000</v>
+        <v>100128000</v>
       </c>
       <c r="H76" s="3">
-        <v>103079000</v>
+        <v>98070100</v>
       </c>
       <c r="I76" s="3">
-        <v>99205200</v>
+        <v>94384600</v>
       </c>
       <c r="J76" s="3">
+        <v>91376700</v>
+      </c>
+      <c r="K76" s="3">
         <v>96043700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84126400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78902300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>87401900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8862600</v>
+        <v>8431900</v>
       </c>
       <c r="E81" s="3">
-        <v>-9568400</v>
+        <v>-9103400</v>
       </c>
       <c r="F81" s="3">
-        <v>7107300</v>
+        <v>6761900</v>
       </c>
       <c r="G81" s="3">
-        <v>8520000</v>
+        <v>8106000</v>
       </c>
       <c r="H81" s="3">
-        <v>7220700</v>
+        <v>6869900</v>
       </c>
       <c r="I81" s="3">
-        <v>6768000</v>
+        <v>6439100</v>
       </c>
       <c r="J81" s="3">
+        <v>5905700</v>
+      </c>
+      <c r="K81" s="3">
         <v>6207300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4994100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4584200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6256400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3065500</v>
+        <v>2860500</v>
       </c>
       <c r="E83" s="3">
-        <v>3273800</v>
+        <v>2916500</v>
       </c>
       <c r="F83" s="3">
-        <v>2645500</v>
+        <v>3114700</v>
       </c>
       <c r="G83" s="3">
-        <v>2828700</v>
+        <v>2516900</v>
       </c>
       <c r="H83" s="3">
-        <v>2578900</v>
+        <v>2691300</v>
       </c>
       <c r="I83" s="3">
-        <v>2637800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>2453600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2509600</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>2860100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>2462700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72167000</v>
+        <v>58839600</v>
       </c>
       <c r="E89" s="3">
-        <v>3697100</v>
+        <v>68660200</v>
       </c>
       <c r="F89" s="3">
-        <v>3726500</v>
+        <v>3517400</v>
       </c>
       <c r="G89" s="3">
-        <v>43841500</v>
+        <v>3545500</v>
       </c>
       <c r="H89" s="3">
-        <v>23806900</v>
+        <v>41711100</v>
       </c>
       <c r="I89" s="3">
-        <v>6194200</v>
+        <v>22650100</v>
       </c>
       <c r="J89" s="3">
+        <v>5893200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4297100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41690000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26498000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42143300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8057500</v>
+        <v>-10394600</v>
       </c>
       <c r="E91" s="3">
-        <v>-13926600</v>
+        <v>-7665900</v>
       </c>
       <c r="F91" s="3">
-        <v>-11701100</v>
+        <v>-13249800</v>
       </c>
       <c r="G91" s="3">
-        <v>-8127300</v>
+        <v>-11132500</v>
       </c>
       <c r="H91" s="3">
-        <v>-7169500</v>
+        <v>-7732400</v>
       </c>
       <c r="I91" s="3">
-        <v>-8360700</v>
+        <v>-6821100</v>
       </c>
       <c r="J91" s="3">
+        <v>-7954500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7303600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2245300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2372800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3988600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7876400</v>
+        <v>-3855800</v>
       </c>
       <c r="E94" s="3">
-        <v>-7886200</v>
+        <v>-7493600</v>
       </c>
       <c r="F94" s="3">
-        <v>3434200</v>
+        <v>-7503000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4372400</v>
+        <v>3267300</v>
       </c>
       <c r="H94" s="3">
-        <v>-15015300</v>
+        <v>-4159900</v>
       </c>
       <c r="I94" s="3">
-        <v>-6783300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-14285700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6453700</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>809800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-8226100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1362800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4116000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-3401500</v>
+        <v>-3916000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2907300</v>
+        <v>-3236200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2518900</v>
+        <v>-2766000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1634200</v>
+        <v>-2396500</v>
       </c>
       <c r="J96" s="3">
+        <v>-1554800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-991600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-978500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1413100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4095400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2082500</v>
+        <v>-1605600</v>
       </c>
       <c r="E100" s="3">
-        <v>-11042200</v>
+        <v>-1981400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3601100</v>
+        <v>-10505600</v>
       </c>
       <c r="G100" s="3">
-        <v>4588400</v>
+        <v>-3426100</v>
       </c>
       <c r="H100" s="3">
-        <v>-6267300</v>
+        <v>4365400</v>
       </c>
       <c r="I100" s="3">
-        <v>9774600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-5962700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>9299600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2004800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-9520800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4638500</v>
+        <v>5392900</v>
       </c>
       <c r="E101" s="3">
-        <v>1490200</v>
+        <v>-4413200</v>
       </c>
       <c r="F101" s="3">
-        <v>-649100</v>
+        <v>1417800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6376400</v>
+        <v>-617600</v>
       </c>
       <c r="H101" s="3">
-        <v>-3939300</v>
+        <v>-6066500</v>
       </c>
       <c r="I101" s="3">
-        <v>-569500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>-3747900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-541800</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-6619800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-2401600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>57569500</v>
+        <v>59004600</v>
       </c>
       <c r="E102" s="3">
-        <v>-13741100</v>
+        <v>54772100</v>
       </c>
       <c r="F102" s="3">
-        <v>2910500</v>
+        <v>-13073400</v>
       </c>
       <c r="G102" s="3">
-        <v>37681100</v>
+        <v>2769100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1414900</v>
+        <v>35850100</v>
       </c>
       <c r="I102" s="3">
-        <v>8616000</v>
+        <v>-1346200</v>
       </c>
       <c r="J102" s="3">
+        <v>8197300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8372700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-49504700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24116500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21994900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48223900</v>
+        <v>46342200</v>
       </c>
       <c r="E8" s="3">
-        <v>47474600</v>
+        <v>45622100</v>
       </c>
       <c r="F8" s="3">
-        <v>58937200</v>
+        <v>56637400</v>
       </c>
       <c r="G8" s="3">
-        <v>56383900</v>
+        <v>54183800</v>
       </c>
       <c r="H8" s="3">
-        <v>58165000</v>
+        <v>55895300</v>
       </c>
       <c r="I8" s="3">
-        <v>57246400</v>
+        <v>55012600</v>
       </c>
       <c r="J8" s="3">
-        <v>59365800</v>
+        <v>57049300</v>
       </c>
       <c r="K8" s="3">
         <v>62397900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2860500</v>
+        <v>-2748800</v>
       </c>
       <c r="E15" s="3">
-        <v>-2916500</v>
+        <v>-2802700</v>
       </c>
       <c r="F15" s="3">
-        <v>-3114700</v>
+        <v>-2993200</v>
       </c>
       <c r="G15" s="3">
-        <v>-2516900</v>
+        <v>-2418700</v>
       </c>
       <c r="H15" s="3">
-        <v>-2691300</v>
+        <v>-2586300</v>
       </c>
       <c r="I15" s="3">
-        <v>-2453600</v>
+        <v>-2357900</v>
       </c>
       <c r="J15" s="3">
-        <v>-2509600</v>
+        <v>-2411700</v>
       </c>
       <c r="K15" s="3">
         <v>-2637800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21257200</v>
+        <v>20427700</v>
       </c>
       <c r="E17" s="3">
-        <v>27099600</v>
+        <v>26042100</v>
       </c>
       <c r="F17" s="3">
-        <v>32010900</v>
+        <v>30761800</v>
       </c>
       <c r="G17" s="3">
-        <v>30066900</v>
+        <v>28893700</v>
       </c>
       <c r="H17" s="3">
-        <v>32160400</v>
+        <v>30905400</v>
       </c>
       <c r="I17" s="3">
-        <v>34898300</v>
+        <v>33536600</v>
       </c>
       <c r="J17" s="3">
-        <v>35890600</v>
+        <v>34490100</v>
       </c>
       <c r="K17" s="3">
         <v>37723700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26966700</v>
+        <v>25914400</v>
       </c>
       <c r="E18" s="3">
-        <v>20375000</v>
+        <v>19580000</v>
       </c>
       <c r="F18" s="3">
-        <v>26926200</v>
+        <v>25875500</v>
       </c>
       <c r="G18" s="3">
-        <v>26317000</v>
+        <v>25290100</v>
       </c>
       <c r="H18" s="3">
-        <v>26004600</v>
+        <v>24989900</v>
       </c>
       <c r="I18" s="3">
-        <v>22348100</v>
+        <v>21476000</v>
       </c>
       <c r="J18" s="3">
-        <v>23475200</v>
+        <v>22559200</v>
       </c>
       <c r="K18" s="3">
         <v>24674200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11868400</v>
+        <v>-11405300</v>
       </c>
       <c r="E20" s="3">
-        <v>-22529700</v>
+        <v>-21650600</v>
       </c>
       <c r="F20" s="3">
-        <v>-13907900</v>
+        <v>-13365200</v>
       </c>
       <c r="G20" s="3">
-        <v>-11577800</v>
+        <v>-11126000</v>
       </c>
       <c r="H20" s="3">
-        <v>-13455300</v>
+        <v>-12930300</v>
       </c>
       <c r="I20" s="3">
-        <v>-11172000</v>
+        <v>-10736000</v>
       </c>
       <c r="J20" s="3">
-        <v>-13566400</v>
+        <v>-13037000</v>
       </c>
       <c r="K20" s="3">
         <v>-14259300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17995200</v>
+        <v>17255500</v>
       </c>
       <c r="E21" s="3">
-        <v>798900</v>
+        <v>729600</v>
       </c>
       <c r="F21" s="3">
-        <v>16172700</v>
+        <v>15500900</v>
       </c>
       <c r="G21" s="3">
-        <v>17288100</v>
+        <v>16580600</v>
       </c>
       <c r="H21" s="3">
-        <v>15274800</v>
+        <v>14643500</v>
       </c>
       <c r="I21" s="3">
-        <v>13660900</v>
+        <v>13095700</v>
       </c>
       <c r="J21" s="3">
-        <v>12450400</v>
+        <v>11931700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15098300</v>
+        <v>14509200</v>
       </c>
       <c r="E23" s="3">
-        <v>-2154700</v>
+        <v>-2070600</v>
       </c>
       <c r="F23" s="3">
-        <v>13018400</v>
+        <v>12510400</v>
       </c>
       <c r="G23" s="3">
-        <v>14739200</v>
+        <v>14164100</v>
       </c>
       <c r="H23" s="3">
-        <v>12549200</v>
+        <v>12059600</v>
       </c>
       <c r="I23" s="3">
-        <v>11176100</v>
+        <v>10740000</v>
       </c>
       <c r="J23" s="3">
-        <v>9908800</v>
+        <v>9522200</v>
       </c>
       <c r="K23" s="3">
         <v>10414900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5079500</v>
+        <v>4881300</v>
       </c>
       <c r="E24" s="3">
-        <v>5845500</v>
+        <v>5617400</v>
       </c>
       <c r="F24" s="3">
-        <v>4594800</v>
+        <v>4415500</v>
       </c>
       <c r="G24" s="3">
-        <v>5071200</v>
+        <v>4873300</v>
       </c>
       <c r="H24" s="3">
-        <v>4031200</v>
+        <v>3873900</v>
       </c>
       <c r="I24" s="3">
-        <v>3406400</v>
+        <v>3273500</v>
       </c>
       <c r="J24" s="3">
-        <v>2296900</v>
+        <v>2207200</v>
       </c>
       <c r="K24" s="3">
         <v>2414200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10018800</v>
+        <v>9627900</v>
       </c>
       <c r="E26" s="3">
-        <v>-8000100</v>
+        <v>-7688000</v>
       </c>
       <c r="F26" s="3">
-        <v>8423600</v>
+        <v>8094900</v>
       </c>
       <c r="G26" s="3">
-        <v>9668000</v>
+        <v>9290800</v>
       </c>
       <c r="H26" s="3">
-        <v>8518000</v>
+        <v>8185700</v>
       </c>
       <c r="I26" s="3">
-        <v>7769700</v>
+        <v>7466500</v>
       </c>
       <c r="J26" s="3">
-        <v>7612000</v>
+        <v>7314900</v>
       </c>
       <c r="K26" s="3">
         <v>8000700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8431900</v>
+        <v>8102900</v>
       </c>
       <c r="E27" s="3">
-        <v>-9103400</v>
+        <v>-8748200</v>
       </c>
       <c r="F27" s="3">
-        <v>6761900</v>
+        <v>6498100</v>
       </c>
       <c r="G27" s="3">
-        <v>8106000</v>
+        <v>7789700</v>
       </c>
       <c r="H27" s="3">
-        <v>6869900</v>
+        <v>6601800</v>
       </c>
       <c r="I27" s="3">
-        <v>6439100</v>
+        <v>6187900</v>
       </c>
       <c r="J27" s="3">
-        <v>5905700</v>
+        <v>5675200</v>
       </c>
       <c r="K27" s="3">
         <v>6207300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11868400</v>
+        <v>11405300</v>
       </c>
       <c r="E32" s="3">
-        <v>22529700</v>
+        <v>21650600</v>
       </c>
       <c r="F32" s="3">
-        <v>13907900</v>
+        <v>13365200</v>
       </c>
       <c r="G32" s="3">
-        <v>11577800</v>
+        <v>11126000</v>
       </c>
       <c r="H32" s="3">
-        <v>13455300</v>
+        <v>12930300</v>
       </c>
       <c r="I32" s="3">
-        <v>11172000</v>
+        <v>10736000</v>
       </c>
       <c r="J32" s="3">
-        <v>13566400</v>
+        <v>13037000</v>
       </c>
       <c r="K32" s="3">
         <v>14259300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8431900</v>
+        <v>8102900</v>
       </c>
       <c r="E33" s="3">
-        <v>-9103400</v>
+        <v>-8748200</v>
       </c>
       <c r="F33" s="3">
-        <v>6761900</v>
+        <v>6498100</v>
       </c>
       <c r="G33" s="3">
-        <v>8106000</v>
+        <v>7789700</v>
       </c>
       <c r="H33" s="3">
-        <v>6869900</v>
+        <v>6601800</v>
       </c>
       <c r="I33" s="3">
-        <v>6439100</v>
+        <v>6187900</v>
       </c>
       <c r="J33" s="3">
-        <v>5905700</v>
+        <v>5675200</v>
       </c>
       <c r="K33" s="3">
         <v>6207300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8431900</v>
+        <v>8102900</v>
       </c>
       <c r="E35" s="3">
-        <v>-9103400</v>
+        <v>-8748200</v>
       </c>
       <c r="F35" s="3">
-        <v>6761900</v>
+        <v>6498100</v>
       </c>
       <c r="G35" s="3">
-        <v>8106000</v>
+        <v>7789700</v>
       </c>
       <c r="H35" s="3">
-        <v>6869900</v>
+        <v>6601800</v>
       </c>
       <c r="I35" s="3">
-        <v>6439100</v>
+        <v>6187900</v>
       </c>
       <c r="J35" s="3">
-        <v>5905700</v>
+        <v>5675200</v>
       </c>
       <c r="K35" s="3">
         <v>6207300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>234925000</v>
+        <v>225758000</v>
       </c>
       <c r="E41" s="3">
-        <v>172642000</v>
+        <v>165906000</v>
       </c>
       <c r="F41" s="3">
-        <v>124072000</v>
+        <v>119230000</v>
       </c>
       <c r="G41" s="3">
-        <v>134163000</v>
+        <v>128928000</v>
       </c>
       <c r="H41" s="3">
-        <v>142476000</v>
+        <v>136916000</v>
       </c>
       <c r="I41" s="3">
-        <v>108385000</v>
+        <v>104156000</v>
       </c>
       <c r="J41" s="3">
-        <v>136572000</v>
+        <v>131243000</v>
       </c>
       <c r="K41" s="3">
         <v>143547000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>151676000</v>
+        <v>145757000</v>
       </c>
       <c r="E42" s="3">
-        <v>153903000</v>
+        <v>147898000</v>
       </c>
       <c r="F42" s="3">
-        <v>164257000</v>
+        <v>157848000</v>
       </c>
       <c r="G42" s="3">
-        <v>169090000</v>
+        <v>162491000</v>
       </c>
       <c r="H42" s="3">
-        <v>144636000</v>
+        <v>138992000</v>
       </c>
       <c r="I42" s="3">
-        <v>144985000</v>
+        <v>139328000</v>
       </c>
       <c r="J42" s="3">
-        <v>118182000</v>
+        <v>113570000</v>
       </c>
       <c r="K42" s="3">
         <v>124218000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7810200</v>
+        <v>7505400</v>
       </c>
       <c r="E47" s="3">
-        <v>7910900</v>
+        <v>7602200</v>
       </c>
       <c r="F47" s="3">
-        <v>9104500</v>
+        <v>8749200</v>
       </c>
       <c r="G47" s="3">
-        <v>7875600</v>
+        <v>7568300</v>
       </c>
       <c r="H47" s="3">
-        <v>6418400</v>
+        <v>6167900</v>
       </c>
       <c r="I47" s="3">
-        <v>5019300</v>
+        <v>4823400</v>
       </c>
       <c r="J47" s="3">
-        <v>3374200</v>
+        <v>3242500</v>
       </c>
       <c r="K47" s="3">
         <v>3546500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34583900</v>
+        <v>33234400</v>
       </c>
       <c r="E48" s="3">
-        <v>33975700</v>
+        <v>32649900</v>
       </c>
       <c r="F48" s="3">
-        <v>36570400</v>
+        <v>35143400</v>
       </c>
       <c r="G48" s="3">
-        <v>27148400</v>
+        <v>26089000</v>
       </c>
       <c r="H48" s="3">
-        <v>23844700</v>
+        <v>22914300</v>
       </c>
       <c r="I48" s="3">
-        <v>24168500</v>
+        <v>23225500</v>
       </c>
       <c r="J48" s="3">
-        <v>26279600</v>
+        <v>25254200</v>
       </c>
       <c r="K48" s="3">
         <v>27621800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17212500</v>
+        <v>16540900</v>
       </c>
       <c r="E49" s="3">
-        <v>16510900</v>
+        <v>15866600</v>
       </c>
       <c r="F49" s="3">
-        <v>28736300</v>
+        <v>27615000</v>
       </c>
       <c r="G49" s="3">
-        <v>29642400</v>
+        <v>28485700</v>
       </c>
       <c r="H49" s="3">
-        <v>29770100</v>
+        <v>28608400</v>
       </c>
       <c r="I49" s="3">
-        <v>30536100</v>
+        <v>29344500</v>
       </c>
       <c r="J49" s="3">
-        <v>30545400</v>
+        <v>29353500</v>
       </c>
       <c r="K49" s="3">
         <v>32105500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26486200</v>
+        <v>25452700</v>
       </c>
       <c r="E52" s="3">
-        <v>25248000</v>
+        <v>24262800</v>
       </c>
       <c r="F52" s="3">
-        <v>29333100</v>
+        <v>28188500</v>
       </c>
       <c r="G52" s="3">
-        <v>30824600</v>
+        <v>29621800</v>
       </c>
       <c r="H52" s="3">
-        <v>40575700</v>
+        <v>38992400</v>
       </c>
       <c r="I52" s="3">
-        <v>28601400</v>
+        <v>27485400</v>
       </c>
       <c r="J52" s="3">
-        <v>29557300</v>
+        <v>28404000</v>
       </c>
       <c r="K52" s="3">
         <v>31066900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1656320000</v>
+        <v>1591690000</v>
       </c>
       <c r="E54" s="3">
-        <v>1565410000</v>
+        <v>1504330000</v>
       </c>
       <c r="F54" s="3">
-        <v>1580410000</v>
+        <v>1518740000</v>
       </c>
       <c r="G54" s="3">
-        <v>1514580000</v>
+        <v>1455480000</v>
       </c>
       <c r="H54" s="3">
-        <v>1499040000</v>
+        <v>1440550000</v>
       </c>
       <c r="I54" s="3">
-        <v>1389880000</v>
+        <v>1335640000</v>
       </c>
       <c r="J54" s="3">
-        <v>1391060000</v>
+        <v>1336780000</v>
       </c>
       <c r="K54" s="3">
         <v>1462100000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2269900</v>
+        <v>2181300</v>
       </c>
       <c r="E59" s="3">
-        <v>2438000</v>
+        <v>2342900</v>
       </c>
       <c r="F59" s="3">
-        <v>2906100</v>
+        <v>2792700</v>
       </c>
       <c r="G59" s="3">
-        <v>2664300</v>
+        <v>2560300</v>
       </c>
       <c r="H59" s="3">
-        <v>2859400</v>
+        <v>2747800</v>
       </c>
       <c r="I59" s="3">
-        <v>2780500</v>
+        <v>2672000</v>
       </c>
       <c r="J59" s="3">
-        <v>2241900</v>
+        <v>2154400</v>
       </c>
       <c r="K59" s="3">
         <v>2356400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>255493000</v>
+        <v>245523000</v>
       </c>
       <c r="E61" s="3">
-        <v>244186000</v>
+        <v>234657000</v>
       </c>
       <c r="F61" s="3">
-        <v>271906000</v>
+        <v>261296000</v>
       </c>
       <c r="G61" s="3">
-        <v>255966000</v>
+        <v>245978000</v>
       </c>
       <c r="H61" s="3">
-        <v>226227000</v>
+        <v>217399000</v>
       </c>
       <c r="I61" s="3">
-        <v>237543000</v>
+        <v>228274000</v>
       </c>
       <c r="J61" s="3">
-        <v>234754000</v>
+        <v>225594000</v>
       </c>
       <c r="K61" s="3">
         <v>246744000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16653100</v>
+        <v>16003300</v>
       </c>
       <c r="E62" s="3">
-        <v>17421200</v>
+        <v>16741400</v>
       </c>
       <c r="F62" s="3">
-        <v>21286300</v>
+        <v>20455700</v>
       </c>
       <c r="G62" s="3">
-        <v>19505300</v>
+        <v>18744100</v>
       </c>
       <c r="H62" s="3">
-        <v>20058500</v>
+        <v>19275800</v>
       </c>
       <c r="I62" s="3">
-        <v>20916800</v>
+        <v>20100600</v>
       </c>
       <c r="J62" s="3">
-        <v>20819200</v>
+        <v>20006800</v>
       </c>
       <c r="K62" s="3">
         <v>21882600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1566090000</v>
+        <v>1504980000</v>
       </c>
       <c r="E66" s="3">
-        <v>1480850000</v>
+        <v>1423060000</v>
       </c>
       <c r="F66" s="3">
-        <v>1476540000</v>
+        <v>1418930000</v>
       </c>
       <c r="G66" s="3">
-        <v>1414450000</v>
+        <v>1359260000</v>
       </c>
       <c r="H66" s="3">
-        <v>1400970000</v>
+        <v>1346310000</v>
       </c>
       <c r="I66" s="3">
-        <v>1295490000</v>
+        <v>1244940000</v>
       </c>
       <c r="J66" s="3">
-        <v>1299680000</v>
+        <v>1248960000</v>
       </c>
       <c r="K66" s="3">
         <v>1366060000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>70989200</v>
+        <v>68219200</v>
       </c>
       <c r="E72" s="3">
-        <v>58965200</v>
+        <v>56664300</v>
       </c>
       <c r="F72" s="3">
-        <v>70102900</v>
+        <v>67367400</v>
       </c>
       <c r="G72" s="3">
-        <v>67013100</v>
+        <v>64398100</v>
       </c>
       <c r="H72" s="3">
-        <v>62332100</v>
+        <v>59899900</v>
       </c>
       <c r="I72" s="3">
-        <v>58285400</v>
+        <v>56011000</v>
       </c>
       <c r="J72" s="3">
-        <v>53686400</v>
+        <v>51591500</v>
       </c>
       <c r="K72" s="3">
         <v>56428400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90224600</v>
+        <v>86704000</v>
       </c>
       <c r="E76" s="3">
-        <v>84563900</v>
+        <v>81264200</v>
       </c>
       <c r="F76" s="3">
-        <v>103864000</v>
+        <v>99810800</v>
       </c>
       <c r="G76" s="3">
-        <v>100128000</v>
+        <v>96221200</v>
       </c>
       <c r="H76" s="3">
-        <v>98070100</v>
+        <v>94243300</v>
       </c>
       <c r="I76" s="3">
-        <v>94384600</v>
+        <v>90701600</v>
       </c>
       <c r="J76" s="3">
-        <v>91376700</v>
+        <v>87811100</v>
       </c>
       <c r="K76" s="3">
         <v>96043700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8431900</v>
+        <v>8102900</v>
       </c>
       <c r="E81" s="3">
-        <v>-9103400</v>
+        <v>-8748200</v>
       </c>
       <c r="F81" s="3">
-        <v>6761900</v>
+        <v>6498100</v>
       </c>
       <c r="G81" s="3">
-        <v>8106000</v>
+        <v>7789700</v>
       </c>
       <c r="H81" s="3">
-        <v>6869900</v>
+        <v>6601800</v>
       </c>
       <c r="I81" s="3">
-        <v>6439100</v>
+        <v>6187900</v>
       </c>
       <c r="J81" s="3">
-        <v>5905700</v>
+        <v>5675200</v>
       </c>
       <c r="K81" s="3">
         <v>6207300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2860500</v>
+        <v>2748800</v>
       </c>
       <c r="E83" s="3">
-        <v>2916500</v>
+        <v>2802700</v>
       </c>
       <c r="F83" s="3">
-        <v>3114700</v>
+        <v>2993200</v>
       </c>
       <c r="G83" s="3">
-        <v>2516900</v>
+        <v>2418700</v>
       </c>
       <c r="H83" s="3">
-        <v>2691300</v>
+        <v>2586300</v>
       </c>
       <c r="I83" s="3">
-        <v>2453600</v>
+        <v>2357900</v>
       </c>
       <c r="J83" s="3">
-        <v>2509600</v>
+        <v>2411700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>58839600</v>
+        <v>56543600</v>
       </c>
       <c r="E89" s="3">
-        <v>68660200</v>
+        <v>65981000</v>
       </c>
       <c r="F89" s="3">
-        <v>3517400</v>
+        <v>3380200</v>
       </c>
       <c r="G89" s="3">
-        <v>3545500</v>
+        <v>3407100</v>
       </c>
       <c r="H89" s="3">
-        <v>41711100</v>
+        <v>40083500</v>
       </c>
       <c r="I89" s="3">
-        <v>22650100</v>
+        <v>21766300</v>
       </c>
       <c r="J89" s="3">
-        <v>5893200</v>
+        <v>5663200</v>
       </c>
       <c r="K89" s="3">
         <v>-4297100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10394600</v>
+        <v>-9989000</v>
       </c>
       <c r="E91" s="3">
-        <v>-7665900</v>
+        <v>-7366800</v>
       </c>
       <c r="F91" s="3">
-        <v>-13249800</v>
+        <v>-12732800</v>
       </c>
       <c r="G91" s="3">
-        <v>-11132500</v>
+        <v>-10698100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7732400</v>
+        <v>-7430600</v>
       </c>
       <c r="I91" s="3">
-        <v>-6821100</v>
+        <v>-6554900</v>
       </c>
       <c r="J91" s="3">
-        <v>-7954500</v>
+        <v>-7644100</v>
       </c>
       <c r="K91" s="3">
         <v>-7303600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3855800</v>
+        <v>-3705300</v>
       </c>
       <c r="E94" s="3">
-        <v>-7493600</v>
+        <v>-7201200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7503000</v>
+        <v>-7210200</v>
       </c>
       <c r="G94" s="3">
-        <v>3267300</v>
+        <v>3139800</v>
       </c>
       <c r="H94" s="3">
-        <v>-4159900</v>
+        <v>-3997600</v>
       </c>
       <c r="I94" s="3">
-        <v>-14285700</v>
+        <v>-13728200</v>
       </c>
       <c r="J94" s="3">
-        <v>-6453700</v>
+        <v>-6201800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1362800</v>
+        <v>-1309600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-3916000</v>
+        <v>-3763200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3236200</v>
+        <v>-3109900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2766000</v>
+        <v>-2658100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2396500</v>
+        <v>-2303000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1554800</v>
+        <v>-1494100</v>
       </c>
       <c r="K96" s="3">
         <v>-991600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1605600</v>
+        <v>-1318600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1981400</v>
+        <v>-1904000</v>
       </c>
       <c r="F100" s="3">
-        <v>-10505600</v>
+        <v>-10095700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3426100</v>
+        <v>-3292400</v>
       </c>
       <c r="H100" s="3">
-        <v>4365400</v>
+        <v>4195100</v>
       </c>
       <c r="I100" s="3">
-        <v>-5962700</v>
+        <v>-5730100</v>
       </c>
       <c r="J100" s="3">
-        <v>9299600</v>
+        <v>8936700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5392900</v>
+        <v>5182500</v>
       </c>
       <c r="E101" s="3">
-        <v>-4413200</v>
+        <v>-4240900</v>
       </c>
       <c r="F101" s="3">
-        <v>1417800</v>
+        <v>1362400</v>
       </c>
       <c r="G101" s="3">
-        <v>-617600</v>
+        <v>-593500</v>
       </c>
       <c r="H101" s="3">
-        <v>-6066500</v>
+        <v>-5829800</v>
       </c>
       <c r="I101" s="3">
-        <v>-3747900</v>
+        <v>-3601600</v>
       </c>
       <c r="J101" s="3">
-        <v>-541800</v>
+        <v>-520600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>59004600</v>
+        <v>56702200</v>
       </c>
       <c r="E102" s="3">
-        <v>54772100</v>
+        <v>52634800</v>
       </c>
       <c r="F102" s="3">
-        <v>-13073400</v>
+        <v>-12563300</v>
       </c>
       <c r="G102" s="3">
-        <v>2769100</v>
+        <v>2661100</v>
       </c>
       <c r="H102" s="3">
-        <v>35850100</v>
+        <v>34451200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1346200</v>
+        <v>-1293600</v>
       </c>
       <c r="J102" s="3">
-        <v>8197300</v>
+        <v>7877500</v>
       </c>
       <c r="K102" s="3">
         <v>-8372700</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46342200</v>
+        <v>47429400</v>
       </c>
       <c r="E8" s="3">
-        <v>45622100</v>
+        <v>46692400</v>
       </c>
       <c r="F8" s="3">
-        <v>56637400</v>
+        <v>57966100</v>
       </c>
       <c r="G8" s="3">
-        <v>54183800</v>
+        <v>55455000</v>
       </c>
       <c r="H8" s="3">
-        <v>55895300</v>
+        <v>57206700</v>
       </c>
       <c r="I8" s="3">
-        <v>55012600</v>
+        <v>56303200</v>
       </c>
       <c r="J8" s="3">
-        <v>57049300</v>
+        <v>58387700</v>
       </c>
       <c r="K8" s="3">
         <v>62397900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2748800</v>
+        <v>-2813300</v>
       </c>
       <c r="E15" s="3">
-        <v>-2802700</v>
+        <v>-2868400</v>
       </c>
       <c r="F15" s="3">
-        <v>-2993200</v>
+        <v>-3063400</v>
       </c>
       <c r="G15" s="3">
-        <v>-2418700</v>
+        <v>-2475400</v>
       </c>
       <c r="H15" s="3">
-        <v>-2586300</v>
+        <v>-2646900</v>
       </c>
       <c r="I15" s="3">
-        <v>-2357900</v>
+        <v>-2413200</v>
       </c>
       <c r="J15" s="3">
-        <v>-2411700</v>
+        <v>-2468300</v>
       </c>
       <c r="K15" s="3">
         <v>-2637800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20427700</v>
+        <v>20907000</v>
       </c>
       <c r="E17" s="3">
-        <v>26042100</v>
+        <v>26653100</v>
       </c>
       <c r="F17" s="3">
-        <v>30761800</v>
+        <v>31483500</v>
       </c>
       <c r="G17" s="3">
-        <v>28893700</v>
+        <v>29571600</v>
       </c>
       <c r="H17" s="3">
-        <v>30905400</v>
+        <v>31630500</v>
       </c>
       <c r="I17" s="3">
-        <v>33536600</v>
+        <v>34323400</v>
       </c>
       <c r="J17" s="3">
-        <v>34490100</v>
+        <v>35299300</v>
       </c>
       <c r="K17" s="3">
         <v>37723700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25914400</v>
+        <v>26522400</v>
       </c>
       <c r="E18" s="3">
-        <v>19580000</v>
+        <v>20039300</v>
       </c>
       <c r="F18" s="3">
-        <v>25875500</v>
+        <v>26482600</v>
       </c>
       <c r="G18" s="3">
-        <v>25290100</v>
+        <v>25883400</v>
       </c>
       <c r="H18" s="3">
-        <v>24989900</v>
+        <v>25576100</v>
       </c>
       <c r="I18" s="3">
-        <v>21476000</v>
+        <v>21979900</v>
       </c>
       <c r="J18" s="3">
-        <v>22559200</v>
+        <v>23088500</v>
       </c>
       <c r="K18" s="3">
         <v>24674200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11405300</v>
+        <v>-11672800</v>
       </c>
       <c r="E20" s="3">
-        <v>-21650600</v>
+        <v>-22158500</v>
       </c>
       <c r="F20" s="3">
-        <v>-13365200</v>
+        <v>-13678700</v>
       </c>
       <c r="G20" s="3">
-        <v>-11126000</v>
+        <v>-11387000</v>
       </c>
       <c r="H20" s="3">
-        <v>-12930300</v>
+        <v>-13233700</v>
       </c>
       <c r="I20" s="3">
-        <v>-10736000</v>
+        <v>-10987900</v>
       </c>
       <c r="J20" s="3">
-        <v>-13037000</v>
+        <v>-13342900</v>
       </c>
       <c r="K20" s="3">
         <v>-14259300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17255500</v>
+        <v>17608600</v>
       </c>
       <c r="E21" s="3">
-        <v>729600</v>
+        <v>693900</v>
       </c>
       <c r="F21" s="3">
-        <v>15500900</v>
+        <v>15808200</v>
       </c>
       <c r="G21" s="3">
-        <v>16580600</v>
+        <v>16924000</v>
       </c>
       <c r="H21" s="3">
-        <v>14643500</v>
+        <v>14938300</v>
       </c>
       <c r="I21" s="3">
-        <v>13095700</v>
+        <v>13358600</v>
       </c>
       <c r="J21" s="3">
-        <v>11931700</v>
+        <v>12166200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14509200</v>
+        <v>14849600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2070600</v>
+        <v>-2119200</v>
       </c>
       <c r="F23" s="3">
-        <v>12510400</v>
+        <v>12803900</v>
       </c>
       <c r="G23" s="3">
-        <v>14164100</v>
+        <v>14496400</v>
       </c>
       <c r="H23" s="3">
-        <v>12059600</v>
+        <v>12342500</v>
       </c>
       <c r="I23" s="3">
-        <v>10740000</v>
+        <v>10992000</v>
       </c>
       <c r="J23" s="3">
-        <v>9522200</v>
+        <v>9745600</v>
       </c>
       <c r="K23" s="3">
         <v>10414900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4881300</v>
+        <v>4995800</v>
       </c>
       <c r="E24" s="3">
-        <v>5617400</v>
+        <v>5749100</v>
       </c>
       <c r="F24" s="3">
-        <v>4415500</v>
+        <v>4519100</v>
       </c>
       <c r="G24" s="3">
-        <v>4873300</v>
+        <v>4987600</v>
       </c>
       <c r="H24" s="3">
-        <v>3873900</v>
+        <v>3964800</v>
       </c>
       <c r="I24" s="3">
-        <v>3273500</v>
+        <v>3350300</v>
       </c>
       <c r="J24" s="3">
-        <v>2207200</v>
+        <v>2259000</v>
       </c>
       <c r="K24" s="3">
         <v>2414200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9627900</v>
+        <v>9853800</v>
       </c>
       <c r="E26" s="3">
-        <v>-7688000</v>
+        <v>-7868300</v>
       </c>
       <c r="F26" s="3">
-        <v>8094900</v>
+        <v>8284800</v>
       </c>
       <c r="G26" s="3">
-        <v>9290800</v>
+        <v>9508800</v>
       </c>
       <c r="H26" s="3">
-        <v>8185700</v>
+        <v>8377700</v>
       </c>
       <c r="I26" s="3">
-        <v>7466500</v>
+        <v>7641700</v>
       </c>
       <c r="J26" s="3">
-        <v>7314900</v>
+        <v>7486500</v>
       </c>
       <c r="K26" s="3">
         <v>8000700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8102900</v>
+        <v>8293000</v>
       </c>
       <c r="E27" s="3">
-        <v>-8748200</v>
+        <v>-8953400</v>
       </c>
       <c r="F27" s="3">
-        <v>6498100</v>
+        <v>6650500</v>
       </c>
       <c r="G27" s="3">
-        <v>7789700</v>
+        <v>7972400</v>
       </c>
       <c r="H27" s="3">
-        <v>6601800</v>
+        <v>6756700</v>
       </c>
       <c r="I27" s="3">
-        <v>6187900</v>
+        <v>6333000</v>
       </c>
       <c r="J27" s="3">
-        <v>5675200</v>
+        <v>5808400</v>
       </c>
       <c r="K27" s="3">
         <v>6207300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11405300</v>
+        <v>11672800</v>
       </c>
       <c r="E32" s="3">
-        <v>21650600</v>
+        <v>22158500</v>
       </c>
       <c r="F32" s="3">
-        <v>13365200</v>
+        <v>13678700</v>
       </c>
       <c r="G32" s="3">
-        <v>11126000</v>
+        <v>11387000</v>
       </c>
       <c r="H32" s="3">
-        <v>12930300</v>
+        <v>13233700</v>
       </c>
       <c r="I32" s="3">
-        <v>10736000</v>
+        <v>10987900</v>
       </c>
       <c r="J32" s="3">
-        <v>13037000</v>
+        <v>13342900</v>
       </c>
       <c r="K32" s="3">
         <v>14259300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8102900</v>
+        <v>8293000</v>
       </c>
       <c r="E33" s="3">
-        <v>-8748200</v>
+        <v>-8953400</v>
       </c>
       <c r="F33" s="3">
-        <v>6498100</v>
+        <v>6650500</v>
       </c>
       <c r="G33" s="3">
-        <v>7789700</v>
+        <v>7972400</v>
       </c>
       <c r="H33" s="3">
-        <v>6601800</v>
+        <v>6756700</v>
       </c>
       <c r="I33" s="3">
-        <v>6187900</v>
+        <v>6333000</v>
       </c>
       <c r="J33" s="3">
-        <v>5675200</v>
+        <v>5808400</v>
       </c>
       <c r="K33" s="3">
         <v>6207300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8102900</v>
+        <v>8293000</v>
       </c>
       <c r="E35" s="3">
-        <v>-8748200</v>
+        <v>-8953400</v>
       </c>
       <c r="F35" s="3">
-        <v>6498100</v>
+        <v>6650500</v>
       </c>
       <c r="G35" s="3">
-        <v>7789700</v>
+        <v>7972400</v>
       </c>
       <c r="H35" s="3">
-        <v>6601800</v>
+        <v>6756700</v>
       </c>
       <c r="I35" s="3">
-        <v>6187900</v>
+        <v>6333000</v>
       </c>
       <c r="J35" s="3">
-        <v>5675200</v>
+        <v>5808400</v>
       </c>
       <c r="K35" s="3">
         <v>6207300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225758000</v>
+        <v>231054000</v>
       </c>
       <c r="E41" s="3">
-        <v>165906000</v>
+        <v>169798000</v>
       </c>
       <c r="F41" s="3">
-        <v>119230000</v>
+        <v>122028000</v>
       </c>
       <c r="G41" s="3">
-        <v>128928000</v>
+        <v>131953000</v>
       </c>
       <c r="H41" s="3">
-        <v>136916000</v>
+        <v>140128000</v>
       </c>
       <c r="I41" s="3">
-        <v>104156000</v>
+        <v>106599000</v>
       </c>
       <c r="J41" s="3">
-        <v>131243000</v>
+        <v>134322000</v>
       </c>
       <c r="K41" s="3">
         <v>143547000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>145757000</v>
+        <v>149177000</v>
       </c>
       <c r="E42" s="3">
-        <v>147898000</v>
+        <v>151367000</v>
       </c>
       <c r="F42" s="3">
-        <v>157848000</v>
+        <v>161551000</v>
       </c>
       <c r="G42" s="3">
-        <v>162491000</v>
+        <v>166304000</v>
       </c>
       <c r="H42" s="3">
-        <v>138992000</v>
+        <v>142253000</v>
       </c>
       <c r="I42" s="3">
-        <v>139328000</v>
+        <v>142597000</v>
       </c>
       <c r="J42" s="3">
-        <v>113570000</v>
+        <v>116234000</v>
       </c>
       <c r="K42" s="3">
         <v>124218000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7505400</v>
+        <v>7681500</v>
       </c>
       <c r="E47" s="3">
-        <v>7602200</v>
+        <v>7780500</v>
       </c>
       <c r="F47" s="3">
-        <v>8749200</v>
+        <v>8954500</v>
       </c>
       <c r="G47" s="3">
-        <v>7568300</v>
+        <v>7745800</v>
       </c>
       <c r="H47" s="3">
-        <v>6167900</v>
+        <v>6312600</v>
       </c>
       <c r="I47" s="3">
-        <v>4823400</v>
+        <v>4936600</v>
       </c>
       <c r="J47" s="3">
-        <v>3242500</v>
+        <v>3318600</v>
       </c>
       <c r="K47" s="3">
         <v>3546500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33234400</v>
+        <v>34014100</v>
       </c>
       <c r="E48" s="3">
-        <v>32649900</v>
+        <v>33415900</v>
       </c>
       <c r="F48" s="3">
-        <v>35143400</v>
+        <v>35967900</v>
       </c>
       <c r="G48" s="3">
-        <v>26089000</v>
+        <v>26701100</v>
       </c>
       <c r="H48" s="3">
-        <v>22914300</v>
+        <v>23451900</v>
       </c>
       <c r="I48" s="3">
-        <v>23225500</v>
+        <v>23770300</v>
       </c>
       <c r="J48" s="3">
-        <v>25254200</v>
+        <v>25846700</v>
       </c>
       <c r="K48" s="3">
         <v>27621800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16540900</v>
+        <v>16928900</v>
       </c>
       <c r="E49" s="3">
-        <v>15866600</v>
+        <v>16238900</v>
       </c>
       <c r="F49" s="3">
-        <v>27615000</v>
+        <v>28262900</v>
       </c>
       <c r="G49" s="3">
-        <v>28485700</v>
+        <v>29154000</v>
       </c>
       <c r="H49" s="3">
-        <v>28608400</v>
+        <v>29279600</v>
       </c>
       <c r="I49" s="3">
-        <v>29344500</v>
+        <v>30033000</v>
       </c>
       <c r="J49" s="3">
-        <v>29353500</v>
+        <v>30042100</v>
       </c>
       <c r="K49" s="3">
         <v>32105500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25452700</v>
+        <v>26049800</v>
       </c>
       <c r="E52" s="3">
-        <v>24262800</v>
+        <v>24832000</v>
       </c>
       <c r="F52" s="3">
-        <v>28188500</v>
+        <v>28849800</v>
       </c>
       <c r="G52" s="3">
-        <v>29621800</v>
+        <v>30316700</v>
       </c>
       <c r="H52" s="3">
-        <v>38992400</v>
+        <v>39907200</v>
       </c>
       <c r="I52" s="3">
-        <v>27485400</v>
+        <v>28130200</v>
       </c>
       <c r="J52" s="3">
-        <v>28404000</v>
+        <v>29070300</v>
       </c>
       <c r="K52" s="3">
         <v>31066900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1591690000</v>
+        <v>1629030000</v>
       </c>
       <c r="E54" s="3">
-        <v>1504330000</v>
+        <v>1539620000</v>
       </c>
       <c r="F54" s="3">
-        <v>1518740000</v>
+        <v>1554370000</v>
       </c>
       <c r="G54" s="3">
-        <v>1455480000</v>
+        <v>1489620000</v>
       </c>
       <c r="H54" s="3">
-        <v>1440550000</v>
+        <v>1474350000</v>
       </c>
       <c r="I54" s="3">
-        <v>1335640000</v>
+        <v>1366980000</v>
       </c>
       <c r="J54" s="3">
-        <v>1336780000</v>
+        <v>1368140000</v>
       </c>
       <c r="K54" s="3">
         <v>1462100000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2181300</v>
+        <v>2232500</v>
       </c>
       <c r="E59" s="3">
-        <v>2342900</v>
+        <v>2397900</v>
       </c>
       <c r="F59" s="3">
-        <v>2792700</v>
+        <v>2858200</v>
       </c>
       <c r="G59" s="3">
-        <v>2560300</v>
+        <v>2620400</v>
       </c>
       <c r="H59" s="3">
-        <v>2747800</v>
+        <v>2812300</v>
       </c>
       <c r="I59" s="3">
-        <v>2672000</v>
+        <v>2734700</v>
       </c>
       <c r="J59" s="3">
-        <v>2154400</v>
+        <v>2204900</v>
       </c>
       <c r="K59" s="3">
         <v>2356400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>245523000</v>
+        <v>251283000</v>
       </c>
       <c r="E61" s="3">
-        <v>234657000</v>
+        <v>240163000</v>
       </c>
       <c r="F61" s="3">
-        <v>261296000</v>
+        <v>267426000</v>
       </c>
       <c r="G61" s="3">
-        <v>245978000</v>
+        <v>251749000</v>
       </c>
       <c r="H61" s="3">
-        <v>217399000</v>
+        <v>222500000</v>
       </c>
       <c r="I61" s="3">
-        <v>228274000</v>
+        <v>233630000</v>
       </c>
       <c r="J61" s="3">
-        <v>225594000</v>
+        <v>230887000</v>
       </c>
       <c r="K61" s="3">
         <v>246744000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16003300</v>
+        <v>16378700</v>
       </c>
       <c r="E62" s="3">
-        <v>16741400</v>
+        <v>17134100</v>
       </c>
       <c r="F62" s="3">
-        <v>20455700</v>
+        <v>20935600</v>
       </c>
       <c r="G62" s="3">
-        <v>18744100</v>
+        <v>19183900</v>
       </c>
       <c r="H62" s="3">
-        <v>19275800</v>
+        <v>19728000</v>
       </c>
       <c r="I62" s="3">
-        <v>20100600</v>
+        <v>20572200</v>
       </c>
       <c r="J62" s="3">
-        <v>20006800</v>
+        <v>20476200</v>
       </c>
       <c r="K62" s="3">
         <v>21882600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1504980000</v>
+        <v>1540290000</v>
       </c>
       <c r="E66" s="3">
-        <v>1423060000</v>
+        <v>1456450000</v>
       </c>
       <c r="F66" s="3">
-        <v>1418930000</v>
+        <v>1452210000</v>
       </c>
       <c r="G66" s="3">
-        <v>1359260000</v>
+        <v>1391150000</v>
       </c>
       <c r="H66" s="3">
-        <v>1346310000</v>
+        <v>1377890000</v>
       </c>
       <c r="I66" s="3">
-        <v>1244940000</v>
+        <v>1274150000</v>
       </c>
       <c r="J66" s="3">
-        <v>1248960000</v>
+        <v>1278270000</v>
       </c>
       <c r="K66" s="3">
         <v>1366060000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>68219200</v>
+        <v>69819700</v>
       </c>
       <c r="E72" s="3">
-        <v>56664300</v>
+        <v>57993700</v>
       </c>
       <c r="F72" s="3">
-        <v>67367400</v>
+        <v>68947900</v>
       </c>
       <c r="G72" s="3">
-        <v>64398100</v>
+        <v>65909000</v>
       </c>
       <c r="H72" s="3">
-        <v>59899900</v>
+        <v>61305200</v>
       </c>
       <c r="I72" s="3">
-        <v>56011000</v>
+        <v>57325100</v>
       </c>
       <c r="J72" s="3">
-        <v>51591500</v>
+        <v>52801900</v>
       </c>
       <c r="K72" s="3">
         <v>56428400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>86704000</v>
+        <v>88738100</v>
       </c>
       <c r="E76" s="3">
-        <v>81264200</v>
+        <v>83170700</v>
       </c>
       <c r="F76" s="3">
-        <v>99810800</v>
+        <v>102153000</v>
       </c>
       <c r="G76" s="3">
-        <v>96221200</v>
+        <v>98478600</v>
       </c>
       <c r="H76" s="3">
-        <v>94243300</v>
+        <v>96454400</v>
       </c>
       <c r="I76" s="3">
-        <v>90701600</v>
+        <v>92829500</v>
       </c>
       <c r="J76" s="3">
-        <v>87811100</v>
+        <v>89871200</v>
       </c>
       <c r="K76" s="3">
         <v>96043700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8102900</v>
+        <v>8293000</v>
       </c>
       <c r="E81" s="3">
-        <v>-8748200</v>
+        <v>-8953400</v>
       </c>
       <c r="F81" s="3">
-        <v>6498100</v>
+        <v>6650500</v>
       </c>
       <c r="G81" s="3">
-        <v>7789700</v>
+        <v>7972400</v>
       </c>
       <c r="H81" s="3">
-        <v>6601800</v>
+        <v>6756700</v>
       </c>
       <c r="I81" s="3">
-        <v>6187900</v>
+        <v>6333000</v>
       </c>
       <c r="J81" s="3">
-        <v>5675200</v>
+        <v>5808400</v>
       </c>
       <c r="K81" s="3">
         <v>6207300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2748800</v>
+        <v>2813300</v>
       </c>
       <c r="E83" s="3">
-        <v>2802700</v>
+        <v>2868400</v>
       </c>
       <c r="F83" s="3">
-        <v>2993200</v>
+        <v>3063400</v>
       </c>
       <c r="G83" s="3">
-        <v>2418700</v>
+        <v>2475400</v>
       </c>
       <c r="H83" s="3">
-        <v>2586300</v>
+        <v>2646900</v>
       </c>
       <c r="I83" s="3">
-        <v>2357900</v>
+        <v>2413200</v>
       </c>
       <c r="J83" s="3">
-        <v>2411700</v>
+        <v>2468300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>56543600</v>
+        <v>57870200</v>
       </c>
       <c r="E89" s="3">
-        <v>65981000</v>
+        <v>67529000</v>
       </c>
       <c r="F89" s="3">
-        <v>3380200</v>
+        <v>3459500</v>
       </c>
       <c r="G89" s="3">
-        <v>3407100</v>
+        <v>3487100</v>
       </c>
       <c r="H89" s="3">
-        <v>40083500</v>
+        <v>41023900</v>
       </c>
       <c r="I89" s="3">
-        <v>21766300</v>
+        <v>22276900</v>
       </c>
       <c r="J89" s="3">
-        <v>5663200</v>
+        <v>5796100</v>
       </c>
       <c r="K89" s="3">
         <v>-4297100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9989000</v>
+        <v>-10223300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7366800</v>
+        <v>-7539600</v>
       </c>
       <c r="F91" s="3">
-        <v>-12732800</v>
+        <v>-13031500</v>
       </c>
       <c r="G91" s="3">
-        <v>-10698100</v>
+        <v>-10949100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7430600</v>
+        <v>-7605000</v>
       </c>
       <c r="I91" s="3">
-        <v>-6554900</v>
+        <v>-6708700</v>
       </c>
       <c r="J91" s="3">
-        <v>-7644100</v>
+        <v>-7823400</v>
       </c>
       <c r="K91" s="3">
         <v>-7303600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3705300</v>
+        <v>-3792300</v>
       </c>
       <c r="E94" s="3">
-        <v>-7201200</v>
+        <v>-7370200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7210200</v>
+        <v>-7379400</v>
       </c>
       <c r="G94" s="3">
-        <v>3139800</v>
+        <v>3213500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3997600</v>
+        <v>-4091400</v>
       </c>
       <c r="I94" s="3">
-        <v>-13728200</v>
+        <v>-14050300</v>
       </c>
       <c r="J94" s="3">
-        <v>-6201800</v>
+        <v>-6347300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1309600</v>
+        <v>-1340300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-3763200</v>
+        <v>-3851500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3109900</v>
+        <v>-3182900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2658100</v>
+        <v>-2720400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2303000</v>
+        <v>-2357000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1494100</v>
+        <v>-1529200</v>
       </c>
       <c r="K96" s="3">
         <v>-991600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1318600</v>
+        <v>-1349500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1904000</v>
+        <v>-1948700</v>
       </c>
       <c r="F100" s="3">
-        <v>-10095700</v>
+        <v>-10332500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3292400</v>
+        <v>-3369700</v>
       </c>
       <c r="H100" s="3">
-        <v>4195100</v>
+        <v>4293500</v>
       </c>
       <c r="I100" s="3">
-        <v>-5730100</v>
+        <v>-5864500</v>
       </c>
       <c r="J100" s="3">
-        <v>8936700</v>
+        <v>9146400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5182500</v>
+        <v>5304100</v>
       </c>
       <c r="E101" s="3">
-        <v>-4240900</v>
+        <v>-4340400</v>
       </c>
       <c r="F101" s="3">
-        <v>1362400</v>
+        <v>1394400</v>
       </c>
       <c r="G101" s="3">
-        <v>-593500</v>
+        <v>-607400</v>
       </c>
       <c r="H101" s="3">
-        <v>-5829800</v>
+        <v>-5966600</v>
       </c>
       <c r="I101" s="3">
-        <v>-3601600</v>
+        <v>-3686100</v>
       </c>
       <c r="J101" s="3">
-        <v>-520600</v>
+        <v>-532900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>56702200</v>
+        <v>58032500</v>
       </c>
       <c r="E102" s="3">
-        <v>52634800</v>
+        <v>53869700</v>
       </c>
       <c r="F102" s="3">
-        <v>-12563300</v>
+        <v>-12858000</v>
       </c>
       <c r="G102" s="3">
-        <v>2661100</v>
+        <v>2723500</v>
       </c>
       <c r="H102" s="3">
-        <v>34451200</v>
+        <v>35259500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1293600</v>
+        <v>-1324000</v>
       </c>
       <c r="J102" s="3">
-        <v>7877500</v>
+        <v>8062300</v>
       </c>
       <c r="K102" s="3">
         <v>-8372700</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47429400</v>
+        <v>75572900</v>
       </c>
       <c r="E8" s="3">
-        <v>46692400</v>
+        <v>49157900</v>
       </c>
       <c r="F8" s="3">
-        <v>57966100</v>
+        <v>48394000</v>
       </c>
       <c r="G8" s="3">
-        <v>55455000</v>
+        <v>60078500</v>
       </c>
       <c r="H8" s="3">
-        <v>57206700</v>
+        <v>57475900</v>
       </c>
       <c r="I8" s="3">
-        <v>56303200</v>
+        <v>59291400</v>
       </c>
       <c r="J8" s="3">
+        <v>58355000</v>
+      </c>
+      <c r="K8" s="3">
         <v>58387700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>62397900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61540900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56488800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71154000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2813300</v>
+        <v>-3158100</v>
       </c>
       <c r="E15" s="3">
-        <v>-2868400</v>
+        <v>-2915800</v>
       </c>
       <c r="F15" s="3">
-        <v>-3063400</v>
+        <v>-2973000</v>
       </c>
       <c r="G15" s="3">
-        <v>-2475400</v>
+        <v>-3175100</v>
       </c>
       <c r="H15" s="3">
-        <v>-2646900</v>
+        <v>-2565700</v>
       </c>
       <c r="I15" s="3">
-        <v>-2413200</v>
+        <v>-2743400</v>
       </c>
       <c r="J15" s="3">
+        <v>-2501100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2468300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2637800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2860100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-2625300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-2462700</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20907000</v>
+        <v>46199700</v>
       </c>
       <c r="E17" s="3">
-        <v>26653100</v>
+        <v>21668900</v>
       </c>
       <c r="F17" s="3">
-        <v>31483500</v>
+        <v>27624400</v>
       </c>
       <c r="G17" s="3">
-        <v>29571600</v>
+        <v>32630800</v>
       </c>
       <c r="H17" s="3">
-        <v>31630500</v>
+        <v>30649200</v>
       </c>
       <c r="I17" s="3">
-        <v>34323400</v>
+        <v>32783200</v>
       </c>
       <c r="J17" s="3">
+        <v>35574200</v>
+      </c>
+      <c r="K17" s="3">
         <v>35299300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37723700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43658900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40074800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48114500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26522400</v>
+        <v>29373300</v>
       </c>
       <c r="E18" s="3">
-        <v>20039300</v>
+        <v>27489000</v>
       </c>
       <c r="F18" s="3">
-        <v>26482600</v>
+        <v>20769600</v>
       </c>
       <c r="G18" s="3">
-        <v>25883400</v>
+        <v>27447700</v>
       </c>
       <c r="H18" s="3">
-        <v>25576100</v>
+        <v>26826600</v>
       </c>
       <c r="I18" s="3">
-        <v>21979900</v>
+        <v>26508200</v>
       </c>
       <c r="J18" s="3">
+        <v>22780900</v>
+      </c>
+      <c r="K18" s="3">
         <v>23088500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24674200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17882000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16414000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23039500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11672800</v>
+        <v>-13238800</v>
       </c>
       <c r="E20" s="3">
-        <v>-22158500</v>
+        <v>-12098200</v>
       </c>
       <c r="F20" s="3">
-        <v>-13678700</v>
+        <v>-22966000</v>
       </c>
       <c r="G20" s="3">
-        <v>-11387000</v>
+        <v>-14177200</v>
       </c>
       <c r="H20" s="3">
-        <v>-13233700</v>
+        <v>-11802000</v>
       </c>
       <c r="I20" s="3">
-        <v>-10987900</v>
+        <v>-13715900</v>
       </c>
       <c r="J20" s="3">
+        <v>-11388300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13342900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14259300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9056400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8313000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13815700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17608600</v>
+        <v>19281900</v>
       </c>
       <c r="E21" s="3">
-        <v>693900</v>
+        <v>18296700</v>
       </c>
       <c r="F21" s="3">
-        <v>15808200</v>
+        <v>766500</v>
       </c>
       <c r="G21" s="3">
-        <v>16924000</v>
+        <v>16434700</v>
       </c>
       <c r="H21" s="3">
-        <v>14938300</v>
+        <v>17581600</v>
       </c>
       <c r="I21" s="3">
-        <v>13358600</v>
+        <v>15526300</v>
       </c>
       <c r="J21" s="3">
+        <v>13885100</v>
+      </c>
+      <c r="K21" s="3">
         <v>12166200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>11674000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>11688100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14849600</v>
+        <v>16134500</v>
       </c>
       <c r="E23" s="3">
-        <v>-2119200</v>
+        <v>15390700</v>
       </c>
       <c r="F23" s="3">
-        <v>12803900</v>
+        <v>-2196400</v>
       </c>
       <c r="G23" s="3">
-        <v>14496400</v>
+        <v>13270500</v>
       </c>
       <c r="H23" s="3">
-        <v>12342500</v>
+        <v>15024700</v>
       </c>
       <c r="I23" s="3">
-        <v>10992000</v>
+        <v>12792300</v>
       </c>
       <c r="J23" s="3">
+        <v>11392500</v>
+      </c>
+      <c r="K23" s="3">
         <v>9745600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10414900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8825600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8101000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9223800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4995800</v>
+        <v>4746200</v>
       </c>
       <c r="E24" s="3">
-        <v>5749100</v>
+        <v>5177900</v>
       </c>
       <c r="F24" s="3">
-        <v>4519100</v>
+        <v>5958700</v>
       </c>
       <c r="G24" s="3">
-        <v>4987600</v>
+        <v>4683800</v>
       </c>
       <c r="H24" s="3">
-        <v>3964800</v>
+        <v>5169400</v>
       </c>
       <c r="I24" s="3">
-        <v>3350300</v>
+        <v>4109300</v>
       </c>
       <c r="J24" s="3">
+        <v>3472400</v>
+      </c>
+      <c r="K24" s="3">
         <v>2259000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2414200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2433100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2233300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2060000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9853800</v>
+        <v>11388300</v>
       </c>
       <c r="E26" s="3">
-        <v>-7868300</v>
+        <v>10212900</v>
       </c>
       <c r="F26" s="3">
-        <v>8284800</v>
+        <v>-8155100</v>
       </c>
       <c r="G26" s="3">
-        <v>9508800</v>
+        <v>8586700</v>
       </c>
       <c r="H26" s="3">
-        <v>8377700</v>
+        <v>9855300</v>
       </c>
       <c r="I26" s="3">
-        <v>7641700</v>
+        <v>8683000</v>
       </c>
       <c r="J26" s="3">
+        <v>7920200</v>
+      </c>
+      <c r="K26" s="3">
         <v>7486500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6392500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5867700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7163800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8293000</v>
+        <v>10162100</v>
       </c>
       <c r="E27" s="3">
-        <v>-8953400</v>
+        <v>8595200</v>
       </c>
       <c r="F27" s="3">
-        <v>6650500</v>
+        <v>-9279700</v>
       </c>
       <c r="G27" s="3">
-        <v>7972400</v>
+        <v>6892900</v>
       </c>
       <c r="H27" s="3">
-        <v>6756700</v>
+        <v>8263000</v>
       </c>
       <c r="I27" s="3">
-        <v>6333000</v>
+        <v>7002900</v>
       </c>
       <c r="J27" s="3">
+        <v>6563800</v>
+      </c>
+      <c r="K27" s="3">
         <v>5808400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6207300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5012100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4600600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6238800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,29 +1523,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-17900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-16500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>17600</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11672800</v>
+        <v>13238800</v>
       </c>
       <c r="E32" s="3">
-        <v>22158500</v>
+        <v>12098200</v>
       </c>
       <c r="F32" s="3">
-        <v>13678700</v>
+        <v>22966000</v>
       </c>
       <c r="G32" s="3">
-        <v>11387000</v>
+        <v>14177200</v>
       </c>
       <c r="H32" s="3">
-        <v>13233700</v>
+        <v>11802000</v>
       </c>
       <c r="I32" s="3">
-        <v>10987900</v>
+        <v>13715900</v>
       </c>
       <c r="J32" s="3">
+        <v>11388300</v>
+      </c>
+      <c r="K32" s="3">
         <v>13342900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14259300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9056400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8313000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13815700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8293000</v>
+        <v>10162100</v>
       </c>
       <c r="E33" s="3">
-        <v>-8953400</v>
+        <v>8595200</v>
       </c>
       <c r="F33" s="3">
-        <v>6650500</v>
+        <v>-9279700</v>
       </c>
       <c r="G33" s="3">
-        <v>7972400</v>
+        <v>6892900</v>
       </c>
       <c r="H33" s="3">
-        <v>6756700</v>
+        <v>8263000</v>
       </c>
       <c r="I33" s="3">
-        <v>6333000</v>
+        <v>7002900</v>
       </c>
       <c r="J33" s="3">
+        <v>6563800</v>
+      </c>
+      <c r="K33" s="3">
         <v>5808400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6207300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4994100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4584200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6256400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8293000</v>
+        <v>10162100</v>
       </c>
       <c r="E35" s="3">
-        <v>-8953400</v>
+        <v>8595200</v>
       </c>
       <c r="F35" s="3">
-        <v>6650500</v>
+        <v>-9279700</v>
       </c>
       <c r="G35" s="3">
-        <v>7972400</v>
+        <v>6892900</v>
       </c>
       <c r="H35" s="3">
-        <v>6756700</v>
+        <v>8263000</v>
       </c>
       <c r="I35" s="3">
-        <v>6333000</v>
+        <v>7002900</v>
       </c>
       <c r="J35" s="3">
+        <v>6563800</v>
+      </c>
+      <c r="K35" s="3">
         <v>5808400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6207300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4994100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4584200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6256400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>231054000</v>
+        <v>252278000</v>
       </c>
       <c r="E41" s="3">
-        <v>169798000</v>
+        <v>239474000</v>
       </c>
       <c r="F41" s="3">
-        <v>122028000</v>
+        <v>175986000</v>
       </c>
       <c r="G41" s="3">
-        <v>131953000</v>
+        <v>126474000</v>
       </c>
       <c r="H41" s="3">
-        <v>140128000</v>
+        <v>136761000</v>
       </c>
       <c r="I41" s="3">
-        <v>106599000</v>
+        <v>145235000</v>
       </c>
       <c r="J41" s="3">
+        <v>110484000</v>
+      </c>
+      <c r="K41" s="3">
         <v>134322000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143547000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159238000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>189156000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>163058000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149177000</v>
+        <v>228282000</v>
       </c>
       <c r="E42" s="3">
-        <v>151367000</v>
+        <v>154613000</v>
       </c>
       <c r="F42" s="3">
-        <v>161551000</v>
+        <v>156883000</v>
       </c>
       <c r="G42" s="3">
-        <v>166304000</v>
+        <v>167438000</v>
       </c>
       <c r="H42" s="3">
-        <v>142253000</v>
+        <v>172364000</v>
       </c>
       <c r="I42" s="3">
-        <v>142597000</v>
+        <v>147437000</v>
       </c>
       <c r="J42" s="3">
+        <v>147793000</v>
+      </c>
+      <c r="K42" s="3">
         <v>116234000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>124218000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114921000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>219900000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>223436000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7681500</v>
+        <v>8056700</v>
       </c>
       <c r="E47" s="3">
-        <v>7780500</v>
+        <v>7961500</v>
       </c>
       <c r="F47" s="3">
-        <v>8954500</v>
+        <v>8064100</v>
       </c>
       <c r="G47" s="3">
-        <v>7745800</v>
+        <v>9280800</v>
       </c>
       <c r="H47" s="3">
-        <v>6312600</v>
+        <v>8028100</v>
       </c>
       <c r="I47" s="3">
-        <v>4936600</v>
+        <v>6542700</v>
       </c>
       <c r="J47" s="3">
+        <v>5116500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3318600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3546500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10661700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4890500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4877200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34014100</v>
+        <v>36049200</v>
       </c>
       <c r="E48" s="3">
-        <v>33415900</v>
+        <v>35253600</v>
       </c>
       <c r="F48" s="3">
-        <v>35967900</v>
+        <v>34633600</v>
       </c>
       <c r="G48" s="3">
-        <v>26701100</v>
+        <v>37278600</v>
       </c>
       <c r="H48" s="3">
-        <v>23451900</v>
+        <v>27674100</v>
       </c>
       <c r="I48" s="3">
-        <v>23770300</v>
+        <v>24306500</v>
       </c>
       <c r="J48" s="3">
+        <v>24636600</v>
+      </c>
+      <c r="K48" s="3">
         <v>25846700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27621800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38028400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15218300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16252600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16928900</v>
+        <v>19726400</v>
       </c>
       <c r="E49" s="3">
-        <v>16238900</v>
+        <v>17545900</v>
       </c>
       <c r="F49" s="3">
-        <v>28262900</v>
+        <v>16830700</v>
       </c>
       <c r="G49" s="3">
-        <v>29154000</v>
+        <v>29292800</v>
       </c>
       <c r="H49" s="3">
-        <v>29279600</v>
+        <v>30216500</v>
       </c>
       <c r="I49" s="3">
-        <v>30033000</v>
+        <v>30346600</v>
       </c>
       <c r="J49" s="3">
+        <v>31127400</v>
+      </c>
+      <c r="K49" s="3">
         <v>30042100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32105500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60412900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30812100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>32964100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26049800</v>
+        <v>27068900</v>
       </c>
       <c r="E52" s="3">
-        <v>24832000</v>
+        <v>26999100</v>
       </c>
       <c r="F52" s="3">
-        <v>28849800</v>
+        <v>25736900</v>
       </c>
       <c r="G52" s="3">
-        <v>30316700</v>
+        <v>29901200</v>
       </c>
       <c r="H52" s="3">
-        <v>39907200</v>
+        <v>31421500</v>
       </c>
       <c r="I52" s="3">
-        <v>28130200</v>
+        <v>41361500</v>
       </c>
       <c r="J52" s="3">
+        <v>29155300</v>
+      </c>
+      <c r="K52" s="3">
         <v>29070300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31066900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31381100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29252900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29758400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1629030000</v>
+        <v>1835270000</v>
       </c>
       <c r="E54" s="3">
-        <v>1539620000</v>
+        <v>1688390000</v>
       </c>
       <c r="F54" s="3">
-        <v>1554370000</v>
+        <v>1595730000</v>
       </c>
       <c r="G54" s="3">
-        <v>1489620000</v>
+        <v>1611010000</v>
       </c>
       <c r="H54" s="3">
-        <v>1474350000</v>
+        <v>1543910000</v>
       </c>
       <c r="I54" s="3">
-        <v>1366980000</v>
+        <v>1528070000</v>
       </c>
       <c r="J54" s="3">
+        <v>1416790000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1368140000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1462100000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1334680000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1394020000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1468450000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +2527,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2436,9 +2566,12 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2232500</v>
+        <v>3216300</v>
       </c>
       <c r="E59" s="3">
-        <v>2397900</v>
+        <v>2313800</v>
       </c>
       <c r="F59" s="3">
-        <v>2858200</v>
+        <v>2485200</v>
       </c>
       <c r="G59" s="3">
-        <v>2620400</v>
+        <v>2962400</v>
       </c>
       <c r="H59" s="3">
-        <v>2812300</v>
+        <v>2715900</v>
       </c>
       <c r="I59" s="3">
-        <v>2734700</v>
+        <v>2914800</v>
       </c>
       <c r="J59" s="3">
+        <v>2834400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2204900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2356400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5088600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5667900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5987600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>251283000</v>
+        <v>296599000</v>
       </c>
       <c r="E61" s="3">
-        <v>240163000</v>
+        <v>260441000</v>
       </c>
       <c r="F61" s="3">
-        <v>267426000</v>
+        <v>248915000</v>
       </c>
       <c r="G61" s="3">
-        <v>251749000</v>
+        <v>277172000</v>
       </c>
       <c r="H61" s="3">
-        <v>222500000</v>
+        <v>260923000</v>
       </c>
       <c r="I61" s="3">
-        <v>233630000</v>
+        <v>230608000</v>
       </c>
       <c r="J61" s="3">
+        <v>242143000</v>
+      </c>
+      <c r="K61" s="3">
         <v>230887000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>246744000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229210000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>246179000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258666000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16378700</v>
+        <v>15422500</v>
       </c>
       <c r="E62" s="3">
-        <v>17134100</v>
+        <v>16975600</v>
       </c>
       <c r="F62" s="3">
-        <v>20935600</v>
+        <v>17758500</v>
       </c>
       <c r="G62" s="3">
-        <v>19183900</v>
+        <v>21698500</v>
       </c>
       <c r="H62" s="3">
-        <v>19728000</v>
+        <v>19883000</v>
       </c>
       <c r="I62" s="3">
-        <v>20572200</v>
+        <v>20446900</v>
       </c>
       <c r="J62" s="3">
+        <v>21321900</v>
+      </c>
+      <c r="K62" s="3">
         <v>20476200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21882600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36961400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20588600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23680400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1540290000</v>
+        <v>1741000000</v>
       </c>
       <c r="E66" s="3">
-        <v>1456450000</v>
+        <v>1596420000</v>
       </c>
       <c r="F66" s="3">
-        <v>1452210000</v>
+        <v>1509530000</v>
       </c>
       <c r="G66" s="3">
-        <v>1391150000</v>
+        <v>1505140000</v>
       </c>
       <c r="H66" s="3">
-        <v>1377890000</v>
+        <v>1441840000</v>
       </c>
       <c r="I66" s="3">
-        <v>1274150000</v>
+        <v>1428110000</v>
       </c>
       <c r="J66" s="3">
+        <v>1320580000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1278270000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1366060000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1250550000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1315120000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1381050000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>69819700</v>
+        <v>80732800</v>
       </c>
       <c r="E72" s="3">
-        <v>57993700</v>
+        <v>72364000</v>
       </c>
       <c r="F72" s="3">
-        <v>68947900</v>
+        <v>60107100</v>
       </c>
       <c r="G72" s="3">
-        <v>65909000</v>
+        <v>71460500</v>
       </c>
       <c r="H72" s="3">
-        <v>61305200</v>
+        <v>68310800</v>
       </c>
       <c r="I72" s="3">
-        <v>57325100</v>
+        <v>63539200</v>
       </c>
       <c r="J72" s="3">
+        <v>59414100</v>
+      </c>
+      <c r="K72" s="3">
         <v>52801900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56428400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>140362000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42600200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43125800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88738100</v>
+        <v>94272000</v>
       </c>
       <c r="E76" s="3">
-        <v>83170700</v>
+        <v>91971900</v>
       </c>
       <c r="F76" s="3">
-        <v>102153000</v>
+        <v>86201600</v>
       </c>
       <c r="G76" s="3">
-        <v>98478600</v>
+        <v>105875000</v>
       </c>
       <c r="H76" s="3">
-        <v>96454400</v>
+        <v>102067000</v>
       </c>
       <c r="I76" s="3">
-        <v>92829500</v>
+        <v>99969400</v>
       </c>
       <c r="J76" s="3">
+        <v>96212400</v>
+      </c>
+      <c r="K76" s="3">
         <v>89871200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96043700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84126400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78902300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87401900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8293000</v>
+        <v>10162100</v>
       </c>
       <c r="E81" s="3">
-        <v>-8953400</v>
+        <v>8595200</v>
       </c>
       <c r="F81" s="3">
-        <v>6650500</v>
+        <v>-9279700</v>
       </c>
       <c r="G81" s="3">
-        <v>7972400</v>
+        <v>6892900</v>
       </c>
       <c r="H81" s="3">
-        <v>6756700</v>
+        <v>8263000</v>
       </c>
       <c r="I81" s="3">
-        <v>6333000</v>
+        <v>7002900</v>
       </c>
       <c r="J81" s="3">
+        <v>6563800</v>
+      </c>
+      <c r="K81" s="3">
         <v>5808400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6207300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4994100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4584200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6256400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2813300</v>
+        <v>3158100</v>
       </c>
       <c r="E83" s="3">
-        <v>2868400</v>
+        <v>2915800</v>
       </c>
       <c r="F83" s="3">
-        <v>3063400</v>
+        <v>2973000</v>
       </c>
       <c r="G83" s="3">
-        <v>2475400</v>
+        <v>3175100</v>
       </c>
       <c r="H83" s="3">
-        <v>2646900</v>
+        <v>2565700</v>
       </c>
       <c r="I83" s="3">
-        <v>2413200</v>
+        <v>2743400</v>
       </c>
       <c r="J83" s="3">
+        <v>2501100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2468300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>2860100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>2462700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>57870200</v>
+        <v>29312900</v>
       </c>
       <c r="E89" s="3">
-        <v>67529000</v>
+        <v>59979100</v>
       </c>
       <c r="F89" s="3">
-        <v>3459500</v>
+        <v>69989900</v>
       </c>
       <c r="G89" s="3">
-        <v>3487100</v>
+        <v>3585600</v>
       </c>
       <c r="H89" s="3">
-        <v>41023900</v>
+        <v>3614100</v>
       </c>
       <c r="I89" s="3">
-        <v>22276900</v>
+        <v>42518900</v>
       </c>
       <c r="J89" s="3">
+        <v>23088700</v>
+      </c>
+      <c r="K89" s="3">
         <v>5796100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4297100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-41690000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26498000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42143300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10223300</v>
+        <v>-9591800</v>
       </c>
       <c r="E91" s="3">
-        <v>-7539600</v>
+        <v>-10595900</v>
       </c>
       <c r="F91" s="3">
-        <v>-13031500</v>
+        <v>-7814400</v>
       </c>
       <c r="G91" s="3">
-        <v>-10949100</v>
+        <v>-13506400</v>
       </c>
       <c r="H91" s="3">
-        <v>-7605000</v>
+        <v>-11348100</v>
       </c>
       <c r="I91" s="3">
-        <v>-6708700</v>
+        <v>-7882100</v>
       </c>
       <c r="J91" s="3">
+        <v>-6953200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7823400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7303600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2245300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2372800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3988600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3792300</v>
+        <v>-4124100</v>
       </c>
       <c r="E94" s="3">
-        <v>-7370200</v>
+        <v>-3930500</v>
       </c>
       <c r="F94" s="3">
-        <v>-7379400</v>
+        <v>-7638800</v>
       </c>
       <c r="G94" s="3">
-        <v>3213500</v>
+        <v>-7648300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4091400</v>
+        <v>3330600</v>
       </c>
       <c r="I94" s="3">
-        <v>-14050300</v>
+        <v>-4240500</v>
       </c>
       <c r="J94" s="3">
+        <v>-14562300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6347300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>809800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-8226100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1340300</v>
+        <v>-1955200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1389200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3851500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-3182900</v>
+        <v>-3991800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2720400</v>
+        <v>-3298800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2357000</v>
+        <v>-2819600</v>
       </c>
       <c r="J96" s="3">
+        <v>-2442900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1529200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-991600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-978500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1413100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4095400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1349500</v>
+        <v>-10551400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1948700</v>
+        <v>-1398700</v>
       </c>
       <c r="F100" s="3">
-        <v>-10332500</v>
+        <v>-2019700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3369700</v>
+        <v>-10709100</v>
       </c>
       <c r="H100" s="3">
-        <v>4293500</v>
+        <v>-3492500</v>
       </c>
       <c r="I100" s="3">
-        <v>-5864500</v>
+        <v>4449900</v>
       </c>
       <c r="J100" s="3">
+        <v>-6078200</v>
+      </c>
+      <c r="K100" s="3">
         <v>9146400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2004800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-9520800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5304100</v>
+        <v>-1544700</v>
       </c>
       <c r="E101" s="3">
-        <v>-4340400</v>
+        <v>5497400</v>
       </c>
       <c r="F101" s="3">
-        <v>1394400</v>
+        <v>-4498600</v>
       </c>
       <c r="G101" s="3">
-        <v>-607400</v>
+        <v>1445200</v>
       </c>
       <c r="H101" s="3">
-        <v>-5966600</v>
+        <v>-629500</v>
       </c>
       <c r="I101" s="3">
-        <v>-3686100</v>
+        <v>-6184000</v>
       </c>
       <c r="J101" s="3">
+        <v>-3820400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-532900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-6619800</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-2401600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>58032500</v>
+        <v>13102300</v>
       </c>
       <c r="E102" s="3">
-        <v>53869700</v>
+        <v>60147300</v>
       </c>
       <c r="F102" s="3">
-        <v>-12858000</v>
+        <v>55832800</v>
       </c>
       <c r="G102" s="3">
-        <v>2723500</v>
+        <v>-13326600</v>
       </c>
       <c r="H102" s="3">
-        <v>35259500</v>
+        <v>2822700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1324000</v>
+        <v>36544400</v>
       </c>
       <c r="J102" s="3">
+        <v>-1372200</v>
+      </c>
+      <c r="K102" s="3">
         <v>8062300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8372700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-49504700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24116500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21994900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75572900</v>
+        <v>76923000</v>
       </c>
       <c r="E8" s="3">
-        <v>49157900</v>
+        <v>50036000</v>
       </c>
       <c r="F8" s="3">
-        <v>48394000</v>
+        <v>49258500</v>
       </c>
       <c r="G8" s="3">
-        <v>60078500</v>
+        <v>61151800</v>
       </c>
       <c r="H8" s="3">
-        <v>57475900</v>
+        <v>58502600</v>
       </c>
       <c r="I8" s="3">
-        <v>59291400</v>
+        <v>60350600</v>
       </c>
       <c r="J8" s="3">
-        <v>58355000</v>
+        <v>59397500</v>
       </c>
       <c r="K8" s="3">
         <v>58387700</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3158100</v>
+        <v>-3214500</v>
       </c>
       <c r="E15" s="3">
-        <v>-2915800</v>
+        <v>-2967900</v>
       </c>
       <c r="F15" s="3">
-        <v>-2973000</v>
+        <v>-3026100</v>
       </c>
       <c r="G15" s="3">
-        <v>-3175100</v>
+        <v>-3231800</v>
       </c>
       <c r="H15" s="3">
-        <v>-2565700</v>
+        <v>-2611500</v>
       </c>
       <c r="I15" s="3">
-        <v>-2743400</v>
+        <v>-2792400</v>
       </c>
       <c r="J15" s="3">
-        <v>-2501100</v>
+        <v>-2545800</v>
       </c>
       <c r="K15" s="3">
         <v>-2468300</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46199700</v>
+        <v>47025000</v>
       </c>
       <c r="E17" s="3">
-        <v>21668900</v>
+        <v>22056000</v>
       </c>
       <c r="F17" s="3">
-        <v>27624400</v>
+        <v>28117900</v>
       </c>
       <c r="G17" s="3">
-        <v>32630800</v>
+        <v>33213700</v>
       </c>
       <c r="H17" s="3">
-        <v>30649200</v>
+        <v>31196700</v>
       </c>
       <c r="I17" s="3">
-        <v>32783200</v>
+        <v>33368800</v>
       </c>
       <c r="J17" s="3">
-        <v>35574200</v>
+        <v>36209700</v>
       </c>
       <c r="K17" s="3">
         <v>35299300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29373300</v>
+        <v>29898000</v>
       </c>
       <c r="E18" s="3">
-        <v>27489000</v>
+        <v>27980000</v>
       </c>
       <c r="F18" s="3">
-        <v>20769600</v>
+        <v>21140600</v>
       </c>
       <c r="G18" s="3">
-        <v>27447700</v>
+        <v>27938000</v>
       </c>
       <c r="H18" s="3">
-        <v>26826600</v>
+        <v>27305900</v>
       </c>
       <c r="I18" s="3">
-        <v>26508200</v>
+        <v>26981700</v>
       </c>
       <c r="J18" s="3">
-        <v>22780900</v>
+        <v>23187800</v>
       </c>
       <c r="K18" s="3">
         <v>23088500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13238800</v>
+        <v>-13475200</v>
       </c>
       <c r="E20" s="3">
-        <v>-12098200</v>
+        <v>-12314400</v>
       </c>
       <c r="F20" s="3">
-        <v>-22966000</v>
+        <v>-23376300</v>
       </c>
       <c r="G20" s="3">
-        <v>-14177200</v>
+        <v>-14430500</v>
       </c>
       <c r="H20" s="3">
-        <v>-11802000</v>
+        <v>-12012800</v>
       </c>
       <c r="I20" s="3">
-        <v>-13715900</v>
+        <v>-13960900</v>
       </c>
       <c r="J20" s="3">
-        <v>-11388300</v>
+        <v>-11591800</v>
       </c>
       <c r="K20" s="3">
         <v>-13342900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19281900</v>
+        <v>19658200</v>
       </c>
       <c r="E21" s="3">
-        <v>18296700</v>
+        <v>18652900</v>
       </c>
       <c r="F21" s="3">
-        <v>766500</v>
+        <v>810100</v>
       </c>
       <c r="G21" s="3">
-        <v>16434700</v>
+        <v>16760400</v>
       </c>
       <c r="H21" s="3">
-        <v>17581600</v>
+        <v>17921500</v>
       </c>
       <c r="I21" s="3">
-        <v>15526300</v>
+        <v>15831400</v>
       </c>
       <c r="J21" s="3">
-        <v>13885100</v>
+        <v>14158400</v>
       </c>
       <c r="K21" s="3">
         <v>12166200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16134500</v>
+        <v>16422700</v>
       </c>
       <c r="E23" s="3">
-        <v>15390700</v>
+        <v>15665700</v>
       </c>
       <c r="F23" s="3">
-        <v>-2196400</v>
+        <v>-2235600</v>
       </c>
       <c r="G23" s="3">
-        <v>13270500</v>
+        <v>13507600</v>
       </c>
       <c r="H23" s="3">
-        <v>15024700</v>
+        <v>15293100</v>
       </c>
       <c r="I23" s="3">
-        <v>12792300</v>
+        <v>13020800</v>
       </c>
       <c r="J23" s="3">
-        <v>11392500</v>
+        <v>11596100</v>
       </c>
       <c r="K23" s="3">
         <v>9745600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4746200</v>
+        <v>4831000</v>
       </c>
       <c r="E24" s="3">
-        <v>5177900</v>
+        <v>5270300</v>
       </c>
       <c r="F24" s="3">
-        <v>5958700</v>
+        <v>6065100</v>
       </c>
       <c r="G24" s="3">
-        <v>4683800</v>
+        <v>4767400</v>
       </c>
       <c r="H24" s="3">
-        <v>5169400</v>
+        <v>5261700</v>
       </c>
       <c r="I24" s="3">
-        <v>4109300</v>
+        <v>4182700</v>
       </c>
       <c r="J24" s="3">
-        <v>3472400</v>
+        <v>3534400</v>
       </c>
       <c r="K24" s="3">
         <v>2259000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11388300</v>
+        <v>11591800</v>
       </c>
       <c r="E26" s="3">
-        <v>10212900</v>
+        <v>10395300</v>
       </c>
       <c r="F26" s="3">
-        <v>-8155100</v>
+        <v>-8300700</v>
       </c>
       <c r="G26" s="3">
-        <v>8586700</v>
+        <v>8740100</v>
       </c>
       <c r="H26" s="3">
-        <v>9855300</v>
+        <v>10031300</v>
       </c>
       <c r="I26" s="3">
-        <v>8683000</v>
+        <v>8838100</v>
       </c>
       <c r="J26" s="3">
-        <v>7920200</v>
+        <v>8061700</v>
       </c>
       <c r="K26" s="3">
         <v>7486500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10162100</v>
+        <v>10343600</v>
       </c>
       <c r="E27" s="3">
-        <v>8595200</v>
+        <v>8748700</v>
       </c>
       <c r="F27" s="3">
-        <v>-9279700</v>
+        <v>-9445500</v>
       </c>
       <c r="G27" s="3">
-        <v>6892900</v>
+        <v>7016000</v>
       </c>
       <c r="H27" s="3">
-        <v>8263000</v>
+        <v>8410600</v>
       </c>
       <c r="I27" s="3">
-        <v>7002900</v>
+        <v>7128000</v>
       </c>
       <c r="J27" s="3">
-        <v>6563800</v>
+        <v>6681100</v>
       </c>
       <c r="K27" s="3">
         <v>5808400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13238800</v>
+        <v>13475200</v>
       </c>
       <c r="E32" s="3">
-        <v>12098200</v>
+        <v>12314400</v>
       </c>
       <c r="F32" s="3">
-        <v>22966000</v>
+        <v>23376300</v>
       </c>
       <c r="G32" s="3">
-        <v>14177200</v>
+        <v>14430500</v>
       </c>
       <c r="H32" s="3">
-        <v>11802000</v>
+        <v>12012800</v>
       </c>
       <c r="I32" s="3">
-        <v>13715900</v>
+        <v>13960900</v>
       </c>
       <c r="J32" s="3">
-        <v>11388300</v>
+        <v>11591800</v>
       </c>
       <c r="K32" s="3">
         <v>13342900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10162100</v>
+        <v>10343600</v>
       </c>
       <c r="E33" s="3">
-        <v>8595200</v>
+        <v>8748700</v>
       </c>
       <c r="F33" s="3">
-        <v>-9279700</v>
+        <v>-9445500</v>
       </c>
       <c r="G33" s="3">
-        <v>6892900</v>
+        <v>7016000</v>
       </c>
       <c r="H33" s="3">
-        <v>8263000</v>
+        <v>8410600</v>
       </c>
       <c r="I33" s="3">
-        <v>7002900</v>
+        <v>7128000</v>
       </c>
       <c r="J33" s="3">
-        <v>6563800</v>
+        <v>6681100</v>
       </c>
       <c r="K33" s="3">
         <v>5808400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10162100</v>
+        <v>10343600</v>
       </c>
       <c r="E35" s="3">
-        <v>8595200</v>
+        <v>8748700</v>
       </c>
       <c r="F35" s="3">
-        <v>-9279700</v>
+        <v>-9445500</v>
       </c>
       <c r="G35" s="3">
-        <v>6892900</v>
+        <v>7016000</v>
       </c>
       <c r="H35" s="3">
-        <v>8263000</v>
+        <v>8410600</v>
       </c>
       <c r="I35" s="3">
-        <v>7002900</v>
+        <v>7128000</v>
       </c>
       <c r="J35" s="3">
-        <v>6563800</v>
+        <v>6681100</v>
       </c>
       <c r="K35" s="3">
         <v>5808400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>252278000</v>
+        <v>256785000</v>
       </c>
       <c r="E41" s="3">
-        <v>239474000</v>
+        <v>243752000</v>
       </c>
       <c r="F41" s="3">
-        <v>175986000</v>
+        <v>179129000</v>
       </c>
       <c r="G41" s="3">
-        <v>126474000</v>
+        <v>128734000</v>
       </c>
       <c r="H41" s="3">
-        <v>136761000</v>
+        <v>139204000</v>
       </c>
       <c r="I41" s="3">
-        <v>145235000</v>
+        <v>147829000</v>
       </c>
       <c r="J41" s="3">
-        <v>110484000</v>
+        <v>112457000</v>
       </c>
       <c r="K41" s="3">
         <v>134322000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>228282000</v>
+        <v>232360000</v>
       </c>
       <c r="E42" s="3">
-        <v>154613000</v>
+        <v>157375000</v>
       </c>
       <c r="F42" s="3">
-        <v>156883000</v>
+        <v>159686000</v>
       </c>
       <c r="G42" s="3">
-        <v>167438000</v>
+        <v>170429000</v>
       </c>
       <c r="H42" s="3">
-        <v>172364000</v>
+        <v>175443000</v>
       </c>
       <c r="I42" s="3">
-        <v>147437000</v>
+        <v>150070000</v>
       </c>
       <c r="J42" s="3">
-        <v>147793000</v>
+        <v>150433000</v>
       </c>
       <c r="K42" s="3">
         <v>116234000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8056700</v>
+        <v>8200600</v>
       </c>
       <c r="E47" s="3">
-        <v>7961500</v>
+        <v>8103700</v>
       </c>
       <c r="F47" s="3">
-        <v>8064100</v>
+        <v>8208100</v>
       </c>
       <c r="G47" s="3">
-        <v>9280800</v>
+        <v>9446600</v>
       </c>
       <c r="H47" s="3">
-        <v>8028100</v>
+        <v>8171500</v>
       </c>
       <c r="I47" s="3">
-        <v>6542700</v>
+        <v>6659500</v>
       </c>
       <c r="J47" s="3">
-        <v>5116500</v>
+        <v>5207900</v>
       </c>
       <c r="K47" s="3">
         <v>3318600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36049200</v>
+        <v>36693200</v>
       </c>
       <c r="E48" s="3">
-        <v>35253600</v>
+        <v>35883400</v>
       </c>
       <c r="F48" s="3">
-        <v>34633600</v>
+        <v>35252300</v>
       </c>
       <c r="G48" s="3">
-        <v>37278600</v>
+        <v>37944600</v>
       </c>
       <c r="H48" s="3">
-        <v>27674100</v>
+        <v>28168500</v>
       </c>
       <c r="I48" s="3">
-        <v>24306500</v>
+        <v>24740700</v>
       </c>
       <c r="J48" s="3">
-        <v>24636600</v>
+        <v>25076700</v>
       </c>
       <c r="K48" s="3">
         <v>25846700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19726400</v>
+        <v>20078800</v>
       </c>
       <c r="E49" s="3">
-        <v>17545900</v>
+        <v>17859300</v>
       </c>
       <c r="F49" s="3">
-        <v>16830700</v>
+        <v>17131300</v>
       </c>
       <c r="G49" s="3">
-        <v>29292800</v>
+        <v>29816100</v>
       </c>
       <c r="H49" s="3">
-        <v>30216500</v>
+        <v>30756300</v>
       </c>
       <c r="I49" s="3">
-        <v>30346600</v>
+        <v>30888700</v>
       </c>
       <c r="J49" s="3">
-        <v>31127400</v>
+        <v>31683500</v>
       </c>
       <c r="K49" s="3">
         <v>30042100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27068900</v>
+        <v>27552500</v>
       </c>
       <c r="E52" s="3">
-        <v>26999100</v>
+        <v>27481400</v>
       </c>
       <c r="F52" s="3">
-        <v>25736900</v>
+        <v>26196700</v>
       </c>
       <c r="G52" s="3">
-        <v>29901200</v>
+        <v>30435300</v>
       </c>
       <c r="H52" s="3">
-        <v>31421500</v>
+        <v>31982900</v>
       </c>
       <c r="I52" s="3">
-        <v>41361500</v>
+        <v>42100300</v>
       </c>
       <c r="J52" s="3">
-        <v>29155300</v>
+        <v>29676100</v>
       </c>
       <c r="K52" s="3">
         <v>29070300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1835270000</v>
+        <v>1868050000</v>
       </c>
       <c r="E54" s="3">
-        <v>1688390000</v>
+        <v>1718550000</v>
       </c>
       <c r="F54" s="3">
-        <v>1595730000</v>
+        <v>1624230000</v>
       </c>
       <c r="G54" s="3">
-        <v>1611010000</v>
+        <v>1639790000</v>
       </c>
       <c r="H54" s="3">
-        <v>1543910000</v>
+        <v>1571490000</v>
       </c>
       <c r="I54" s="3">
-        <v>1528070000</v>
+        <v>1555370000</v>
       </c>
       <c r="J54" s="3">
-        <v>1416790000</v>
+        <v>1442100000</v>
       </c>
       <c r="K54" s="3">
         <v>1368140000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3216300</v>
+        <v>3273800</v>
       </c>
       <c r="E59" s="3">
-        <v>2313800</v>
+        <v>2355200</v>
       </c>
       <c r="F59" s="3">
-        <v>2485200</v>
+        <v>2529600</v>
       </c>
       <c r="G59" s="3">
-        <v>2962400</v>
+        <v>3015300</v>
       </c>
       <c r="H59" s="3">
-        <v>2715900</v>
+        <v>2764400</v>
       </c>
       <c r="I59" s="3">
-        <v>2914800</v>
+        <v>2966900</v>
       </c>
       <c r="J59" s="3">
-        <v>2834400</v>
+        <v>2885000</v>
       </c>
       <c r="K59" s="3">
         <v>2204900</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>296599000</v>
+        <v>301897000</v>
       </c>
       <c r="E61" s="3">
-        <v>260441000</v>
+        <v>265093000</v>
       </c>
       <c r="F61" s="3">
-        <v>248915000</v>
+        <v>253361000</v>
       </c>
       <c r="G61" s="3">
-        <v>277172000</v>
+        <v>282123000</v>
       </c>
       <c r="H61" s="3">
-        <v>260923000</v>
+        <v>265584000</v>
       </c>
       <c r="I61" s="3">
-        <v>230608000</v>
+        <v>234728000</v>
       </c>
       <c r="J61" s="3">
-        <v>242143000</v>
+        <v>246469000</v>
       </c>
       <c r="K61" s="3">
         <v>230887000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15422500</v>
+        <v>15698000</v>
       </c>
       <c r="E62" s="3">
-        <v>16975600</v>
+        <v>17278900</v>
       </c>
       <c r="F62" s="3">
-        <v>17758500</v>
+        <v>18075800</v>
       </c>
       <c r="G62" s="3">
-        <v>21698500</v>
+        <v>22086100</v>
       </c>
       <c r="H62" s="3">
-        <v>19883000</v>
+        <v>20238200</v>
       </c>
       <c r="I62" s="3">
-        <v>20446900</v>
+        <v>20812200</v>
       </c>
       <c r="J62" s="3">
-        <v>21321900</v>
+        <v>21702800</v>
       </c>
       <c r="K62" s="3">
         <v>20476200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1741000000</v>
+        <v>1772100000</v>
       </c>
       <c r="E66" s="3">
-        <v>1596420000</v>
+        <v>1624940000</v>
       </c>
       <c r="F66" s="3">
-        <v>1509530000</v>
+        <v>1536490000</v>
       </c>
       <c r="G66" s="3">
-        <v>1505140000</v>
+        <v>1532020000</v>
       </c>
       <c r="H66" s="3">
-        <v>1441840000</v>
+        <v>1467600000</v>
       </c>
       <c r="I66" s="3">
-        <v>1428110000</v>
+        <v>1453620000</v>
       </c>
       <c r="J66" s="3">
-        <v>1320580000</v>
+        <v>1344170000</v>
       </c>
       <c r="K66" s="3">
         <v>1278270000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>80732800</v>
+        <v>82175000</v>
       </c>
       <c r="E72" s="3">
-        <v>72364000</v>
+        <v>73656700</v>
       </c>
       <c r="F72" s="3">
-        <v>60107100</v>
+        <v>61180800</v>
       </c>
       <c r="G72" s="3">
-        <v>71460500</v>
+        <v>72737100</v>
       </c>
       <c r="H72" s="3">
-        <v>68310800</v>
+        <v>69531100</v>
       </c>
       <c r="I72" s="3">
-        <v>63539200</v>
+        <v>64674300</v>
       </c>
       <c r="J72" s="3">
-        <v>59414100</v>
+        <v>60475500</v>
       </c>
       <c r="K72" s="3">
         <v>52801900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94272000</v>
+        <v>95956100</v>
       </c>
       <c r="E76" s="3">
-        <v>91971900</v>
+        <v>93614900</v>
       </c>
       <c r="F76" s="3">
-        <v>86201600</v>
+        <v>87741500</v>
       </c>
       <c r="G76" s="3">
-        <v>105875000</v>
+        <v>107767000</v>
       </c>
       <c r="H76" s="3">
-        <v>102067000</v>
+        <v>103891000</v>
       </c>
       <c r="I76" s="3">
-        <v>99969400</v>
+        <v>101755000</v>
       </c>
       <c r="J76" s="3">
-        <v>96212400</v>
+        <v>97931100</v>
       </c>
       <c r="K76" s="3">
         <v>89871200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10162100</v>
+        <v>10343600</v>
       </c>
       <c r="E81" s="3">
-        <v>8595200</v>
+        <v>8748700</v>
       </c>
       <c r="F81" s="3">
-        <v>-9279700</v>
+        <v>-9445500</v>
       </c>
       <c r="G81" s="3">
-        <v>6892900</v>
+        <v>7016000</v>
       </c>
       <c r="H81" s="3">
-        <v>8263000</v>
+        <v>8410600</v>
       </c>
       <c r="I81" s="3">
-        <v>7002900</v>
+        <v>7128000</v>
       </c>
       <c r="J81" s="3">
-        <v>6563800</v>
+        <v>6681100</v>
       </c>
       <c r="K81" s="3">
         <v>5808400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3158100</v>
+        <v>3214500</v>
       </c>
       <c r="E83" s="3">
-        <v>2915800</v>
+        <v>2967900</v>
       </c>
       <c r="F83" s="3">
-        <v>2973000</v>
+        <v>3026100</v>
       </c>
       <c r="G83" s="3">
-        <v>3175100</v>
+        <v>3231800</v>
       </c>
       <c r="H83" s="3">
-        <v>2565700</v>
+        <v>2611500</v>
       </c>
       <c r="I83" s="3">
-        <v>2743400</v>
+        <v>2792400</v>
       </c>
       <c r="J83" s="3">
-        <v>2501100</v>
+        <v>2545800</v>
       </c>
       <c r="K83" s="3">
         <v>2468300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29312900</v>
+        <v>29836600</v>
       </c>
       <c r="E89" s="3">
-        <v>59979100</v>
+        <v>61050500</v>
       </c>
       <c r="F89" s="3">
-        <v>69989900</v>
+        <v>71240200</v>
       </c>
       <c r="G89" s="3">
-        <v>3585600</v>
+        <v>3649600</v>
       </c>
       <c r="H89" s="3">
-        <v>3614100</v>
+        <v>3678700</v>
       </c>
       <c r="I89" s="3">
-        <v>42518900</v>
+        <v>43278500</v>
       </c>
       <c r="J89" s="3">
-        <v>23088700</v>
+        <v>23501200</v>
       </c>
       <c r="K89" s="3">
         <v>5796100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9591800</v>
+        <v>-9763200</v>
       </c>
       <c r="E91" s="3">
-        <v>-10595900</v>
+        <v>-10785200</v>
       </c>
       <c r="F91" s="3">
-        <v>-7814400</v>
+        <v>-7954000</v>
       </c>
       <c r="G91" s="3">
-        <v>-13506400</v>
+        <v>-13747700</v>
       </c>
       <c r="H91" s="3">
-        <v>-11348100</v>
+        <v>-11550800</v>
       </c>
       <c r="I91" s="3">
-        <v>-7882100</v>
+        <v>-8022900</v>
       </c>
       <c r="J91" s="3">
-        <v>-6953200</v>
+        <v>-7077400</v>
       </c>
       <c r="K91" s="3">
         <v>-7823400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4124100</v>
+        <v>-4197800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3930500</v>
+        <v>-4000700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7638800</v>
+        <v>-7775200</v>
       </c>
       <c r="G94" s="3">
-        <v>-7648300</v>
+        <v>-7784900</v>
       </c>
       <c r="H94" s="3">
-        <v>3330600</v>
+        <v>3390100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4240500</v>
+        <v>-4316200</v>
       </c>
       <c r="J94" s="3">
-        <v>-14562300</v>
+        <v>-14822500</v>
       </c>
       <c r="K94" s="3">
         <v>-6347300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1955200</v>
+        <v>-1990100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1389200</v>
+        <v>-1414000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-3991800</v>
+        <v>-4063100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3298800</v>
+        <v>-3357800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2819600</v>
+        <v>-2869900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2442900</v>
+        <v>-2486600</v>
       </c>
       <c r="K96" s="3">
         <v>-1529200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10551400</v>
+        <v>-10730200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1398700</v>
+        <v>-1423700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2019700</v>
+        <v>-2055800</v>
       </c>
       <c r="G100" s="3">
-        <v>-10709100</v>
+        <v>-10900400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3492500</v>
+        <v>-3554800</v>
       </c>
       <c r="I100" s="3">
-        <v>4449900</v>
+        <v>4529400</v>
       </c>
       <c r="J100" s="3">
-        <v>-6078200</v>
+        <v>-6186800</v>
       </c>
       <c r="K100" s="3">
         <v>9146400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1544700</v>
+        <v>-1572300</v>
       </c>
       <c r="E101" s="3">
-        <v>5497400</v>
+        <v>5595600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4498600</v>
+        <v>-4579000</v>
       </c>
       <c r="G101" s="3">
-        <v>1445200</v>
+        <v>1471000</v>
       </c>
       <c r="H101" s="3">
-        <v>-629500</v>
+        <v>-640800</v>
       </c>
       <c r="I101" s="3">
-        <v>-6184000</v>
+        <v>-6294500</v>
       </c>
       <c r="J101" s="3">
-        <v>-3820400</v>
+        <v>-3888700</v>
       </c>
       <c r="K101" s="3">
         <v>-532900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13102300</v>
+        <v>13336300</v>
       </c>
       <c r="E102" s="3">
-        <v>60147300</v>
+        <v>61221800</v>
       </c>
       <c r="F102" s="3">
-        <v>55832800</v>
+        <v>56830200</v>
       </c>
       <c r="G102" s="3">
-        <v>-13326600</v>
+        <v>-13564600</v>
       </c>
       <c r="H102" s="3">
-        <v>2822700</v>
+        <v>2873200</v>
       </c>
       <c r="I102" s="3">
-        <v>36544400</v>
+        <v>37197200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1372200</v>
+        <v>-1396700</v>
       </c>
       <c r="K102" s="3">
         <v>8062300</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>76923000</v>
+        <v>77437300</v>
       </c>
       <c r="E8" s="3">
-        <v>50036000</v>
+        <v>50370500</v>
       </c>
       <c r="F8" s="3">
-        <v>49258500</v>
+        <v>49587800</v>
       </c>
       <c r="G8" s="3">
-        <v>61151800</v>
+        <v>61560600</v>
       </c>
       <c r="H8" s="3">
-        <v>58502600</v>
+        <v>58893700</v>
       </c>
       <c r="I8" s="3">
-        <v>60350600</v>
+        <v>60754000</v>
       </c>
       <c r="J8" s="3">
-        <v>59397500</v>
+        <v>59794600</v>
       </c>
       <c r="K8" s="3">
         <v>58387700</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3214500</v>
+        <v>-3236000</v>
       </c>
       <c r="E15" s="3">
-        <v>-2967900</v>
+        <v>-2987800</v>
       </c>
       <c r="F15" s="3">
-        <v>-3026100</v>
+        <v>-3046300</v>
       </c>
       <c r="G15" s="3">
-        <v>-3231800</v>
+        <v>-3253400</v>
       </c>
       <c r="H15" s="3">
-        <v>-2611500</v>
+        <v>-2628900</v>
       </c>
       <c r="I15" s="3">
-        <v>-2792400</v>
+        <v>-2811100</v>
       </c>
       <c r="J15" s="3">
-        <v>-2545800</v>
+        <v>-2562800</v>
       </c>
       <c r="K15" s="3">
         <v>-2468300</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47025000</v>
+        <v>47339400</v>
       </c>
       <c r="E17" s="3">
-        <v>22056000</v>
+        <v>22203500</v>
       </c>
       <c r="F17" s="3">
-        <v>28117900</v>
+        <v>28305900</v>
       </c>
       <c r="G17" s="3">
-        <v>33213700</v>
+        <v>33435800</v>
       </c>
       <c r="H17" s="3">
-        <v>31196700</v>
+        <v>31405300</v>
       </c>
       <c r="I17" s="3">
-        <v>33368800</v>
+        <v>33591900</v>
       </c>
       <c r="J17" s="3">
-        <v>36209700</v>
+        <v>36451800</v>
       </c>
       <c r="K17" s="3">
         <v>35299300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29898000</v>
+        <v>30097900</v>
       </c>
       <c r="E18" s="3">
-        <v>27980000</v>
+        <v>28167100</v>
       </c>
       <c r="F18" s="3">
-        <v>21140600</v>
+        <v>21282000</v>
       </c>
       <c r="G18" s="3">
-        <v>27938000</v>
+        <v>28124800</v>
       </c>
       <c r="H18" s="3">
-        <v>27305900</v>
+        <v>27488400</v>
       </c>
       <c r="I18" s="3">
-        <v>26981700</v>
+        <v>27162100</v>
       </c>
       <c r="J18" s="3">
-        <v>23187800</v>
+        <v>23342800</v>
       </c>
       <c r="K18" s="3">
         <v>23088500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13475200</v>
+        <v>-13565300</v>
       </c>
       <c r="E20" s="3">
-        <v>-12314400</v>
+        <v>-12396700</v>
       </c>
       <c r="F20" s="3">
-        <v>-23376300</v>
+        <v>-23532600</v>
       </c>
       <c r="G20" s="3">
-        <v>-14430500</v>
+        <v>-14526900</v>
       </c>
       <c r="H20" s="3">
-        <v>-12012800</v>
+        <v>-12093100</v>
       </c>
       <c r="I20" s="3">
-        <v>-13960900</v>
+        <v>-14054300</v>
       </c>
       <c r="J20" s="3">
-        <v>-11591800</v>
+        <v>-11669300</v>
       </c>
       <c r="K20" s="3">
         <v>-13342900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19658200</v>
+        <v>19768600</v>
       </c>
       <c r="E21" s="3">
-        <v>18652900</v>
+        <v>18758200</v>
       </c>
       <c r="F21" s="3">
-        <v>810100</v>
+        <v>795700</v>
       </c>
       <c r="G21" s="3">
-        <v>16760400</v>
+        <v>16851300</v>
       </c>
       <c r="H21" s="3">
-        <v>17921500</v>
+        <v>18024200</v>
       </c>
       <c r="I21" s="3">
-        <v>15831400</v>
+        <v>15918900</v>
       </c>
       <c r="J21" s="3">
-        <v>14158400</v>
+        <v>14236400</v>
       </c>
       <c r="K21" s="3">
         <v>12166200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16422700</v>
+        <v>16532500</v>
       </c>
       <c r="E23" s="3">
-        <v>15665700</v>
+        <v>15770400</v>
       </c>
       <c r="F23" s="3">
-        <v>-2235600</v>
+        <v>-2250600</v>
       </c>
       <c r="G23" s="3">
-        <v>13507600</v>
+        <v>13597900</v>
       </c>
       <c r="H23" s="3">
-        <v>15293100</v>
+        <v>15395300</v>
       </c>
       <c r="I23" s="3">
-        <v>13020800</v>
+        <v>13107900</v>
       </c>
       <c r="J23" s="3">
-        <v>11596100</v>
+        <v>11673600</v>
       </c>
       <c r="K23" s="3">
         <v>9745600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4831000</v>
+        <v>4863300</v>
       </c>
       <c r="E24" s="3">
-        <v>5270300</v>
+        <v>5305600</v>
       </c>
       <c r="F24" s="3">
-        <v>6065100</v>
+        <v>6105700</v>
       </c>
       <c r="G24" s="3">
-        <v>4767400</v>
+        <v>4799300</v>
       </c>
       <c r="H24" s="3">
-        <v>5261700</v>
+        <v>5296900</v>
       </c>
       <c r="I24" s="3">
-        <v>4182700</v>
+        <v>4210600</v>
       </c>
       <c r="J24" s="3">
-        <v>3534400</v>
+        <v>3558000</v>
       </c>
       <c r="K24" s="3">
         <v>2259000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11591800</v>
+        <v>11669300</v>
       </c>
       <c r="E26" s="3">
-        <v>10395300</v>
+        <v>10464800</v>
       </c>
       <c r="F26" s="3">
-        <v>-8300700</v>
+        <v>-8356200</v>
       </c>
       <c r="G26" s="3">
-        <v>8740100</v>
+        <v>8798600</v>
       </c>
       <c r="H26" s="3">
-        <v>10031300</v>
+        <v>10098400</v>
       </c>
       <c r="I26" s="3">
-        <v>8838100</v>
+        <v>8897200</v>
       </c>
       <c r="J26" s="3">
-        <v>8061700</v>
+        <v>8115600</v>
       </c>
       <c r="K26" s="3">
         <v>7486500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10343600</v>
+        <v>10412800</v>
       </c>
       <c r="E27" s="3">
-        <v>8748700</v>
+        <v>8807200</v>
       </c>
       <c r="F27" s="3">
-        <v>-9445500</v>
+        <v>-9508600</v>
       </c>
       <c r="G27" s="3">
-        <v>7016000</v>
+        <v>7062900</v>
       </c>
       <c r="H27" s="3">
-        <v>8410600</v>
+        <v>8466800</v>
       </c>
       <c r="I27" s="3">
-        <v>7128000</v>
+        <v>7175700</v>
       </c>
       <c r="J27" s="3">
-        <v>6681100</v>
+        <v>6725800</v>
       </c>
       <c r="K27" s="3">
         <v>5808400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13475200</v>
+        <v>13565300</v>
       </c>
       <c r="E32" s="3">
-        <v>12314400</v>
+        <v>12396700</v>
       </c>
       <c r="F32" s="3">
-        <v>23376300</v>
+        <v>23532600</v>
       </c>
       <c r="G32" s="3">
-        <v>14430500</v>
+        <v>14526900</v>
       </c>
       <c r="H32" s="3">
-        <v>12012800</v>
+        <v>12093100</v>
       </c>
       <c r="I32" s="3">
-        <v>13960900</v>
+        <v>14054300</v>
       </c>
       <c r="J32" s="3">
-        <v>11591800</v>
+        <v>11669300</v>
       </c>
       <c r="K32" s="3">
         <v>13342900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10343600</v>
+        <v>10412800</v>
       </c>
       <c r="E33" s="3">
-        <v>8748700</v>
+        <v>8807200</v>
       </c>
       <c r="F33" s="3">
-        <v>-9445500</v>
+        <v>-9508600</v>
       </c>
       <c r="G33" s="3">
-        <v>7016000</v>
+        <v>7062900</v>
       </c>
       <c r="H33" s="3">
-        <v>8410600</v>
+        <v>8466800</v>
       </c>
       <c r="I33" s="3">
-        <v>7128000</v>
+        <v>7175700</v>
       </c>
       <c r="J33" s="3">
-        <v>6681100</v>
+        <v>6725800</v>
       </c>
       <c r="K33" s="3">
         <v>5808400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10343600</v>
+        <v>10412800</v>
       </c>
       <c r="E35" s="3">
-        <v>8748700</v>
+        <v>8807200</v>
       </c>
       <c r="F35" s="3">
-        <v>-9445500</v>
+        <v>-9508600</v>
       </c>
       <c r="G35" s="3">
-        <v>7016000</v>
+        <v>7062900</v>
       </c>
       <c r="H35" s="3">
-        <v>8410600</v>
+        <v>8466800</v>
       </c>
       <c r="I35" s="3">
-        <v>7128000</v>
+        <v>7175700</v>
       </c>
       <c r="J35" s="3">
-        <v>6681100</v>
+        <v>6725800</v>
       </c>
       <c r="K35" s="3">
         <v>5808400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>256785000</v>
+        <v>258502000</v>
       </c>
       <c r="E41" s="3">
-        <v>243752000</v>
+        <v>245382000</v>
       </c>
       <c r="F41" s="3">
-        <v>179129000</v>
+        <v>180327000</v>
       </c>
       <c r="G41" s="3">
-        <v>128734000</v>
+        <v>129594000</v>
       </c>
       <c r="H41" s="3">
-        <v>139204000</v>
+        <v>140135000</v>
       </c>
       <c r="I41" s="3">
-        <v>147829000</v>
+        <v>148818000</v>
       </c>
       <c r="J41" s="3">
-        <v>112457000</v>
+        <v>113209000</v>
       </c>
       <c r="K41" s="3">
         <v>134322000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>232360000</v>
+        <v>233913000</v>
       </c>
       <c r="E42" s="3">
-        <v>157375000</v>
+        <v>158427000</v>
       </c>
       <c r="F42" s="3">
-        <v>159686000</v>
+        <v>160754000</v>
       </c>
       <c r="G42" s="3">
-        <v>170429000</v>
+        <v>171569000</v>
       </c>
       <c r="H42" s="3">
-        <v>175443000</v>
+        <v>176616000</v>
       </c>
       <c r="I42" s="3">
-        <v>150070000</v>
+        <v>151074000</v>
       </c>
       <c r="J42" s="3">
-        <v>150433000</v>
+        <v>151439000</v>
       </c>
       <c r="K42" s="3">
         <v>116234000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8200600</v>
+        <v>8255400</v>
       </c>
       <c r="E47" s="3">
-        <v>8103700</v>
+        <v>8157900</v>
       </c>
       <c r="F47" s="3">
-        <v>8208100</v>
+        <v>8263000</v>
       </c>
       <c r="G47" s="3">
-        <v>9446600</v>
+        <v>9509700</v>
       </c>
       <c r="H47" s="3">
-        <v>8171500</v>
+        <v>8226200</v>
       </c>
       <c r="I47" s="3">
-        <v>6659500</v>
+        <v>6704100</v>
       </c>
       <c r="J47" s="3">
-        <v>5207900</v>
+        <v>5242700</v>
       </c>
       <c r="K47" s="3">
         <v>3318600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36693200</v>
+        <v>36938500</v>
       </c>
       <c r="E48" s="3">
-        <v>35883400</v>
+        <v>36123300</v>
       </c>
       <c r="F48" s="3">
-        <v>35252300</v>
+        <v>35488000</v>
       </c>
       <c r="G48" s="3">
-        <v>37944600</v>
+        <v>38198300</v>
       </c>
       <c r="H48" s="3">
-        <v>28168500</v>
+        <v>28356800</v>
       </c>
       <c r="I48" s="3">
-        <v>24740700</v>
+        <v>24906100</v>
       </c>
       <c r="J48" s="3">
-        <v>25076700</v>
+        <v>25244400</v>
       </c>
       <c r="K48" s="3">
         <v>25846700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20078800</v>
+        <v>20213000</v>
       </c>
       <c r="E49" s="3">
-        <v>17859300</v>
+        <v>17978700</v>
       </c>
       <c r="F49" s="3">
-        <v>17131300</v>
+        <v>17245900</v>
       </c>
       <c r="G49" s="3">
-        <v>29816100</v>
+        <v>30015500</v>
       </c>
       <c r="H49" s="3">
-        <v>30756300</v>
+        <v>30961900</v>
       </c>
       <c r="I49" s="3">
-        <v>30888700</v>
+        <v>31095200</v>
       </c>
       <c r="J49" s="3">
-        <v>31683500</v>
+        <v>31895300</v>
       </c>
       <c r="K49" s="3">
         <v>30042100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27552500</v>
+        <v>27736700</v>
       </c>
       <c r="E52" s="3">
-        <v>27481400</v>
+        <v>27665100</v>
       </c>
       <c r="F52" s="3">
-        <v>26196700</v>
+        <v>26371800</v>
       </c>
       <c r="G52" s="3">
-        <v>30435300</v>
+        <v>30638800</v>
       </c>
       <c r="H52" s="3">
-        <v>31982900</v>
+        <v>32196700</v>
       </c>
       <c r="I52" s="3">
-        <v>42100300</v>
+        <v>42381800</v>
       </c>
       <c r="J52" s="3">
-        <v>29676100</v>
+        <v>29874500</v>
       </c>
       <c r="K52" s="3">
         <v>29070300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1868050000</v>
+        <v>1880540000</v>
       </c>
       <c r="E54" s="3">
-        <v>1718550000</v>
+        <v>1730040000</v>
       </c>
       <c r="F54" s="3">
-        <v>1624230000</v>
+        <v>1635090000</v>
       </c>
       <c r="G54" s="3">
-        <v>1639790000</v>
+        <v>1650750000</v>
       </c>
       <c r="H54" s="3">
-        <v>1571490000</v>
+        <v>1582000000</v>
       </c>
       <c r="I54" s="3">
-        <v>1555370000</v>
+        <v>1565770000</v>
       </c>
       <c r="J54" s="3">
-        <v>1442100000</v>
+        <v>1451750000</v>
       </c>
       <c r="K54" s="3">
         <v>1368140000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3273800</v>
+        <v>3295700</v>
       </c>
       <c r="E59" s="3">
-        <v>2355200</v>
+        <v>2370900</v>
       </c>
       <c r="F59" s="3">
-        <v>2529600</v>
+        <v>2546600</v>
       </c>
       <c r="G59" s="3">
-        <v>3015300</v>
+        <v>3035500</v>
       </c>
       <c r="H59" s="3">
-        <v>2764400</v>
+        <v>2782900</v>
       </c>
       <c r="I59" s="3">
-        <v>2966900</v>
+        <v>2986700</v>
       </c>
       <c r="J59" s="3">
-        <v>2885000</v>
+        <v>2904300</v>
       </c>
       <c r="K59" s="3">
         <v>2204900</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>301897000</v>
+        <v>303916000</v>
       </c>
       <c r="E61" s="3">
-        <v>265093000</v>
+        <v>266865000</v>
       </c>
       <c r="F61" s="3">
-        <v>253361000</v>
+        <v>255055000</v>
       </c>
       <c r="G61" s="3">
-        <v>282123000</v>
+        <v>284009000</v>
       </c>
       <c r="H61" s="3">
-        <v>265584000</v>
+        <v>267360000</v>
       </c>
       <c r="I61" s="3">
-        <v>234728000</v>
+        <v>236297000</v>
       </c>
       <c r="J61" s="3">
-        <v>246469000</v>
+        <v>248117000</v>
       </c>
       <c r="K61" s="3">
         <v>230887000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15698000</v>
+        <v>15802900</v>
       </c>
       <c r="E62" s="3">
-        <v>17278900</v>
+        <v>17394400</v>
       </c>
       <c r="F62" s="3">
-        <v>18075800</v>
+        <v>18196600</v>
       </c>
       <c r="G62" s="3">
-        <v>22086100</v>
+        <v>22233800</v>
       </c>
       <c r="H62" s="3">
-        <v>20238200</v>
+        <v>20373500</v>
       </c>
       <c r="I62" s="3">
-        <v>20812200</v>
+        <v>20951300</v>
       </c>
       <c r="J62" s="3">
-        <v>21702800</v>
+        <v>21847900</v>
       </c>
       <c r="K62" s="3">
         <v>20476200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1772100000</v>
+        <v>1783950000</v>
       </c>
       <c r="E66" s="3">
-        <v>1624940000</v>
+        <v>1635800000</v>
       </c>
       <c r="F66" s="3">
-        <v>1536490000</v>
+        <v>1546770000</v>
       </c>
       <c r="G66" s="3">
-        <v>1532020000</v>
+        <v>1542270000</v>
       </c>
       <c r="H66" s="3">
-        <v>1467600000</v>
+        <v>1477410000</v>
       </c>
       <c r="I66" s="3">
-        <v>1453620000</v>
+        <v>1463340000</v>
       </c>
       <c r="J66" s="3">
-        <v>1344170000</v>
+        <v>1353160000</v>
       </c>
       <c r="K66" s="3">
         <v>1278270000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>82175000</v>
+        <v>82724400</v>
       </c>
       <c r="E72" s="3">
-        <v>73656700</v>
+        <v>74149200</v>
       </c>
       <c r="F72" s="3">
-        <v>61180800</v>
+        <v>61589900</v>
       </c>
       <c r="G72" s="3">
-        <v>72737100</v>
+        <v>73223400</v>
       </c>
       <c r="H72" s="3">
-        <v>69531100</v>
+        <v>69996000</v>
       </c>
       <c r="I72" s="3">
-        <v>64674300</v>
+        <v>65106700</v>
       </c>
       <c r="J72" s="3">
-        <v>60475500</v>
+        <v>60879800</v>
       </c>
       <c r="K72" s="3">
         <v>52801900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>95956100</v>
+        <v>96597600</v>
       </c>
       <c r="E76" s="3">
-        <v>93614900</v>
+        <v>94240800</v>
       </c>
       <c r="F76" s="3">
-        <v>87741500</v>
+        <v>88328100</v>
       </c>
       <c r="G76" s="3">
-        <v>107767000</v>
+        <v>108487000</v>
       </c>
       <c r="H76" s="3">
-        <v>103891000</v>
+        <v>104585000</v>
       </c>
       <c r="I76" s="3">
-        <v>101755000</v>
+        <v>102436000</v>
       </c>
       <c r="J76" s="3">
-        <v>97931100</v>
+        <v>98585900</v>
       </c>
       <c r="K76" s="3">
         <v>89871200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10343600</v>
+        <v>10412800</v>
       </c>
       <c r="E81" s="3">
-        <v>8748700</v>
+        <v>8807200</v>
       </c>
       <c r="F81" s="3">
-        <v>-9445500</v>
+        <v>-9508600</v>
       </c>
       <c r="G81" s="3">
-        <v>7016000</v>
+        <v>7062900</v>
       </c>
       <c r="H81" s="3">
-        <v>8410600</v>
+        <v>8466800</v>
       </c>
       <c r="I81" s="3">
-        <v>7128000</v>
+        <v>7175700</v>
       </c>
       <c r="J81" s="3">
-        <v>6681100</v>
+        <v>6725800</v>
       </c>
       <c r="K81" s="3">
         <v>5808400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3214500</v>
+        <v>3236000</v>
       </c>
       <c r="E83" s="3">
-        <v>2967900</v>
+        <v>2987800</v>
       </c>
       <c r="F83" s="3">
-        <v>3026100</v>
+        <v>3046300</v>
       </c>
       <c r="G83" s="3">
-        <v>3231800</v>
+        <v>3253400</v>
       </c>
       <c r="H83" s="3">
-        <v>2611500</v>
+        <v>2628900</v>
       </c>
       <c r="I83" s="3">
-        <v>2792400</v>
+        <v>2811100</v>
       </c>
       <c r="J83" s="3">
-        <v>2545800</v>
+        <v>2562800</v>
       </c>
       <c r="K83" s="3">
         <v>2468300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29836600</v>
+        <v>30036100</v>
       </c>
       <c r="E89" s="3">
-        <v>61050500</v>
+        <v>61458700</v>
       </c>
       <c r="F89" s="3">
-        <v>71240200</v>
+        <v>71716500</v>
       </c>
       <c r="G89" s="3">
-        <v>3649600</v>
+        <v>3674000</v>
       </c>
       <c r="H89" s="3">
-        <v>3678700</v>
+        <v>3703300</v>
       </c>
       <c r="I89" s="3">
-        <v>43278500</v>
+        <v>43567800</v>
       </c>
       <c r="J89" s="3">
-        <v>23501200</v>
+        <v>23658300</v>
       </c>
       <c r="K89" s="3">
         <v>5796100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9763200</v>
+        <v>-9828500</v>
       </c>
       <c r="E91" s="3">
-        <v>-10785200</v>
+        <v>-10857300</v>
       </c>
       <c r="F91" s="3">
-        <v>-7954000</v>
+        <v>-8007200</v>
       </c>
       <c r="G91" s="3">
-        <v>-13747700</v>
+        <v>-13839600</v>
       </c>
       <c r="H91" s="3">
-        <v>-11550800</v>
+        <v>-11628100</v>
       </c>
       <c r="I91" s="3">
-        <v>-8022900</v>
+        <v>-8076500</v>
       </c>
       <c r="J91" s="3">
-        <v>-7077400</v>
+        <v>-7124700</v>
       </c>
       <c r="K91" s="3">
         <v>-7823400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4197800</v>
+        <v>-4225800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4000700</v>
+        <v>-4027400</v>
       </c>
       <c r="F94" s="3">
-        <v>-7775200</v>
+        <v>-7827200</v>
       </c>
       <c r="G94" s="3">
-        <v>-7784900</v>
+        <v>-7837000</v>
       </c>
       <c r="H94" s="3">
-        <v>3390100</v>
+        <v>3412700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4316200</v>
+        <v>-4345100</v>
       </c>
       <c r="J94" s="3">
-        <v>-14822500</v>
+        <v>-14921600</v>
       </c>
       <c r="K94" s="3">
         <v>-6347300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1990100</v>
+        <v>-2003400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1414000</v>
+        <v>-1423400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-4063100</v>
+        <v>-4090300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3357800</v>
+        <v>-3380200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2869900</v>
+        <v>-2889100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2486600</v>
+        <v>-2503200</v>
       </c>
       <c r="K96" s="3">
         <v>-1529200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10730200</v>
+        <v>-10802000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1423700</v>
+        <v>-1433200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2055800</v>
+        <v>-2069500</v>
       </c>
       <c r="G100" s="3">
-        <v>-10900400</v>
+        <v>-10973300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3554800</v>
+        <v>-3578600</v>
       </c>
       <c r="I100" s="3">
-        <v>4529400</v>
+        <v>4559700</v>
       </c>
       <c r="J100" s="3">
-        <v>-6186800</v>
+        <v>-6228200</v>
       </c>
       <c r="K100" s="3">
         <v>9146400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1572300</v>
+        <v>-1582800</v>
       </c>
       <c r="E101" s="3">
-        <v>5595600</v>
+        <v>5633000</v>
       </c>
       <c r="F101" s="3">
-        <v>-4579000</v>
+        <v>-4609600</v>
       </c>
       <c r="G101" s="3">
-        <v>1471000</v>
+        <v>1480900</v>
       </c>
       <c r="H101" s="3">
-        <v>-640800</v>
+        <v>-645000</v>
       </c>
       <c r="I101" s="3">
-        <v>-6294500</v>
+        <v>-6336600</v>
       </c>
       <c r="J101" s="3">
-        <v>-3888700</v>
+        <v>-3914700</v>
       </c>
       <c r="K101" s="3">
         <v>-532900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13336300</v>
+        <v>13425500</v>
       </c>
       <c r="E102" s="3">
-        <v>61221800</v>
+        <v>61631100</v>
       </c>
       <c r="F102" s="3">
-        <v>56830200</v>
+        <v>57210100</v>
       </c>
       <c r="G102" s="3">
-        <v>-13564600</v>
+        <v>-13655300</v>
       </c>
       <c r="H102" s="3">
-        <v>2873200</v>
+        <v>2892400</v>
       </c>
       <c r="I102" s="3">
-        <v>37197200</v>
+        <v>37445900</v>
       </c>
       <c r="J102" s="3">
-        <v>-1396700</v>
+        <v>-1406100</v>
       </c>
       <c r="K102" s="3">
         <v>8062300</v>

--- a/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAN_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77437300</v>
+        <v>77501600</v>
       </c>
       <c r="E8" s="3">
-        <v>50370500</v>
+        <v>50412400</v>
       </c>
       <c r="F8" s="3">
-        <v>49587800</v>
+        <v>49629000</v>
       </c>
       <c r="G8" s="3">
-        <v>61560600</v>
+        <v>61611700</v>
       </c>
       <c r="H8" s="3">
-        <v>58893700</v>
+        <v>58942600</v>
       </c>
       <c r="I8" s="3">
-        <v>60754000</v>
+        <v>60804500</v>
       </c>
       <c r="J8" s="3">
-        <v>59794600</v>
+        <v>59844300</v>
       </c>
       <c r="K8" s="3">
         <v>58387700</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3236000</v>
+        <v>-3238700</v>
       </c>
       <c r="E15" s="3">
-        <v>-2987800</v>
+        <v>-2990300</v>
       </c>
       <c r="F15" s="3">
-        <v>-3046300</v>
+        <v>-3048900</v>
       </c>
       <c r="G15" s="3">
-        <v>-3253400</v>
+        <v>-3256100</v>
       </c>
       <c r="H15" s="3">
-        <v>-2628900</v>
+        <v>-2631100</v>
       </c>
       <c r="I15" s="3">
-        <v>-2811100</v>
+        <v>-2813400</v>
       </c>
       <c r="J15" s="3">
-        <v>-2562800</v>
+        <v>-2564900</v>
       </c>
       <c r="K15" s="3">
         <v>-2468300</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47339400</v>
+        <v>47378700</v>
       </c>
       <c r="E17" s="3">
-        <v>22203500</v>
+        <v>22221900</v>
       </c>
       <c r="F17" s="3">
-        <v>28305900</v>
+        <v>28329400</v>
       </c>
       <c r="G17" s="3">
-        <v>33435800</v>
+        <v>33463600</v>
       </c>
       <c r="H17" s="3">
-        <v>31405300</v>
+        <v>31431400</v>
       </c>
       <c r="I17" s="3">
-        <v>33591900</v>
+        <v>33619800</v>
       </c>
       <c r="J17" s="3">
-        <v>36451800</v>
+        <v>36482000</v>
       </c>
       <c r="K17" s="3">
         <v>35299300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30097900</v>
+        <v>30122900</v>
       </c>
       <c r="E18" s="3">
-        <v>28167100</v>
+        <v>28190500</v>
       </c>
       <c r="F18" s="3">
-        <v>21282000</v>
+        <v>21299600</v>
       </c>
       <c r="G18" s="3">
-        <v>28124800</v>
+        <v>28148200</v>
       </c>
       <c r="H18" s="3">
-        <v>27488400</v>
+        <v>27511300</v>
       </c>
       <c r="I18" s="3">
-        <v>27162100</v>
+        <v>27184700</v>
       </c>
       <c r="J18" s="3">
-        <v>23342800</v>
+        <v>23362200</v>
       </c>
       <c r="K18" s="3">
         <v>23088500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13565300</v>
+        <v>-13576600</v>
       </c>
       <c r="E20" s="3">
-        <v>-12396700</v>
+        <v>-12407000</v>
       </c>
       <c r="F20" s="3">
-        <v>-23532600</v>
+        <v>-23552100</v>
       </c>
       <c r="G20" s="3">
-        <v>-14526900</v>
+        <v>-14539000</v>
       </c>
       <c r="H20" s="3">
-        <v>-12093100</v>
+        <v>-12103200</v>
       </c>
       <c r="I20" s="3">
-        <v>-14054300</v>
+        <v>-14065900</v>
       </c>
       <c r="J20" s="3">
-        <v>-11669300</v>
+        <v>-11678900</v>
       </c>
       <c r="K20" s="3">
         <v>-13342900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19768600</v>
+        <v>19783800</v>
       </c>
       <c r="E21" s="3">
-        <v>18758200</v>
+        <v>18772700</v>
       </c>
       <c r="F21" s="3">
-        <v>795700</v>
+        <v>795300</v>
       </c>
       <c r="G21" s="3">
-        <v>16851300</v>
+        <v>16864000</v>
       </c>
       <c r="H21" s="3">
-        <v>18024200</v>
+        <v>18038200</v>
       </c>
       <c r="I21" s="3">
-        <v>15918900</v>
+        <v>15931100</v>
       </c>
       <c r="J21" s="3">
-        <v>14236400</v>
+        <v>14247300</v>
       </c>
       <c r="K21" s="3">
         <v>12166200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16532500</v>
+        <v>16546300</v>
       </c>
       <c r="E23" s="3">
-        <v>15770400</v>
+        <v>15783500</v>
       </c>
       <c r="F23" s="3">
-        <v>-2250600</v>
+        <v>-2252500</v>
       </c>
       <c r="G23" s="3">
-        <v>13597900</v>
+        <v>13609200</v>
       </c>
       <c r="H23" s="3">
-        <v>15395300</v>
+        <v>15408100</v>
       </c>
       <c r="I23" s="3">
-        <v>13107900</v>
+        <v>13118700</v>
       </c>
       <c r="J23" s="3">
-        <v>11673600</v>
+        <v>11683300</v>
       </c>
       <c r="K23" s="3">
         <v>9745600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4863300</v>
+        <v>4867300</v>
       </c>
       <c r="E24" s="3">
-        <v>5305600</v>
+        <v>5310000</v>
       </c>
       <c r="F24" s="3">
-        <v>6105700</v>
+        <v>6110700</v>
       </c>
       <c r="G24" s="3">
-        <v>4799300</v>
+        <v>4803300</v>
       </c>
       <c r="H24" s="3">
-        <v>5296900</v>
+        <v>5301300</v>
       </c>
       <c r="I24" s="3">
-        <v>4210600</v>
+        <v>4214100</v>
       </c>
       <c r="J24" s="3">
-        <v>3558000</v>
+        <v>3561000</v>
       </c>
       <c r="K24" s="3">
         <v>2259000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11669300</v>
+        <v>11678900</v>
       </c>
       <c r="E26" s="3">
-        <v>10464800</v>
+        <v>10473500</v>
       </c>
       <c r="F26" s="3">
-        <v>-8356200</v>
+        <v>-8363200</v>
       </c>
       <c r="G26" s="3">
-        <v>8798600</v>
+        <v>8805900</v>
       </c>
       <c r="H26" s="3">
-        <v>10098400</v>
+        <v>10106800</v>
       </c>
       <c r="I26" s="3">
-        <v>8897200</v>
+        <v>8904600</v>
       </c>
       <c r="J26" s="3">
-        <v>8115600</v>
+        <v>8122300</v>
       </c>
       <c r="K26" s="3">
         <v>7486500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10412800</v>
+        <v>10421400</v>
       </c>
       <c r="E27" s="3">
-        <v>8807200</v>
+        <v>8814500</v>
       </c>
       <c r="F27" s="3">
-        <v>-9508600</v>
+        <v>-9516500</v>
       </c>
       <c r="G27" s="3">
-        <v>7062900</v>
+        <v>7068800</v>
       </c>
       <c r="H27" s="3">
-        <v>8466800</v>
+        <v>8473900</v>
       </c>
       <c r="I27" s="3">
-        <v>7175700</v>
+        <v>7181600</v>
       </c>
       <c r="J27" s="3">
-        <v>6725800</v>
+        <v>6731300</v>
       </c>
       <c r="K27" s="3">
         <v>5808400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13565300</v>
+        <v>13576600</v>
       </c>
       <c r="E32" s="3">
-        <v>12396700</v>
+        <v>12407000</v>
       </c>
       <c r="F32" s="3">
-        <v>23532600</v>
+        <v>23552100</v>
       </c>
       <c r="G32" s="3">
-        <v>14526900</v>
+        <v>14539000</v>
       </c>
       <c r="H32" s="3">
-        <v>12093100</v>
+        <v>12103200</v>
       </c>
       <c r="I32" s="3">
-        <v>14054300</v>
+        <v>14065900</v>
       </c>
       <c r="J32" s="3">
-        <v>11669300</v>
+        <v>11678900</v>
       </c>
       <c r="K32" s="3">
         <v>13342900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10412800</v>
+        <v>10421400</v>
       </c>
       <c r="E33" s="3">
-        <v>8807200</v>
+        <v>8814500</v>
       </c>
       <c r="F33" s="3">
-        <v>-9508600</v>
+        <v>-9516500</v>
       </c>
       <c r="G33" s="3">
-        <v>7062900</v>
+        <v>7068800</v>
       </c>
       <c r="H33" s="3">
-        <v>8466800</v>
+        <v>8473900</v>
       </c>
       <c r="I33" s="3">
-        <v>7175700</v>
+        <v>7181600</v>
       </c>
       <c r="J33" s="3">
-        <v>6725800</v>
+        <v>6731300</v>
       </c>
       <c r="K33" s="3">
         <v>5808400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10412800</v>
+        <v>10421400</v>
       </c>
       <c r="E35" s="3">
-        <v>8807200</v>
+        <v>8814500</v>
       </c>
       <c r="F35" s="3">
-        <v>-9508600</v>
+        <v>-9516500</v>
       </c>
       <c r="G35" s="3">
-        <v>7062900</v>
+        <v>7068800</v>
       </c>
       <c r="H35" s="3">
-        <v>8466800</v>
+        <v>8473900</v>
       </c>
       <c r="I35" s="3">
-        <v>7175700</v>
+        <v>7181600</v>
       </c>
       <c r="J35" s="3">
-        <v>6725800</v>
+        <v>6731300</v>
       </c>
       <c r="K35" s="3">
         <v>5808400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>258502000</v>
+        <v>258716000</v>
       </c>
       <c r="E41" s="3">
-        <v>245382000</v>
+        <v>245585000</v>
       </c>
       <c r="F41" s="3">
-        <v>180327000</v>
+        <v>180477000</v>
       </c>
       <c r="G41" s="3">
-        <v>129594000</v>
+        <v>129702000</v>
       </c>
       <c r="H41" s="3">
-        <v>140135000</v>
+        <v>140251000</v>
       </c>
       <c r="I41" s="3">
-        <v>148818000</v>
+        <v>148941000</v>
       </c>
       <c r="J41" s="3">
-        <v>113209000</v>
+        <v>113303000</v>
       </c>
       <c r="K41" s="3">
         <v>134322000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>233913000</v>
+        <v>234107000</v>
       </c>
       <c r="E42" s="3">
-        <v>158427000</v>
+        <v>158559000</v>
       </c>
       <c r="F42" s="3">
-        <v>160754000</v>
+        <v>160887000</v>
       </c>
       <c r="G42" s="3">
-        <v>171569000</v>
+        <v>171711000</v>
       </c>
       <c r="H42" s="3">
-        <v>176616000</v>
+        <v>176763000</v>
       </c>
       <c r="I42" s="3">
-        <v>151074000</v>
+        <v>151199000</v>
       </c>
       <c r="J42" s="3">
-        <v>151439000</v>
+        <v>151565000</v>
       </c>
       <c r="K42" s="3">
         <v>116234000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8255400</v>
+        <v>8262300</v>
       </c>
       <c r="E47" s="3">
-        <v>8157900</v>
+        <v>8164600</v>
       </c>
       <c r="F47" s="3">
-        <v>8263000</v>
+        <v>8269900</v>
       </c>
       <c r="G47" s="3">
-        <v>9509700</v>
+        <v>9517600</v>
       </c>
       <c r="H47" s="3">
-        <v>8226200</v>
+        <v>8233000</v>
       </c>
       <c r="I47" s="3">
-        <v>6704100</v>
+        <v>6709600</v>
       </c>
       <c r="J47" s="3">
-        <v>5242700</v>
+        <v>5247100</v>
       </c>
       <c r="K47" s="3">
         <v>3318600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36938500</v>
+        <v>36969200</v>
       </c>
       <c r="E48" s="3">
-        <v>36123300</v>
+        <v>36153300</v>
       </c>
       <c r="F48" s="3">
-        <v>35488000</v>
+        <v>35517500</v>
       </c>
       <c r="G48" s="3">
-        <v>38198300</v>
+        <v>38230000</v>
       </c>
       <c r="H48" s="3">
-        <v>28356800</v>
+        <v>28380300</v>
       </c>
       <c r="I48" s="3">
-        <v>24906100</v>
+        <v>24926800</v>
       </c>
       <c r="J48" s="3">
-        <v>25244400</v>
+        <v>25265300</v>
       </c>
       <c r="K48" s="3">
         <v>25846700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20213000</v>
+        <v>20229800</v>
       </c>
       <c r="E49" s="3">
-        <v>17978700</v>
+        <v>17993600</v>
       </c>
       <c r="F49" s="3">
-        <v>17245900</v>
+        <v>17260200</v>
       </c>
       <c r="G49" s="3">
-        <v>30015500</v>
+        <v>30040400</v>
       </c>
       <c r="H49" s="3">
-        <v>30961900</v>
+        <v>30987600</v>
       </c>
       <c r="I49" s="3">
-        <v>31095200</v>
+        <v>31121100</v>
       </c>
       <c r="J49" s="3">
-        <v>31895300</v>
+        <v>31921800</v>
       </c>
       <c r="K49" s="3">
         <v>30042100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27736700</v>
+        <v>27759700</v>
       </c>
       <c r="E52" s="3">
-        <v>27665100</v>
+        <v>27688100</v>
       </c>
       <c r="F52" s="3">
-        <v>26371800</v>
+        <v>26393700</v>
       </c>
       <c r="G52" s="3">
-        <v>30638800</v>
+        <v>30664300</v>
       </c>
       <c r="H52" s="3">
-        <v>32196700</v>
+        <v>32223400</v>
       </c>
       <c r="I52" s="3">
-        <v>42381800</v>
+        <v>42417000</v>
       </c>
       <c r="J52" s="3">
-        <v>29874500</v>
+        <v>29899300</v>
       </c>
       <c r="K52" s="3">
         <v>29070300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1880540000</v>
+        <v>1882110000</v>
       </c>
       <c r="E54" s="3">
-        <v>1730040000</v>
+        <v>1731480000</v>
       </c>
       <c r="F54" s="3">
-        <v>1635090000</v>
+        <v>1636450000</v>
       </c>
       <c r="G54" s="3">
-        <v>1650750000</v>
+        <v>1652120000</v>
       </c>
       <c r="H54" s="3">
-        <v>1582000000</v>
+        <v>1583310000</v>
       </c>
       <c r="I54" s="3">
-        <v>1565770000</v>
+        <v>1567070000</v>
       </c>
       <c r="J54" s="3">
-        <v>1451750000</v>
+        <v>1452950000</v>
       </c>
       <c r="K54" s="3">
         <v>1368140000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3295700</v>
+        <v>3298400</v>
       </c>
       <c r="E59" s="3">
-        <v>2370900</v>
+        <v>2372900</v>
       </c>
       <c r="F59" s="3">
-        <v>2546600</v>
+        <v>2548700</v>
       </c>
       <c r="G59" s="3">
-        <v>3035500</v>
+        <v>3038000</v>
       </c>
       <c r="H59" s="3">
-        <v>2782900</v>
+        <v>2785200</v>
       </c>
       <c r="I59" s="3">
-        <v>2986700</v>
+        <v>2989200</v>
       </c>
       <c r="J59" s="3">
-        <v>2904300</v>
+        <v>2906700</v>
       </c>
       <c r="K59" s="3">
         <v>2204900</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>303916000</v>
+        <v>304168000</v>
       </c>
       <c r="E61" s="3">
-        <v>266865000</v>
+        <v>267087000</v>
       </c>
       <c r="F61" s="3">
-        <v>255055000</v>
+        <v>255267000</v>
       </c>
       <c r="G61" s="3">
-        <v>284009000</v>
+        <v>284245000</v>
       </c>
       <c r="H61" s="3">
-        <v>267360000</v>
+        <v>267582000</v>
       </c>
       <c r="I61" s="3">
-        <v>236297000</v>
+        <v>236493000</v>
       </c>
       <c r="J61" s="3">
-        <v>248117000</v>
+        <v>248323000</v>
       </c>
       <c r="K61" s="3">
         <v>230887000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15802900</v>
+        <v>15816000</v>
       </c>
       <c r="E62" s="3">
-        <v>17394400</v>
+        <v>17408800</v>
       </c>
       <c r="F62" s="3">
-        <v>18196600</v>
+        <v>18211700</v>
       </c>
       <c r="G62" s="3">
-        <v>22233800</v>
+        <v>22252300</v>
       </c>
       <c r="H62" s="3">
-        <v>20373500</v>
+        <v>20390400</v>
       </c>
       <c r="I62" s="3">
-        <v>20951300</v>
+        <v>20968700</v>
       </c>
       <c r="J62" s="3">
-        <v>21847900</v>
+        <v>21866000</v>
       </c>
       <c r="K62" s="3">
         <v>20476200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1783950000</v>
+        <v>1785430000</v>
       </c>
       <c r="E66" s="3">
-        <v>1635800000</v>
+        <v>1637160000</v>
       </c>
       <c r="F66" s="3">
-        <v>1546770000</v>
+        <v>1548050000</v>
       </c>
       <c r="G66" s="3">
-        <v>1542270000</v>
+        <v>1543550000</v>
       </c>
       <c r="H66" s="3">
-        <v>1477410000</v>
+        <v>1478640000</v>
       </c>
       <c r="I66" s="3">
-        <v>1463340000</v>
+        <v>1464550000</v>
       </c>
       <c r="J66" s="3">
-        <v>1353160000</v>
+        <v>1354280000</v>
       </c>
       <c r="K66" s="3">
         <v>1278270000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>82724400</v>
+        <v>82793100</v>
       </c>
       <c r="E72" s="3">
-        <v>74149200</v>
+        <v>74210700</v>
       </c>
       <c r="F72" s="3">
-        <v>61589900</v>
+        <v>61641000</v>
       </c>
       <c r="G72" s="3">
-        <v>73223400</v>
+        <v>73284200</v>
       </c>
       <c r="H72" s="3">
-        <v>69996000</v>
+        <v>70054100</v>
       </c>
       <c r="I72" s="3">
-        <v>65106700</v>
+        <v>65160800</v>
       </c>
       <c r="J72" s="3">
-        <v>60879800</v>
+        <v>60930300</v>
       </c>
       <c r="K72" s="3">
         <v>52801900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>96597600</v>
+        <v>96677800</v>
       </c>
       <c r="E76" s="3">
-        <v>94240800</v>
+        <v>94319100</v>
       </c>
       <c r="F76" s="3">
-        <v>88328100</v>
+        <v>88401500</v>
       </c>
       <c r="G76" s="3">
-        <v>108487000</v>
+        <v>108577000</v>
       </c>
       <c r="H76" s="3">
-        <v>104585000</v>
+        <v>104672000</v>
       </c>
       <c r="I76" s="3">
-        <v>102436000</v>
+        <v>102521000</v>
       </c>
       <c r="J76" s="3">
-        <v>98585900</v>
+        <v>98667700</v>
       </c>
       <c r="K76" s="3">
         <v>89871200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10412800</v>
+        <v>10421400</v>
       </c>
       <c r="E81" s="3">
-        <v>8807200</v>
+        <v>8814500</v>
       </c>
       <c r="F81" s="3">
-        <v>-9508600</v>
+        <v>-9516500</v>
       </c>
       <c r="G81" s="3">
-        <v>7062900</v>
+        <v>7068800</v>
       </c>
       <c r="H81" s="3">
-        <v>8466800</v>
+        <v>8473900</v>
       </c>
       <c r="I81" s="3">
-        <v>7175700</v>
+        <v>7181600</v>
       </c>
       <c r="J81" s="3">
-        <v>6725800</v>
+        <v>6731300</v>
       </c>
       <c r="K81" s="3">
         <v>5808400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3236000</v>
+        <v>3238700</v>
       </c>
       <c r="E83" s="3">
-        <v>2987800</v>
+        <v>2990300</v>
       </c>
       <c r="F83" s="3">
-        <v>3046300</v>
+        <v>3048900</v>
       </c>
       <c r="G83" s="3">
-        <v>3253400</v>
+        <v>3256100</v>
       </c>
       <c r="H83" s="3">
-        <v>2628900</v>
+        <v>2631100</v>
       </c>
       <c r="I83" s="3">
-        <v>2811100</v>
+        <v>2813400</v>
       </c>
       <c r="J83" s="3">
-        <v>2562800</v>
+        <v>2564900</v>
       </c>
       <c r="K83" s="3">
         <v>2468300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30036100</v>
+        <v>30061000</v>
       </c>
       <c r="E89" s="3">
-        <v>61458700</v>
+        <v>61509700</v>
       </c>
       <c r="F89" s="3">
-        <v>71716500</v>
+        <v>71776000</v>
       </c>
       <c r="G89" s="3">
-        <v>3674000</v>
+        <v>3677100</v>
       </c>
       <c r="H89" s="3">
-        <v>3703300</v>
+        <v>3706400</v>
       </c>
       <c r="I89" s="3">
-        <v>43567800</v>
+        <v>43604000</v>
       </c>
       <c r="J89" s="3">
-        <v>23658300</v>
+        <v>23678000</v>
       </c>
       <c r="K89" s="3">
         <v>5796100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9828500</v>
+        <v>-9836600</v>
       </c>
       <c r="E91" s="3">
-        <v>-10857300</v>
+        <v>-10866300</v>
       </c>
       <c r="F91" s="3">
-        <v>-8007200</v>
+        <v>-8013800</v>
       </c>
       <c r="G91" s="3">
-        <v>-13839600</v>
+        <v>-13851100</v>
       </c>
       <c r="H91" s="3">
-        <v>-11628100</v>
+        <v>-11637700</v>
       </c>
       <c r="I91" s="3">
-        <v>-8076500</v>
+        <v>-8083300</v>
       </c>
       <c r="J91" s="3">
-        <v>-7124700</v>
+        <v>-7130600</v>
       </c>
       <c r="K91" s="3">
         <v>-7823400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4225800</v>
+        <v>-4229300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4027400</v>
+        <v>-4030800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7827200</v>
+        <v>-7833700</v>
       </c>
       <c r="G94" s="3">
-        <v>-7837000</v>
+        <v>-7843500</v>
       </c>
       <c r="H94" s="3">
-        <v>3412700</v>
+        <v>3415600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4345100</v>
+        <v>-4348700</v>
       </c>
       <c r="J94" s="3">
-        <v>-14921600</v>
+        <v>-14933900</v>
       </c>
       <c r="K94" s="3">
         <v>-6347300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2003400</v>
+        <v>-2005100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1423400</v>
+        <v>-1424600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-4090300</v>
+        <v>-4093700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3380200</v>
+        <v>-3383000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2889100</v>
+        <v>-2891500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2503200</v>
+        <v>-2505300</v>
       </c>
       <c r="K96" s="3">
         <v>-1529200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10802000</v>
+        <v>-10810900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1433200</v>
+        <v>-1434400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2069500</v>
+        <v>-2071300</v>
       </c>
       <c r="G100" s="3">
-        <v>-10973300</v>
+        <v>-10982400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3578600</v>
+        <v>-3581600</v>
       </c>
       <c r="I100" s="3">
-        <v>4559700</v>
+        <v>4563500</v>
       </c>
       <c r="J100" s="3">
-        <v>-6228200</v>
+        <v>-6233300</v>
       </c>
       <c r="K100" s="3">
         <v>9146400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1582800</v>
+        <v>-1584100</v>
       </c>
       <c r="E101" s="3">
-        <v>5633000</v>
+        <v>5637700</v>
       </c>
       <c r="F101" s="3">
-        <v>-4609600</v>
+        <v>-4613400</v>
       </c>
       <c r="G101" s="3">
-        <v>1480900</v>
+        <v>1482100</v>
       </c>
       <c r="H101" s="3">
-        <v>-645000</v>
+        <v>-645600</v>
       </c>
       <c r="I101" s="3">
-        <v>-6336600</v>
+        <v>-6341800</v>
       </c>
       <c r="J101" s="3">
-        <v>-3914700</v>
+        <v>-3917900</v>
       </c>
       <c r="K101" s="3">
         <v>-532900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13425500</v>
+        <v>13436600</v>
       </c>
       <c r="E102" s="3">
-        <v>61631100</v>
+        <v>61682300</v>
       </c>
       <c r="F102" s="3">
-        <v>57210100</v>
+        <v>57257600</v>
       </c>
       <c r="G102" s="3">
-        <v>-13655300</v>
+        <v>-13666700</v>
       </c>
       <c r="H102" s="3">
-        <v>2892400</v>
+        <v>2894800</v>
       </c>
       <c r="I102" s="3">
-        <v>37445900</v>
+        <v>37477000</v>
       </c>
       <c r="J102" s="3">
-        <v>-1406100</v>
+        <v>-1407200</v>
       </c>
       <c r="K102" s="3">
         <v>8062300</v>
